--- a/Results/pca_kmeans_results_indep_variables.xlsx
+++ b/Results/pca_kmeans_results_indep_variables.xlsx
@@ -633,7 +633,7 @@
         <v>2174.830187504667</v>
       </c>
       <c r="Q2" t="n">
-        <v>2106.133418121734</v>
+        <v>1112.275742469868</v>
       </c>
       <c r="R2" t="n">
         <v>6</v>
@@ -815,7 +815,7 @@
         <v>-1739.380958677281</v>
       </c>
       <c r="Q4" t="n">
-        <v>3359963.590580144</v>
+        <v>1153.302283274847</v>
       </c>
       <c r="R4" t="n">
         <v>2</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -3545,7 +3545,7 @@
         <v>202.2250821571991</v>
       </c>
       <c r="Q34" t="n">
-        <v>1327.080779791311</v>
+        <v>1903.572961039117</v>
       </c>
       <c r="R34" t="n">
         <v>3</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -4946,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -5183,7 +5183,7 @@
         <v>-1116.192865893844</v>
       </c>
       <c r="Q52" t="n">
-        <v>1240.986298314937</v>
+        <v>1500.791413750432</v>
       </c>
       <c r="R52" t="n">
         <v>4</v>
@@ -5365,7 +5365,7 @@
         <v>-521.802622853452</v>
       </c>
       <c r="Q54" t="n">
-        <v>3359282.570199505</v>
+        <v>388.8524086065213</v>
       </c>
       <c r="R54" t="n">
         <v>1</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -5765,7 +5765,7 @@
         <v>14</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -6311,7 +6311,7 @@
         <v>3</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -6857,7 +6857,7 @@
         <v>3</v>
       </c>
       <c r="AC70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -7276,7 +7276,7 @@
         <v>-1694.551685344749</v>
       </c>
       <c r="Q75" t="n">
-        <v>3359476.072103794</v>
+        <v>444.6980819119976</v>
       </c>
       <c r="R75" t="n">
         <v>3</v>
@@ -7549,7 +7549,7 @@
         <v>-1649.26250595463</v>
       </c>
       <c r="Q78" t="n">
-        <v>3359883.582241126</v>
+        <v>1163.236610426882</v>
       </c>
       <c r="R78" t="n">
         <v>4</v>
@@ -9642,7 +9642,7 @@
         <v>-3537.127362365751</v>
       </c>
       <c r="Q101" t="n">
-        <v>3360026.993201354</v>
+        <v>1172.943987292635</v>
       </c>
       <c r="R101" t="n">
         <v>1</v>
@@ -10461,7 +10461,7 @@
         <v>1036.781446836844</v>
       </c>
       <c r="Q110" t="n">
-        <v>1746.824018763209</v>
+        <v>1364.20223948519</v>
       </c>
       <c r="R110" t="n">
         <v>3</v>
@@ -11134,7 +11134,7 @@
         <v>3</v>
       </c>
       <c r="AC117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -11589,7 +11589,7 @@
         <v>2</v>
       </c>
       <c r="AC122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -11680,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="AC123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -11953,7 +11953,7 @@
         <v>1</v>
       </c>
       <c r="AC126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -12358,10 +12358,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00288374040308413</v>
+        <v>0.07385865058054218</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3869493942078708</v>
+        <v>-0.2639030302915267</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -12369,10 +12369,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.340737926752836</v>
+        <v>-2.267388624675399</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6284891678927189</v>
+        <v>0.8086595225910217</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -12380,10 +12380,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.46088007364993</v>
+        <v>-1.985967443221339</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.145872290663386</v>
+        <v>1.664035550826371</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -12391,10 +12391,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.596940147187949</v>
+        <v>-1.631212786664074</v>
       </c>
       <c r="B5" t="n">
-        <v>1.455689350607335</v>
+        <v>-1.398730906337858</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -12402,10 +12402,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.85145624269716</v>
+        <v>-2.010324184160335</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.972058805375769</v>
+        <v>1.766428212175085</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -12413,10 +12413,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2947845638885771</v>
+        <v>0.34502356638141</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7093555067109664</v>
+        <v>-0.5993442557209299</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -12424,10 +12424,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2555995541682018</v>
+        <v>-0.2593831553248018</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4902701099433529</v>
+        <v>-0.5018363524284682</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -12435,10 +12435,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.9845794855078911</v>
+        <v>-0.9503727408526234</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9313753148806385</v>
+        <v>-0.8718373179532968</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -12446,10 +12446,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.2626504595266613</v>
+        <v>-0.1401996759751732</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6660180718369872</v>
+        <v>-0.4987496791921606</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -12457,10 +12457,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.6971681030944589</v>
+        <v>-1.052606945533219</v>
       </c>
       <c r="B11" t="n">
-        <v>1.536269912218294</v>
+        <v>-1.934883858391774</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -12468,10 +12468,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12.76682953092118</v>
+        <v>12.86517995784258</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.491794011563356</v>
+        <v>1.420907714871964</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -12479,10 +12479,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.6757887399651772</v>
+        <v>-0.930304050597744</v>
       </c>
       <c r="B13" t="n">
-        <v>1.738695735595493</v>
+        <v>-1.945416551915171</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -12490,10 +12490,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.554913050957328</v>
+        <v>-1.861556237661477</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6698501880767126</v>
+        <v>-1.040563767144152</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -12501,10 +12501,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.5602047696709604</v>
+        <v>-0.9914931760376842</v>
       </c>
       <c r="B15" t="n">
-        <v>1.84352456844611</v>
+        <v>-2.378789611911488</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -12512,10 +12512,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.850023962887534</v>
+        <v>-1.679393204925301</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.166970896127268</v>
+        <v>2.430878098331842</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -12523,10 +12523,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.723968662183019</v>
+        <v>-1.807269530937143</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7858346052154496</v>
+        <v>-0.7719414385313348</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -12534,10 +12534,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.6714452637073917</v>
+        <v>-0.5925908244830603</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.932442955446241</v>
+        <v>3.000083677354794</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -12545,10 +12545,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3559372011207537</v>
+        <v>0.3837852421642448</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.3956779610445567</v>
+        <v>0.4654696572609036</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -12556,10 +12556,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1661425436731906</v>
+        <v>-0.2200044324479547</v>
       </c>
       <c r="B20" t="n">
-        <v>1.771269590355973</v>
+        <v>-2.243397012867725</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -12567,10 +12567,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.635455877394143</v>
+        <v>-1.973062266384165</v>
       </c>
       <c r="B21" t="n">
-        <v>1.511427352848772</v>
+        <v>-1.909927144516838</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -12578,10 +12578,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-1.967456595999126</v>
+        <v>-2.210689840474848</v>
       </c>
       <c r="B22" t="n">
-        <v>1.068826149791917</v>
+        <v>-1.285820985339337</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -12589,10 +12589,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.235883758445535</v>
+        <v>6.327982883279728</v>
       </c>
       <c r="B23" t="n">
-        <v>1.407989419081687</v>
+        <v>-1.306609000364755</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -12600,10 +12600,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6057098141999578</v>
+        <v>0.6434795664710212</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.7737625911773371</v>
+        <v>0.8355735705017704</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -12611,21 +12611,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.499428913994008</v>
+        <v>4.606717805650041</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.275029133627377</v>
+        <v>2.174187844344708</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1794238863562582</v>
+        <v>0.2723329466565726</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.2731148741738397</v>
+        <v>0.4812973118198081</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -12633,10 +12633,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.77401024262413</v>
+        <v>-1.777019031125173</v>
       </c>
       <c r="B27" t="n">
-        <v>0.07170466487256287</v>
+        <v>-0.05479408076116374</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -12644,10 +12644,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.922477663759514</v>
+        <v>1.893844733592827</v>
       </c>
       <c r="B28" t="n">
-        <v>2.101785250771051</v>
+        <v>-2.144931842171132</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -12655,10 +12655,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.4632360220618425</v>
+        <v>-0.5209425573547648</v>
       </c>
       <c r="B29" t="n">
-        <v>2.371031972747324</v>
+        <v>-2.435566604490938</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -12666,10 +12666,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-1.693400266652415</v>
+        <v>-1.534567011679562</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.547390764546787</v>
+        <v>2.739225291302437</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -12677,10 +12677,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-1.923943343562844</v>
+        <v>-2.05415929390136</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.175497588113186</v>
+        <v>1.035175300020691</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -12688,10 +12688,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.7873157947300498</v>
+        <v>-0.7646680294189915</v>
       </c>
       <c r="B32" t="n">
-        <v>1.506853897175062</v>
+        <v>-1.458166322679906</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -12699,10 +12699,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.00706921201333905</v>
+        <v>0.06091168280082381</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.9345826138292068</v>
+        <v>0.9290110377551866</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -12710,10 +12710,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.1200906558440714</v>
+        <v>0.02813940392201729</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.09502130864254522</v>
+        <v>-0.05766247600848633</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -12721,21 +12721,21 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.487299617643289</v>
+        <v>1.468352702402075</v>
       </c>
       <c r="B35" t="n">
-        <v>-2.762180773798428</v>
+        <v>2.61570166068884</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.7711572741510965</v>
+        <v>-0.7721247356442721</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6889335174365554</v>
+        <v>-0.6503295132255829</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -12743,10 +12743,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.44840384129596</v>
+        <v>6.467401084064798</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.7154823067878613</v>
+        <v>0.621981159704178</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -12754,10 +12754,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.9453228028865952</v>
+        <v>-1.064369002001989</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.022868500699247</v>
+        <v>1.836142084289906</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -12765,10 +12765,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.1785005266918223</v>
+        <v>-0.195061634551613</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.55510311097413</v>
+        <v>1.468642308850558</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -12776,10 +12776,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.297198004997162</v>
+        <v>3.292904066423521</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5309004211689508</v>
+        <v>-0.6251563597772229</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -12787,10 +12787,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1.163026049320455</v>
+        <v>-1.371564861481288</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1148072829324591</v>
+        <v>-0.3563021529253765</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -12798,10 +12798,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.8095707664228233</v>
+        <v>0.8034503082719069</v>
       </c>
       <c r="B42" t="n">
-        <v>2.673116746793272</v>
+        <v>-2.63639184270906</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -12809,10 +12809,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1.194140029873192</v>
+        <v>-1.576828276190489</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.9713152629550268</v>
+        <v>0.4437675209548387</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -12820,10 +12820,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-2.887466230591988</v>
+        <v>-2.631135880183726</v>
       </c>
       <c r="B44" t="n">
-        <v>-2.095127278052592</v>
+        <v>2.533540054370585</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -12831,10 +12831,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1.477888885793043</v>
+        <v>-1.390076460531035</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.4473643023356348</v>
+        <v>0.6356350440365406</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -12842,10 +12842,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.26960413935023</v>
+        <v>-1.195632033579742</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.188613955467551</v>
+        <v>1.260460445451028</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -12853,21 +12853,21 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.381860564150505</v>
+        <v>4.442079435877901</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.583431526661846</v>
+        <v>1.494623767981122</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.7221484265939588</v>
+        <v>-0.5544066643044993</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.576592579862795</v>
+        <v>1.70706254945901</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -12875,21 +12875,21 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.684072890830361</v>
+        <v>3.679995263989212</v>
       </c>
       <c r="B49" t="n">
-        <v>1.641525562172172</v>
+        <v>-1.616420989089357</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.1341466556414299</v>
+        <v>-0.0787297980866626</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.9122717156991944</v>
+        <v>0.9587977422819759</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -12897,10 +12897,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.5708917646493156</v>
+        <v>-0.9056353788367917</v>
       </c>
       <c r="B51" t="n">
-        <v>2.890956982770611</v>
+        <v>-3.306147372021622</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -12908,10 +12908,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.4525762630982771</v>
+        <v>-0.4772192758752438</v>
       </c>
       <c r="B52" t="n">
-        <v>0.542975161283798</v>
+        <v>-0.5740253619840838</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -12919,10 +12919,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.4625665940851953</v>
+        <v>0.4501840930380291</v>
       </c>
       <c r="B53" t="n">
-        <v>1.708546315659266</v>
+        <v>-1.733696706938814</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -12930,10 +12930,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-2.986393883265662</v>
+        <v>-2.369720319795968</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1038286310776758</v>
+        <v>0.6621963691912092</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -12941,10 +12941,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.6315428333122149</v>
+        <v>0.6889669194402754</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5116658866134718</v>
+        <v>-0.3970893964923076</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -12952,21 +12952,21 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.16964856965462</v>
+        <v>2.172817419629089</v>
       </c>
       <c r="B56" t="n">
-        <v>-3.539238655643057</v>
+        <v>3.317850727101015</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.6349336076336862</v>
+        <v>-0.5212427411222041</v>
       </c>
       <c r="B57" t="n">
-        <v>2.356740167976808</v>
+        <v>-2.074849426699801</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -12974,21 +12974,21 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.652203407484861</v>
+        <v>1.564282218935951</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.5840516091412383</v>
+        <v>0.4360071249691931</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.402245794085996</v>
+        <v>1.420480772761014</v>
       </c>
       <c r="B59" t="n">
-        <v>1.268682623005685</v>
+        <v>-1.238001586868718</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -12996,10 +12996,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.7103809066945325</v>
+        <v>0.7129158753496549</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.900478068938659</v>
+        <v>1.812762736274085</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -13007,10 +13007,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1.719865783227777</v>
+        <v>-1.542769113273636</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.908552019597293</v>
+        <v>2.170204970458372</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -13018,10 +13018,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.6130835744178822</v>
+        <v>0.5433330357890379</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.162903800250637</v>
+        <v>0.976365256191039</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -13029,10 +13029,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.526180808957928</v>
+        <v>1.471760617998471</v>
       </c>
       <c r="B63" t="n">
-        <v>3.18447685942266</v>
+        <v>-3.196879716914247</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -13040,21 +13040,21 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.078529884074127</v>
+        <v>2.179006526926223</v>
       </c>
       <c r="B64" t="n">
-        <v>0.982806576438727</v>
+        <v>-0.8602841532765653</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-1.054236743557403</v>
+        <v>-1.066021198212131</v>
       </c>
       <c r="B65" t="n">
-        <v>1.702128963953369</v>
+        <v>-1.617004159946765</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -13062,10 +13062,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.150327254999955</v>
+        <v>-1.376585441917386</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.624287169031257</v>
+        <v>0.2145103934104363</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -13073,10 +13073,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.184051146535675</v>
+        <v>1.137737233291603</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.150732503007178</v>
+        <v>0.9905555837716453</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -13084,10 +13084,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.1999542800607753</v>
+        <v>0.004826023828144067</v>
       </c>
       <c r="B68" t="n">
-        <v>1.312279406208365</v>
+        <v>-1.577581141422377</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -13095,10 +13095,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-2.182674613786914</v>
+        <v>-2.298671349700583</v>
       </c>
       <c r="B69" t="n">
-        <v>1.919787596681553</v>
+        <v>-1.973381848125339</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -13106,21 +13106,21 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.60827395349399</v>
+        <v>3.592450493943997</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.331820878281744</v>
+        <v>1.136295571423189</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-1.317317609239632</v>
+        <v>-1.58595339774798</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7071095938076143</v>
+        <v>-1.003189665549179</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -13128,10 +13128,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.037132158613403</v>
+        <v>1.183046149247545</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.8768309473003785</v>
+        <v>1.001980171948438</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -13139,10 +13139,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.3527147575797787</v>
+        <v>0.2656500630854314</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8165957126501637</v>
+        <v>-0.9150408756372723</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -13150,10 +13150,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.162720439856678</v>
+        <v>-1.371581306477011</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.2236497951209574</v>
+        <v>-0.02042841993040784</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -13161,10 +13161,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.7130433642373204</v>
+        <v>-0.1067962323840029</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8942187627744473</v>
+        <v>-0.1449709920370517</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -13172,10 +13172,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-2.604932693208153</v>
+        <v>-2.705780123270663</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.234495075876432</v>
+        <v>1.13404869945746</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -13183,10 +13183,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-1.415241485712624</v>
+        <v>-1.460371225194819</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6413310697773457</v>
+        <v>-0.6249347046462808</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -13194,10 +13194,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.1192284988129138</v>
+        <v>0.55218046911468</v>
       </c>
       <c r="B78" t="n">
-        <v>1.533003796840896</v>
+        <v>-1.044215041949192</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -13205,10 +13205,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-1.299522269446692</v>
+        <v>-1.351324031394333</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.844162297236807</v>
+        <v>1.758594324229152</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -13216,10 +13216,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1.297555566289023</v>
+        <v>-1.278131836263676</v>
       </c>
       <c r="B80" t="n">
-        <v>-2.907702132246372</v>
+        <v>2.903961639930161</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -13227,10 +13227,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.6967969171586964</v>
+        <v>0.6410384896720932</v>
       </c>
       <c r="B81" t="n">
-        <v>4.016195762180575</v>
+        <v>-4.02062483694437</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -13238,10 +13238,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1.503811111177422</v>
+        <v>-1.760986272860898</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9779290773612417</v>
+        <v>-1.227838664980721</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -13249,10 +13249,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-2.162958735946011</v>
+        <v>-2.373709677215038</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7586564121843329</v>
+        <v>-0.9408618300074447</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -13260,10 +13260,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-1.990020420305157</v>
+        <v>-2.133796646377513</v>
       </c>
       <c r="B84" t="n">
-        <v>2.13926504749124</v>
+        <v>-2.246559188100368</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -13271,10 +13271,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.9356367715461203</v>
+        <v>-0.8150531173815109</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.795382727683157</v>
+        <v>1.909415442614507</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -13282,10 +13282,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.9171351047062001</v>
+        <v>-0.8690442765840452</v>
       </c>
       <c r="B86" t="n">
-        <v>0.38852891859947</v>
+        <v>-0.3098957556325629</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -13293,10 +13293,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.1567974255099631</v>
+        <v>0.03681179383097791</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.193510032887986</v>
+        <v>1.00837997917826</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -13304,10 +13304,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.620005976686214</v>
+        <v>1.641920507405888</v>
       </c>
       <c r="B88" t="n">
-        <v>-4.361853171340238</v>
+        <v>4.229950224681521</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -13315,10 +13315,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.7674975618105915</v>
+        <v>-0.7808733337290485</v>
       </c>
       <c r="B89" t="n">
-        <v>-2.257018731965197</v>
+        <v>2.171011479920771</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -13326,10 +13326,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-2.158124704842946</v>
+        <v>-2.094756341454884</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.4716004600052007</v>
+        <v>0.6736485566219238</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -13337,10 +13337,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.6244270847867274</v>
+        <v>0.6805906693975395</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.11433257004323</v>
+        <v>1.131564648817138</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -13348,10 +13348,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-2.828191703967739</v>
+        <v>-2.803561028562853</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.08714909755144523</v>
+        <v>0.2537290951178275</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -13359,10 +13359,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.01781789549372001</v>
+        <v>0.1983137716638978</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7097174079663625</v>
+        <v>-0.4303616574643028</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -13370,10 +13370,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.08444204788331</v>
+        <v>0.8205751355301399</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.3201884087765626</v>
+        <v>-0.1441798590781733</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -13381,10 +13381,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.7244606659458913</v>
+        <v>-0.5480071339862295</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.499302694880293</v>
+        <v>1.716279043420182</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -13392,10 +13392,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9921538301151591</v>
+        <v>1.032319575560637</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3113819742749988</v>
+        <v>-0.1947560583093033</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -13403,10 +13403,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.8931901712196771</v>
+        <v>-0.7922124630334131</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2082381194874534</v>
+        <v>-0.03840948970424025</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -13414,10 +13414,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.1648641757509003</v>
+        <v>-0.112873458426736</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.511787900715434</v>
+        <v>1.512611183950264</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -13425,10 +13425,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1.744697719787461</v>
+        <v>-1.665247302172082</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.382046801170066</v>
+        <v>1.527940690882418</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -13436,10 +13436,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5.339723468941797</v>
+        <v>5.366168870528716</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.133427192459383</v>
+        <v>1.078656779988183</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -13447,10 +13447,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1.823677388306221</v>
+        <v>-1.391876428577232</v>
       </c>
       <c r="B101" t="n">
-        <v>1.945608610328949</v>
+        <v>-1.441536798181068</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -13458,10 +13458,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.305339811428201</v>
+        <v>1.301657902061255</v>
       </c>
       <c r="B102" t="n">
-        <v>0.02318547742454227</v>
+        <v>-0.02242019692397475</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -13469,10 +13469,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.9162032571354928</v>
+        <v>-0.9809116716100367</v>
       </c>
       <c r="B103" t="n">
-        <v>0.09486454829663349</v>
+        <v>-0.2042998315003287</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -13480,10 +13480,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.7635602891119249</v>
+        <v>0.8955075944610369</v>
       </c>
       <c r="B104" t="n">
-        <v>-3.924522784104737</v>
+        <v>3.872979359873648</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -13491,10 +13491,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-3.160000548892794</v>
+        <v>-2.944431366054969</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.2522209799262876</v>
+        <v>0.685051901636509</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -13502,10 +13502,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-0.9707388115295821</v>
+        <v>-1.169575375286539</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1774271139516796</v>
+        <v>-0.3801181647199297</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -13513,10 +13513,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.6743796098590558</v>
+        <v>-0.6777299862447456</v>
       </c>
       <c r="B107" t="n">
-        <v>3.017416954990203</v>
+        <v>-2.888427203297467</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -13524,10 +13524,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.515999674739489</v>
+        <v>-1.609761244706336</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.9082593547303145</v>
+        <v>0.780463855052291</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -13535,10 +13535,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.5229879443712864</v>
+        <v>0.5580115824735322</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.1130083739524855</v>
+        <v>0.1697791392284641</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -13546,10 +13546,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.433245653180264</v>
+        <v>-0.3951147939696132</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.6505483650837508</v>
+        <v>0.7173122463954719</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -13557,10 +13557,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.9375578076320299</v>
+        <v>1.028260955440506</v>
       </c>
       <c r="B111" t="n">
-        <v>0.86461943024636</v>
+        <v>-0.725270541229324</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -13568,10 +13568,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.681876085264114</v>
+        <v>-1.679948555190421</v>
       </c>
       <c r="B112" t="n">
-        <v>-2.016894147552096</v>
+        <v>2.01356649641516</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -13579,10 +13579,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.2467892136204978</v>
+        <v>-0.1673629077402476</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.009507017823295</v>
+        <v>1.151632574485345</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -13590,10 +13590,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-2.170134837575994</v>
+        <v>-2.185477999757875</v>
       </c>
       <c r="B114" t="n">
-        <v>1.95762667426957</v>
+        <v>-1.848652002604137</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -13601,10 +13601,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-0.009364209371776138</v>
+        <v>-0.01389055807825413</v>
       </c>
       <c r="B115" t="n">
-        <v>-3.968943139467699</v>
+        <v>3.771158830300297</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
@@ -13612,10 +13612,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.6599293948053535</v>
+        <v>0.7636382576604506</v>
       </c>
       <c r="B116" t="n">
-        <v>0.845386397604338</v>
+        <v>-0.707890540191554</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -13623,21 +13623,21 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>3.996353427388089</v>
+        <v>4.076331203594195</v>
       </c>
       <c r="B117" t="n">
-        <v>4.367343044716795</v>
+        <v>-4.171637487965726</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4.834916474027062</v>
+        <v>4.807065605415055</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.8637624728225068</v>
+        <v>0.6693896296193816</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -13645,10 +13645,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.490795714110375</v>
+        <v>-1.255541641738469</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.01680049029448847</v>
+        <v>0.4607005740647351</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -13656,10 +13656,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1.652111295009196</v>
+        <v>-1.500586474799235</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.297416074667002</v>
+        <v>1.522905790963657</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -13667,10 +13667,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.789652736636688</v>
+        <v>-1.692807991517098</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.499361243687504</v>
+        <v>1.660287381187623</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -13678,32 +13678,32 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.162288464028438</v>
+        <v>2.120138138338825</v>
       </c>
       <c r="B122" t="n">
-        <v>0.516910358614279</v>
+        <v>-0.5787947377800253</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.313027442770824</v>
+        <v>2.33353832500057</v>
       </c>
       <c r="B123" t="n">
-        <v>0.4379229758466148</v>
+        <v>-0.4402048303270135</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1.802775224825653</v>
+        <v>-1.707898076694643</v>
       </c>
       <c r="B124" t="n">
-        <v>1.098141877130983</v>
+        <v>-0.8860416600219506</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -13711,10 +13711,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-1.57604053081291</v>
+        <v>-1.813742436073045</v>
       </c>
       <c r="B125" t="n">
-        <v>0.04494489093525474</v>
+        <v>-0.3442847163157534</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -13722,21 +13722,21 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.317480423754458</v>
+        <v>3.218595510540458</v>
       </c>
       <c r="B126" t="n">
-        <v>1.93503244307063</v>
+        <v>-2.079345757193523</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.23325811571782</v>
+        <v>2.111330477892449</v>
       </c>
       <c r="B127" t="n">
-        <v>2.108653103108517</v>
+        <v>-2.316812366239636</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -13744,10 +13744,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1.096644183827761</v>
+        <v>-1.065187990275936</v>
       </c>
       <c r="B128" t="n">
-        <v>2.816401945297303</v>
+        <v>-2.719123160557928</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -13755,10 +13755,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-0.9426821010485678</v>
+        <v>-0.9384682848313392</v>
       </c>
       <c r="B129" t="n">
-        <v>1.4552915968603</v>
+        <v>-1.391298915321564</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
@@ -13766,10 +13766,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.188840291401992</v>
+        <v>1.176450617569642</v>
       </c>
       <c r="B130" t="n">
-        <v>2.607976605712198</v>
+        <v>-2.542195682218681</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>

--- a/Results/pca_kmeans_results_indep_variables.xlsx
+++ b/Results/pca_kmeans_results_indep_variables.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_RedConfltAgu</t>
+          <t>OutDeg_RedConfltAgu</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,12 +457,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_PaiTiopaterC</t>
+          <t>OutDeg_PaiTiopaterC</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_TiosMaternos</t>
+          <t>OutDeg_TiosMaternos</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -472,17 +472,17 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_IntimAmigos_</t>
+          <t>OutDeg_IntimAmigos_</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_RedeRisk_Cen</t>
+          <t>OutDeg_RedeRisk_Cen</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_RedeConfianc</t>
+          <t>OutDeg_RedeConfianc</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -497,12 +497,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_VendaParcela</t>
+          <t>OutDeg_VendaParcela</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_EmprestParce</t>
+          <t>OutDeg_EmprestParce</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -597,22 +597,22 @@
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
         <v>3421.335739162395</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1152,13 +1152,13 @@
         <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1243,13 +1243,13 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1258,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>-4573.530956363858</v>
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1334,10 +1334,10 @@
         <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1428,10 +1428,10 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1440,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
         <v>755.8109509259119</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1507,22 +1507,22 @@
         <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>-1425.897409543945</v>
@@ -1579,7 +1579,7 @@
         <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1607,13 +1607,13 @@
         <v>17</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>673.1379451863069</v>
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1692,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1789,10 +1789,10 @@
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>-3428.359867177779</v>
@@ -1852,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1871,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1880,13 +1880,13 @@
         <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2077,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>5512.298238967895</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -2153,13 +2153,13 @@
         <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>2294.747480128243</v>
@@ -2216,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2235,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2259,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
         <v>-4094.440202534243</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2329,19 +2329,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2426,13 +2426,13 @@
         <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>1991.683908521703</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2508,22 +2508,22 @@
         <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>12</v>
       </c>
       <c r="H23" t="n">
+        <v>7</v>
+      </c>
+      <c r="I23" t="n">
         <v>6</v>
       </c>
-      <c r="I23" t="n">
-        <v>5</v>
-      </c>
       <c r="J23" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>-1096.978104296265</v>
@@ -2580,7 +2580,7 @@
         <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -2608,13 +2608,13 @@
         <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
@@ -2699,13 +2699,13 @@
         <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -2714,10 +2714,10 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>-3613.40044917148</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2790,13 +2790,13 @@
         <v>9</v>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2881,13 +2881,13 @@
         <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2972,13 +2972,13 @@
         <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="AC28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -3054,19 +3054,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -3078,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3145,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3157,10 +3157,10 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>4831.628297965053</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3418,7 +3418,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3518,13 +3518,13 @@
         <v>9</v>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3533,10 +3533,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>-4247.982126218358</v>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -3600,10 +3600,10 @@
         <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
         <v>6</v>
@@ -3612,10 +3612,10 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>-4717.848961164514</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -3700,13 +3700,13 @@
         <v>12</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
         <v>-666.0359701098937</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3782,22 +3782,22 @@
         <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>28</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -3873,7 +3873,7 @@
         <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3964,22 +3964,22 @@
         <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -4055,22 +4055,22 @@
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
         <v>-3008.807002864713</v>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -4146,7 +4146,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -4155,13 +4155,13 @@
         <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -4246,10 +4246,10 @@
         <v>10</v>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -4261,10 +4261,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>-2703.524467725282</v>
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4519,13 +4519,13 @@
         <v>3</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>-777.851766291146</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -4695,19 +4695,19 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
         <v>15</v>
       </c>
       <c r="H47" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -4783,22 +4783,22 @@
         <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4874,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -4883,13 +4883,13 @@
         <v>13</v>
       </c>
       <c r="H49" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -4898,10 +4898,10 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
         <v>-2301.55854501821</v>
@@ -4946,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="AC49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -4965,22 +4965,22 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -4989,10 +4989,10 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
         <v>3581.875310069548</v>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -5056,22 +5056,22 @@
         <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
         <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -5080,10 +5080,10 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
         <v>-710.1645089357625</v>
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="AC51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -5147,7 +5147,7 @@
         <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -5156,13 +5156,13 @@
         <v>8</v>
       </c>
       <c r="H52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -5241,19 +5241,19 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>7</v>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
         <v>1</v>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -5338,13 +5338,13 @@
         <v>5</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -5420,22 +5420,22 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>9</v>
       </c>
       <c r="H55" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -5514,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
         <v>5</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -5611,13 +5611,13 @@
         <v>5</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -5696,19 +5696,19 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>14</v>
       </c>
       <c r="AC58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -5784,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -5793,13 +5793,13 @@
         <v>8</v>
       </c>
       <c r="H59" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -5856,7 +5856,7 @@
         <v>8</v>
       </c>
       <c r="AC59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -5878,19 +5878,19 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
         <v>8</v>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -5966,7 +5966,7 @@
         <v>3</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -6060,19 +6060,19 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>13</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
@@ -6084,7 +6084,7 @@
         <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
         <v>-2510.66655598036</v>
@@ -6129,7 +6129,7 @@
         <v>4</v>
       </c>
       <c r="AC62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -6148,22 +6148,22 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
       </c>
       <c r="H63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -6172,10 +6172,10 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
         <v>353.9049083111498</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="AC63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -6239,22 +6239,22 @@
         <v>4</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
         <v>5</v>
       </c>
       <c r="H64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -6311,7 +6311,7 @@
         <v>3</v>
       </c>
       <c r="AC64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -6339,13 +6339,13 @@
         <v>6</v>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
         <v>3598.90596840282</v>
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="AC65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -6421,7 +6421,7 @@
         <v>4</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -6430,13 +6430,13 @@
         <v>2</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -6445,10 +6445,10 @@
         <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
         <v>-3415.985818657333</v>
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="AC66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -6512,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -6521,13 +6521,13 @@
         <v>9</v>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -6536,10 +6536,10 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
         <v>-2118.343386755904</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AC67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -6603,7 +6603,7 @@
         <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -6612,13 +6612,13 @@
         <v>5</v>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -6627,10 +6627,10 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
         <v>-2314.125986451113</v>
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="AC68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -6697,19 +6697,19 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="AC69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -6788,19 +6788,19 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
@@ -6809,7 +6809,7 @@
         <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -6857,7 +6857,7 @@
         <v>3</v>
       </c>
       <c r="AC70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -6885,13 +6885,13 @@
         <v>6</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -6900,10 +6900,10 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
         <v>-1884.45992303993</v>
@@ -6948,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="AC71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -6967,7 +6967,7 @@
         <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -6976,13 +6976,13 @@
         <v>8</v>
       </c>
       <c r="H72" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -6991,10 +6991,10 @@
         <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
         <v>83.23921453688038</v>
@@ -7039,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="AC72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -7061,19 +7061,19 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
         <v>5</v>
       </c>
       <c r="H73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="AC73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -7158,13 +7158,13 @@
         <v>6</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -7240,22 +7240,22 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
         <v>6</v>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -7355,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -7422,16 +7422,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
         <v>7</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -7513,22 +7513,22 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
         <v>13</v>
       </c>
       <c r="H78" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -7607,19 +7607,19 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>6</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
         <v>-4724.849474482951</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AC79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -7698,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -7719,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -7786,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -7795,10 +7795,10 @@
         <v>5</v>
       </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
         <v>2</v>
@@ -7810,10 +7810,10 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
         <v>28.04829287347764</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AC81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
         <v>966.1731925122874</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AC82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -7971,19 +7971,19 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="AC83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -8059,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -8071,10 +8071,10 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="AC84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -8153,19 +8153,19 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AC85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -8241,7 +8241,7 @@
         <v>4</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="AC86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -8335,19 +8335,19 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
       </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -8426,13 +8426,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
         <v>2</v>
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="AC88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -8514,10 +8514,10 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -8526,10 +8526,10 @@
         <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
         <v>-1316.813456973687</v>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="AC89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -8614,13 +8614,13 @@
         <v>7</v>
       </c>
       <c r="H90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
         <v>9234.52042309555</v>
@@ -8696,16 +8696,16 @@
         <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
         <v>5</v>
       </c>
       <c r="H91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -8768,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="AC91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -8796,13 +8796,13 @@
         <v>4</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -8887,13 +8887,13 @@
         <v>12</v>
       </c>
       <c r="H93" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="AC93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -8969,7 +8969,7 @@
         <v>4</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -8984,7 +8984,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -8993,10 +8993,10 @@
         <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94" t="n">
         <v>-3689.831652043985</v>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="AC94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -9063,19 +9063,19 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="AC95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -9160,13 +9160,13 @@
         <v>11</v>
       </c>
       <c r="H96" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -9175,10 +9175,10 @@
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
         <v>1408.3573639813</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AC96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -9251,13 +9251,13 @@
         <v>9</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="AC97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -9333,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -9342,13 +9342,13 @@
         <v>12</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -9357,10 +9357,10 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98" t="n">
         <v>-1849.128522602885</v>
@@ -9405,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="AC98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -9424,7 +9424,7 @@
         <v>4</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -9433,13 +9433,13 @@
         <v>3</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -9515,10 +9515,10 @@
         <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -9527,10 +9527,10 @@
         <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O100" t="n">
         <v>-3369.335036501906</v>
@@ -9587,7 +9587,7 @@
         <v>68</v>
       </c>
       <c r="AC100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -9615,13 +9615,13 @@
         <v>3</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -9700,19 +9700,19 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>10</v>
       </c>
       <c r="H102" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -9769,7 +9769,7 @@
         <v>3</v>
       </c>
       <c r="AC102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -9788,7 +9788,7 @@
         <v>4</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -9812,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -9879,22 +9879,22 @@
         <v>3</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
         <v>1</v>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="AC104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -9973,19 +9973,19 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
         <v>5</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -10070,7 +10070,7 @@
         <v>3</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -10085,10 +10085,10 @@
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106" t="n">
         <v>122.2923219649961</v>
@@ -10155,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>7</v>
@@ -10167,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="AC107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -10234,7 +10234,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
         <v>2</v>
@@ -10252,13 +10252,13 @@
         <v>5</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="AC108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -10334,7 +10334,7 @@
         <v>4</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -10343,10 +10343,10 @@
         <v>9</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J109" t="n">
         <v>4</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109" t="n">
         <v>1408.571633415937</v>
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="AC109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -10434,13 +10434,13 @@
         <v>6</v>
       </c>
       <c r="H110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I110" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="AC110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
@@ -10516,7 +10516,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -10525,13 +10525,13 @@
         <v>10</v>
       </c>
       <c r="H111" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -10540,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>2</v>
       </c>
       <c r="AC111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -10616,10 +10616,10 @@
         <v>3</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -10631,10 +10631,10 @@
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O112" t="n">
         <v>-2876.129702282298</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="AC112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -10701,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>8</v>
@@ -10710,10 +10710,10 @@
         <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -10722,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="AC113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -10804,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="AC114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -10883,19 +10883,19 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="AC115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -10971,19 +10971,19 @@
         <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
         <v>11</v>
       </c>
       <c r="H116" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J116" t="n">
         <v>2</v>
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N116" t="n">
         <v>1</v>
@@ -11043,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="AC116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -11071,13 +11071,13 @@
         <v>7</v>
       </c>
       <c r="H117" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J117" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -11086,10 +11086,10 @@
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O117" t="n">
         <v>-1364.465650481999</v>
@@ -11134,7 +11134,7 @@
         <v>3</v>
       </c>
       <c r="AC117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -11156,19 +11156,19 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G118" t="n">
         <v>8</v>
       </c>
       <c r="H118" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I118" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -11177,7 +11177,7 @@
         <v>1</v>
       </c>
       <c r="M118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N118" t="n">
         <v>0</v>
@@ -11225,7 +11225,7 @@
         <v>2</v>
       </c>
       <c r="AC118" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
@@ -11253,13 +11253,13 @@
         <v>7</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -11335,22 +11335,22 @@
         <v>3</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -11359,7 +11359,7 @@
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N120" t="n">
         <v>0</v>
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="AC120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -11435,13 +11435,13 @@
         <v>3</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121" t="n">
         <v>1984.848979293467</v>
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="AC121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -11517,7 +11517,7 @@
         <v>4</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -11526,13 +11526,13 @@
         <v>8</v>
       </c>
       <c r="H122" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J122" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -11541,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122" t="n">
         <v>0</v>
@@ -11589,7 +11589,7 @@
         <v>2</v>
       </c>
       <c r="AC122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
@@ -11608,19 +11608,19 @@
         <v>8</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G123" t="n">
         <v>9</v>
       </c>
       <c r="H123" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I123" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J123" t="n">
         <v>2</v>
@@ -11632,10 +11632,10 @@
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O123" t="n">
         <v>-992.0580709999588</v>
@@ -11680,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="AC123" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
@@ -11702,7 +11702,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -11711,10 +11711,10 @@
         <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -11723,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
         <v>4</v>
@@ -11802,10 +11802,10 @@
         <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
@@ -11890,13 +11890,13 @@
         <v>9</v>
       </c>
       <c r="H126" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J126" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -11953,7 +11953,7 @@
         <v>1</v>
       </c>
       <c r="AC126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -11972,7 +11972,7 @@
         <v>4</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -11981,13 +11981,13 @@
         <v>12</v>
       </c>
       <c r="H127" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I127" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -11996,10 +11996,10 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O127" t="n">
         <v>-2366.792765438533</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="AC127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -12066,7 +12066,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -12075,10 +12075,10 @@
         <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
@@ -12087,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="AC128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -12163,13 +12163,13 @@
         <v>4</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -12178,10 +12178,10 @@
         <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O129" t="n">
         <v>-3026.500603721091</v>
@@ -12226,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="AC129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -12254,13 +12254,13 @@
         <v>9</v>
       </c>
       <c r="H130" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
@@ -12269,7 +12269,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N130" t="n">
         <v>0</v>
@@ -12317,7 +12317,7 @@
         <v>1</v>
       </c>
       <c r="AC130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -12358,21 +12358,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.07385865058054218</v>
+        <v>-0.5782191833171422</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2639030302915267</v>
+        <v>0.1689152380479331</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.267388624675399</v>
+        <v>-2.280387917399444</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8086595225910217</v>
+        <v>1.150922972978437</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -12380,10 +12380,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.985967443221339</v>
+        <v>-1.964229863113498</v>
       </c>
       <c r="B4" t="n">
-        <v>1.664035550826371</v>
+        <v>2.32888812655259</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -12391,10 +12391,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.631212786664074</v>
+        <v>-0.964663236537322</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.398730906337858</v>
+        <v>-0.8759818523367365</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -12402,10 +12402,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.010324184160335</v>
+        <v>-0.8200186649410361</v>
       </c>
       <c r="B6" t="n">
-        <v>1.766428212175085</v>
+        <v>2.885873755865358</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -12413,109 +12413,109 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.34502356638141</v>
+        <v>-0.1655541164950462</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.5993442557209299</v>
+        <v>-1.702992923957503</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2593831553248018</v>
+        <v>0.3231027053772093</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5018363524284682</v>
+        <v>-2.130557430278379</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.9503727408526234</v>
+        <v>-0.9578803182397225</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.8718373179532968</v>
+        <v>-1.178655027015325</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1401996759751732</v>
+        <v>-0.1283934407479849</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.4987496791921606</v>
+        <v>-1.145757500380439</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.052606945533219</v>
+        <v>-1.696902406985073</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.934883858391774</v>
+        <v>-1.557808651734798</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12.86517995784258</v>
+        <v>10.81824055070876</v>
       </c>
       <c r="B12" t="n">
-        <v>1.420907714871964</v>
+        <v>0.05262644638555376</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.930304050597744</v>
+        <v>-0.7562357909405187</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.945416551915171</v>
+        <v>-1.545448461308606</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.861556237661477</v>
+        <v>-1.45111760645312</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.040563767144152</v>
+        <v>-0.7874932873818871</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.9914931760376842</v>
+        <v>-0.6568704557434526</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.378789611911488</v>
+        <v>-2.346414474232574</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.679393204925301</v>
+        <v>-1.117696843872157</v>
       </c>
       <c r="B16" t="n">
-        <v>2.430878098331842</v>
+        <v>2.71019614992521</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -12523,10 +12523,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.807269530937143</v>
+        <v>-1.896254032180177</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.7719414385313348</v>
+        <v>-0.286438716362529</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -12534,98 +12534,98 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.5925908244830603</v>
+        <v>0.3732541410123632</v>
       </c>
       <c r="B18" t="n">
-        <v>3.000083677354794</v>
+        <v>3.386568506734656</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3837852421642448</v>
+        <v>-0.2176797706157388</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4654696572609036</v>
+        <v>0.1832150713309457</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.2200044324479547</v>
+        <v>-1.260690362528005</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.243397012867725</v>
+        <v>-1.615786886273383</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.973062266384165</v>
+        <v>-1.055204235068495</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.909927144516838</v>
+        <v>-1.076943766015056</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-2.210689840474848</v>
+        <v>-2.058920100456058</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.285820985339337</v>
+        <v>-1.114326827515258</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.327982883279728</v>
+        <v>4.759281590411291</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.306609000364755</v>
+        <v>-0.861254795739739</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6434795664710212</v>
+        <v>0.1712151654928308</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8355735705017704</v>
+        <v>0.3289492782308671</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.606717805650041</v>
+        <v>4.586297162916767</v>
       </c>
       <c r="B25" t="n">
-        <v>2.174187844344708</v>
+        <v>-2.63848010067776</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2723329466565726</v>
+        <v>-0.5918045200868802</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4812973118198081</v>
+        <v>1.54514459606391</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -12633,54 +12633,54 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.777019031125173</v>
+        <v>-1.103737108550724</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.05479408076116374</v>
+        <v>0.03908960976070879</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.893844733592827</v>
+        <v>1.173231702372365</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.144931842171132</v>
+        <v>-2.281206613710819</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.5209425573547648</v>
+        <v>0.2457781795868143</v>
       </c>
       <c r="B29" t="n">
-        <v>-2.435566604490938</v>
+        <v>-3.553988483354007</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-1.534567011679562</v>
+        <v>-0.5277144616279635</v>
       </c>
       <c r="B30" t="n">
-        <v>2.739225291302437</v>
+        <v>2.969901564936142</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2.05415929390136</v>
+        <v>-2.335815634037402</v>
       </c>
       <c r="B31" t="n">
-        <v>1.035175300020691</v>
+        <v>1.446372798699666</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -12688,76 +12688,76 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.7646680294189915</v>
+        <v>-0.02111736366514763</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.458166322679906</v>
+        <v>-3.026961143597755</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.06091168280082381</v>
+        <v>0.6998209934226718</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9290110377551866</v>
+        <v>0.5430325350908172</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.02813940392201729</v>
+        <v>-0.4441931329920444</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.05766247600848633</v>
+        <v>-0.2781379690875747</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.468352702402075</v>
+        <v>2.938380291221613</v>
       </c>
       <c r="B35" t="n">
-        <v>2.61570166068884</v>
+        <v>3.990417066921151</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.7721247356442721</v>
+        <v>-0.3956633398955371</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.6503295132255829</v>
+        <v>-1.038645488988881</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.467401084064798</v>
+        <v>6.343917864248562</v>
       </c>
       <c r="B37" t="n">
-        <v>0.621981159704178</v>
+        <v>1.00152763157182</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-1.064369002001989</v>
+        <v>-0.7434627745407385</v>
       </c>
       <c r="B38" t="n">
-        <v>1.836142084289906</v>
+        <v>1.973232098905234</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -12765,32 +12765,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.195061634551613</v>
+        <v>0.6772391237161436</v>
       </c>
       <c r="B39" t="n">
-        <v>1.468642308850558</v>
+        <v>1.412186567314991</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.292904066423521</v>
+        <v>3.992115764383803</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.6251563597772229</v>
+        <v>-0.863692548380353</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1.371564861481288</v>
+        <v>-1.514523517766494</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.3563021529253765</v>
+        <v>-0.0427469235460823</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -12798,32 +12798,32 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.8034503082719069</v>
+        <v>-0.05252224339319878</v>
       </c>
       <c r="B42" t="n">
-        <v>-2.63639184270906</v>
+        <v>-2.587698482077692</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1.576828276190489</v>
+        <v>-1.013294046303616</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4437675209548387</v>
+        <v>0.297283715438037</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-2.631135880183726</v>
+        <v>-2.484988828658897</v>
       </c>
       <c r="B44" t="n">
-        <v>2.533540054370585</v>
+        <v>3.184853787062055</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -12831,10 +12831,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1.390076460531035</v>
+        <v>-1.111509734302204</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6356350440365406</v>
+        <v>0.3701064619105207</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -12842,98 +12842,98 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.195632033579742</v>
+        <v>-1.213642213917811</v>
       </c>
       <c r="B46" t="n">
-        <v>1.260460445451028</v>
+        <v>1.541196083839927</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.442079435877901</v>
+        <v>4.874933974546544</v>
       </c>
       <c r="B47" t="n">
-        <v>1.494623767981122</v>
+        <v>-1.251357785045747</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.5544066643044993</v>
+        <v>0.6918467460214912</v>
       </c>
       <c r="B48" t="n">
-        <v>1.70706254945901</v>
+        <v>0.8316376762802199</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.679995263989212</v>
+        <v>2.139454207077975</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.616420989089357</v>
+        <v>-1.936239019996361</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.0787297980866626</v>
+        <v>-1.068800770726157</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9587977422819759</v>
+        <v>0.8915833576788028</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.9056353788367917</v>
+        <v>-1.308582113885527</v>
       </c>
       <c r="B51" t="n">
-        <v>-3.306147372021622</v>
+        <v>-3.147952070954827</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.4772192758752438</v>
+        <v>-0.6173826174067482</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.5740253619840838</v>
+        <v>-0.5471174791240326</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.4501840930380291</v>
+        <v>-0.4234489673689434</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.733696706938814</v>
+        <v>-1.653348375468134</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-2.369720319795968</v>
+        <v>-2.596442903291056</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6621963691912092</v>
+        <v>1.256358596970063</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -12941,32 +12941,32 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.6889669194402754</v>
+        <v>-0.296044272441186</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.3970893964923076</v>
+        <v>-0.05340488347498772</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.172817419629089</v>
+        <v>3.544299243030933</v>
       </c>
       <c r="B56" t="n">
-        <v>3.317850727101015</v>
+        <v>2.284697052637655</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.5212427411222041</v>
+        <v>-1.78233251146271</v>
       </c>
       <c r="B57" t="n">
-        <v>-2.074849426699801</v>
+        <v>-1.375135533862745</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -12974,43 +12974,43 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.564282218935951</v>
+        <v>2.140275136835682</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4360071249691931</v>
+        <v>0.5376093428630322</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.420480772761014</v>
+        <v>0.9254156925596577</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.238001586868718</v>
+        <v>-1.958821054687755</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.7129158753496549</v>
+        <v>2.123152600416846</v>
       </c>
       <c r="B60" t="n">
-        <v>1.812762736274085</v>
+        <v>1.788759417518888</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1.542769113273636</v>
+        <v>-1.321388900171816</v>
       </c>
       <c r="B61" t="n">
-        <v>2.170204970458372</v>
+        <v>2.120978332165379</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -13018,142 +13018,142 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.5433330357890379</v>
+        <v>0.8877548356878361</v>
       </c>
       <c r="B62" t="n">
-        <v>0.976365256191039</v>
+        <v>-0.8781100744290057</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.471760617998471</v>
+        <v>0.4749834888538451</v>
       </c>
       <c r="B63" t="n">
-        <v>-3.196879716914247</v>
+        <v>-3.789153073398489</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.179006526926223</v>
+        <v>1.915871663459827</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.8602841532765653</v>
+        <v>-0.416896019890613</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-1.066021198212131</v>
+        <v>-1.886368231754965</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.617004159946765</v>
+        <v>-1.425938732437366</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.376585441917386</v>
+        <v>-0.8649611462893845</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2145103934104363</v>
+        <v>0.1165549356898195</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.137737233291603</v>
+        <v>2.066718295301134</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9905555837716453</v>
+        <v>0.3682347243586744</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.004826023828144067</v>
+        <v>-0.4952589962139692</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.577581141422377</v>
+        <v>-1.306961326792922</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-2.298671349700583</v>
+        <v>-2.483498425837159</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.973381848125339</v>
+        <v>-1.706452006399441</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.592450493943997</v>
+        <v>4.557041067689507</v>
       </c>
       <c r="B70" t="n">
-        <v>1.136295571423189</v>
+        <v>-0.06706240716021228</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-1.58595339774798</v>
+        <v>-1.522055451289838</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.003189665549179</v>
+        <v>-0.672649140687942</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.183046149247545</v>
+        <v>1.210476490667924</v>
       </c>
       <c r="B72" t="n">
-        <v>1.001980171948438</v>
+        <v>-0.4110826480299806</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.2656500630854314</v>
+        <v>0.0928235243884504</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.9150408756372723</v>
+        <v>-0.1467557886172466</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.371581306477011</v>
+        <v>-1.739983292975438</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.02042841993040784</v>
+        <v>1.11046671535474</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -13161,10 +13161,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.1067962323840029</v>
+        <v>-0.3236574150124581</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.1449709920370517</v>
+        <v>0.9581475501067327</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -13172,10 +13172,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-2.705780123270663</v>
+        <v>-2.307815773135846</v>
       </c>
       <c r="B76" t="n">
-        <v>1.13404869945746</v>
+        <v>1.405894746195539</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -13183,10 +13183,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-1.460371225194819</v>
+        <v>-1.193456425961961</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.6249347046462808</v>
+        <v>-0.07289940105864495</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -13194,10 +13194,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.55218046911468</v>
+        <v>0.7002312720928319</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.044215041949192</v>
+        <v>0.4623256595643743</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -13205,21 +13205,21 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-1.351324031394333</v>
+        <v>-1.067649323247718</v>
       </c>
       <c r="B79" t="n">
-        <v>1.758594324229152</v>
+        <v>1.0566781677251</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1.278131836263676</v>
+        <v>-1.092129614301041</v>
       </c>
       <c r="B80" t="n">
-        <v>2.903961639930161</v>
+        <v>2.680859859828551</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -13227,76 +13227,76 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.6410384896720932</v>
+        <v>-0.5781501130681719</v>
       </c>
       <c r="B81" t="n">
-        <v>-4.02062483694437</v>
+        <v>-3.244959472438853</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1.760986272860898</v>
+        <v>-2.05818165033632</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.227838664980721</v>
+        <v>-1.075371295818444</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-2.373709677215038</v>
+        <v>-1.873454044878749</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.9408618300074447</v>
+        <v>-0.1355794362520228</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-2.133796646377513</v>
+        <v>-2.193680164109975</v>
       </c>
       <c r="B84" t="n">
-        <v>-2.246559188100368</v>
+        <v>-2.113728094051121</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.8150531173815109</v>
+        <v>0.4826404111464574</v>
       </c>
       <c r="B85" t="n">
-        <v>1.909415442614507</v>
+        <v>2.629224100569618</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.8690442765840452</v>
+        <v>-1.023932601580462</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.3098957556325629</v>
+        <v>-0.04587433689032985</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.03681179383097791</v>
+        <v>-0.2029143066380628</v>
       </c>
       <c r="B87" t="n">
-        <v>1.00837997917826</v>
+        <v>1.044605483305601</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -13304,32 +13304,32 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.641920507405888</v>
+        <v>1.886444668134603</v>
       </c>
       <c r="B88" t="n">
-        <v>4.229950224681521</v>
+        <v>3.633130685875446</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.7808733337290485</v>
+        <v>-0.5899222086703855</v>
       </c>
       <c r="B89" t="n">
-        <v>2.171011479920771</v>
+        <v>1.804880312259064</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-2.094756341454884</v>
+        <v>-2.5901419624581</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6736485566219238</v>
+        <v>1.307063456677764</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -13337,21 +13337,21 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.6805906693975395</v>
+        <v>1.44893900205735</v>
       </c>
       <c r="B91" t="n">
-        <v>1.131564648817138</v>
+        <v>1.663569304948472</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-2.803561028562853</v>
+        <v>-2.833085812250813</v>
       </c>
       <c r="B92" t="n">
-        <v>0.2537290951178275</v>
+        <v>0.7449798927625809</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -13359,76 +13359,76 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.1983137716638978</v>
+        <v>-0.01692950080637413</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.4303616574643028</v>
+        <v>-0.6598744648597465</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8205751355301399</v>
+        <v>0.8109681274920425</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.1441798590781733</v>
+        <v>-0.03158829074172585</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.5480071339862295</v>
+        <v>0.5419628376024387</v>
       </c>
       <c r="B95" t="n">
-        <v>1.716279043420182</v>
+        <v>2.300903320252705</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.032319575560637</v>
+        <v>-0.5841712967057275</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.1947560583093033</v>
+        <v>1.167755641752988</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.7922124630334131</v>
+        <v>-0.2873990183783973</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.03840948970424025</v>
+        <v>-0.02494783284638143</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.112873458426736</v>
+        <v>0.5118311135747177</v>
       </c>
       <c r="B98" t="n">
-        <v>1.512611183950264</v>
+        <v>0.07061028810382036</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1.665247302172082</v>
+        <v>-1.046951953723162</v>
       </c>
       <c r="B99" t="n">
-        <v>1.527940690882418</v>
+        <v>1.947076300112227</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -13436,21 +13436,21 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5.366168870528716</v>
+        <v>5.76973725737286</v>
       </c>
       <c r="B100" t="n">
-        <v>1.078656779988183</v>
+        <v>0.9445088348449329</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1.391876428577232</v>
+        <v>-1.71047040481874</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.441536798181068</v>
+        <v>-1.10026959492691</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -13458,21 +13458,21 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.301657902061255</v>
+        <v>0.8348988923927736</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.02242019692397475</v>
+        <v>0.5811920395524248</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.9809116716100367</v>
+        <v>-1.104284171840346</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.2042998315003287</v>
+        <v>0.07178273096747281</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -13480,21 +13480,21 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.8955075944610369</v>
+        <v>1.827793887039913</v>
       </c>
       <c r="B104" t="n">
-        <v>3.872979359873648</v>
+        <v>0.7059733057081589</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-2.944431366054969</v>
+        <v>-2.594304583218463</v>
       </c>
       <c r="B105" t="n">
-        <v>0.685051901636509</v>
+        <v>1.247867195669675</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -13502,10 +13502,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1.169575375286539</v>
+        <v>-1.552246901444632</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.3801181647199297</v>
+        <v>0.09930075079917346</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -13513,142 +13513,142 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.6777299862447456</v>
+        <v>-1.662355632762601</v>
       </c>
       <c r="B107" t="n">
-        <v>-2.888427203297467</v>
+        <v>-2.759885318613591</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.609761244706336</v>
+        <v>-0.5647214530239676</v>
       </c>
       <c r="B108" t="n">
-        <v>0.780463855052291</v>
+        <v>-0.2167977249099013</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.5580115824735322</v>
+        <v>1.068985028253699</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1697791392284641</v>
+        <v>-0.2249796967244458</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.3951147939696132</v>
+        <v>-1.09962809909384</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7173122463954719</v>
+        <v>1.403290800788128</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.028260955440506</v>
+        <v>0.3199515878909953</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.725270541229324</v>
+        <v>-0.7078501110495563</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.679948555190421</v>
+        <v>-1.190642668845816</v>
       </c>
       <c r="B112" t="n">
-        <v>2.01356649641516</v>
+        <v>0.9761962609166568</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.1673629077402476</v>
+        <v>-0.3278971140019704</v>
       </c>
       <c r="B113" t="n">
-        <v>1.151632574485345</v>
+        <v>0.9890328367703211</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-2.185477999757875</v>
+        <v>-2.488881232863822</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.848652002604137</v>
+        <v>-1.434787987377731</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-0.01389055807825413</v>
+        <v>1.736289914478305</v>
       </c>
       <c r="B115" t="n">
-        <v>3.771158830300297</v>
+        <v>3.225330197828271</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.7636382576604506</v>
+        <v>1.526525732414829</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.707890540191554</v>
+        <v>-0.9877581656257022</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>4.076331203594195</v>
+        <v>1.666826268452811</v>
       </c>
       <c r="B117" t="n">
-        <v>-4.171637487965726</v>
+        <v>-2.466167111756902</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4.807065605415055</v>
+        <v>4.650515810702043</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6693896296193816</v>
+        <v>1.355303508961848</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.255541641738469</v>
+        <v>-1.727420767322086</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4607005740647351</v>
+        <v>1.163670888492313</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -13656,54 +13656,54 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1.500586474799235</v>
+        <v>-0.7864102780835307</v>
       </c>
       <c r="B120" t="n">
-        <v>1.522905790963657</v>
+        <v>1.768378587747037</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.692807991517098</v>
+        <v>-1.289895783095854</v>
       </c>
       <c r="B121" t="n">
-        <v>1.660287381187623</v>
+        <v>1.480898409198437</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.120138138338825</v>
+        <v>1.482772164158835</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.5787947377800253</v>
+        <v>-0.3507966937296149</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.33353832500057</v>
+        <v>2.80452223731207</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.4402048303270135</v>
+        <v>0.2853021973352258</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1.707898076694643</v>
+        <v>-2.125595261088524</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.8860416600219506</v>
+        <v>-0.1802470010050256</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -13711,10 +13711,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-1.813742436073045</v>
+        <v>-1.302149989768774</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.3442847163157534</v>
+        <v>0.2297647043681077</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -13722,57 +13722,57 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.218595510540458</v>
+        <v>1.996057987838075</v>
       </c>
       <c r="B126" t="n">
-        <v>-2.079345757193523</v>
+        <v>-3.751122265744816</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.111330477892449</v>
+        <v>0.8388457697001408</v>
       </c>
       <c r="B127" t="n">
-        <v>-2.316812366239636</v>
+        <v>-1.131842943874375</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1.065187990275936</v>
+        <v>-1.107250373822074</v>
       </c>
       <c r="B128" t="n">
-        <v>-2.719123160557928</v>
+        <v>-2.466235660791892</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-0.9384682848313392</v>
+        <v>-1.08482853294434</v>
       </c>
       <c r="B129" t="n">
-        <v>-1.391298915321564</v>
+        <v>-1.656041674454396</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.176450617569642</v>
+        <v>-0.08359987172597355</v>
       </c>
       <c r="B130" t="n">
-        <v>-2.542195682218681</v>
+        <v>-2.101417885119497</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Results/pca_kmeans_results_indep_variables.xlsx
+++ b/Results/pca_kmeans_results_indep_variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster_Asignations" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PCA_Results" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Cluster_Asignations" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PCA_Results" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12358,10 +12358,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.5782191833171422</v>
+        <v>-0.5782191833171413</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1689152380479331</v>
+        <v>-0.1689152380479342</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -12369,10 +12369,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.280387917399444</v>
+        <v>-2.280387917399446</v>
       </c>
       <c r="B3" t="n">
-        <v>1.150922972978437</v>
+        <v>-1.150922972978438</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -12380,10 +12380,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.964229863113498</v>
+        <v>-1.964229863113497</v>
       </c>
       <c r="B4" t="n">
-        <v>2.32888812655259</v>
+        <v>-2.32888812655259</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -12391,10 +12391,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.964663236537322</v>
+        <v>-0.9646632365373217</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.8759818523367365</v>
+        <v>0.8759818523367363</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -12402,10 +12402,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.8200186649410361</v>
+        <v>-0.8200186649410357</v>
       </c>
       <c r="B6" t="n">
-        <v>2.885873755865358</v>
+        <v>-2.885873755865354</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -12413,10 +12413,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.1655541164950462</v>
+        <v>-0.1655541164950444</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.702992923957503</v>
+        <v>1.702992923957509</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -12424,10 +12424,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3231027053772093</v>
+        <v>0.3231027053772098</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.130557430278379</v>
+        <v>2.130557430278383</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -12435,10 +12435,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.9578803182397225</v>
+        <v>-0.957880318239723</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.178655027015325</v>
+        <v>1.178655027015324</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -12446,10 +12446,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1283934407479849</v>
+        <v>-0.1283934407479863</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.145757500380439</v>
+        <v>1.145757500380425</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -12457,10 +12457,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.696902406985073</v>
+        <v>-1.696902406985072</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.557808651734798</v>
+        <v>1.557808651734803</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>10.81824055070876</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05262644638555376</v>
+        <v>-0.05262644638555077</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -12479,10 +12479,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.7562357909405187</v>
+        <v>-0.7562357909405181</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.545448461308606</v>
+        <v>1.545448461308604</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -12493,7 +12493,7 @@
         <v>-1.45111760645312</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.7874932873818871</v>
+        <v>0.7874932873818907</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -12501,10 +12501,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.6568704557434526</v>
+        <v>-0.6568704557434525</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.346414474232574</v>
+        <v>2.346414474232589</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -12515,7 +12515,7 @@
         <v>-1.117696843872157</v>
       </c>
       <c r="B16" t="n">
-        <v>2.71019614992521</v>
+        <v>-2.710196149925209</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -12526,7 +12526,7 @@
         <v>-1.896254032180177</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.286438716362529</v>
+        <v>0.2864387163625253</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -12534,10 +12534,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3732541410123632</v>
+        <v>0.3732541410123643</v>
       </c>
       <c r="B18" t="n">
-        <v>3.386568506734656</v>
+        <v>-3.386568506734653</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -12545,10 +12545,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2176797706157388</v>
+        <v>-0.2176797706157386</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1832150713309457</v>
+        <v>-0.1832150713309426</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -12556,10 +12556,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.260690362528005</v>
+        <v>-1.260690362528004</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.615786886273383</v>
+        <v>1.615786886273389</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -12570,7 +12570,7 @@
         <v>-1.055204235068495</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.076943766015056</v>
+        <v>1.076943766015065</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -12578,10 +12578,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-2.058920100456058</v>
+        <v>-2.058920100456057</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.114326827515258</v>
+        <v>1.114326827515261</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -12589,10 +12589,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.759281590411291</v>
+        <v>4.759281590411293</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.861254795739739</v>
+        <v>0.8612547957397493</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -12600,10 +12600,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1712151654928308</v>
+        <v>0.1712151654928295</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3289492782308671</v>
+        <v>-0.3289492782308823</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -12611,10 +12611,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.586297162916767</v>
+        <v>4.586297162916761</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.63848010067776</v>
+        <v>2.638480100677725</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -12622,10 +12622,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.5918045200868802</v>
+        <v>-0.5918045200868803</v>
       </c>
       <c r="B26" t="n">
-        <v>1.54514459606391</v>
+        <v>-1.545144596063911</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -12633,10 +12633,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.103737108550724</v>
+        <v>-1.103737108550725</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03908960976070879</v>
+        <v>-0.03908960976071141</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -12647,7 +12647,7 @@
         <v>1.173231702372365</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.281206613710819</v>
+        <v>2.281206613710818</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -12655,10 +12655,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.2457781795868143</v>
+        <v>0.2457781795868137</v>
       </c>
       <c r="B29" t="n">
-        <v>-3.553988483354007</v>
+        <v>3.553988483354007</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -12666,10 +12666,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.5277144616279635</v>
+        <v>-0.5277144616279639</v>
       </c>
       <c r="B30" t="n">
-        <v>2.969901564936142</v>
+        <v>-2.969901564936142</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -12677,10 +12677,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2.335815634037402</v>
+        <v>-2.335815634037403</v>
       </c>
       <c r="B31" t="n">
-        <v>1.446372798699666</v>
+        <v>-1.446372798699666</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -12688,10 +12688,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.02111736366514763</v>
+        <v>-0.02111736366514621</v>
       </c>
       <c r="B32" t="n">
-        <v>-3.026961143597755</v>
+        <v>3.026961143597765</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -12699,10 +12699,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.6998209934226718</v>
+        <v>0.6998209934226716</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5430325350908172</v>
+        <v>-0.5430325350908136</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -12710,10 +12710,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.4441931329920444</v>
+        <v>-0.4441931329920449</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.2781379690875747</v>
+        <v>0.2781379690875696</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -12721,10 +12721,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.938380291221613</v>
+        <v>2.938380291221615</v>
       </c>
       <c r="B35" t="n">
-        <v>3.990417066921151</v>
+        <v>-3.990417066921143</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -12732,10 +12732,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.3956633398955371</v>
+        <v>-0.3956633398955378</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.038645488988881</v>
+        <v>1.038645488988876</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -12746,7 +12746,7 @@
         <v>6.343917864248562</v>
       </c>
       <c r="B37" t="n">
-        <v>1.00152763157182</v>
+        <v>-1.001527631571805</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -12754,10 +12754,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.7434627745407385</v>
+        <v>-0.7434627745407375</v>
       </c>
       <c r="B38" t="n">
-        <v>1.973232098905234</v>
+        <v>-1.973232098905231</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -12765,10 +12765,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.6772391237161436</v>
+        <v>0.677239123716142</v>
       </c>
       <c r="B39" t="n">
-        <v>1.412186567314991</v>
+        <v>-1.412186567314998</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -12779,7 +12779,7 @@
         <v>3.992115764383803</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.863692548380353</v>
+        <v>0.8636925483803686</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -12787,10 +12787,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1.514523517766494</v>
+        <v>-1.514523517766493</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.0427469235460823</v>
+        <v>0.04274692354608622</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -12798,10 +12798,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.05252224339319878</v>
+        <v>-0.05252224339319799</v>
       </c>
       <c r="B42" t="n">
-        <v>-2.587698482077692</v>
+        <v>2.587698482077691</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -12809,10 +12809,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1.013294046303616</v>
+        <v>-1.013294046303618</v>
       </c>
       <c r="B43" t="n">
-        <v>0.297283715438037</v>
+        <v>-0.2972837154380362</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -12820,10 +12820,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-2.484988828658897</v>
+        <v>-2.484988828658895</v>
       </c>
       <c r="B44" t="n">
-        <v>3.184853787062055</v>
+        <v>-3.184853787062053</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -12831,10 +12831,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1.111509734302204</v>
+        <v>-1.111509734302202</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3701064619105207</v>
+        <v>-0.3701064619105094</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -12845,7 +12845,7 @@
         <v>-1.213642213917811</v>
       </c>
       <c r="B46" t="n">
-        <v>1.541196083839927</v>
+        <v>-1.541196083839928</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -12853,10 +12853,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.874933974546544</v>
+        <v>4.87493397454654</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.251357785045747</v>
+        <v>1.251357785045722</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -12864,10 +12864,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.6918467460214912</v>
+        <v>0.6918467460214913</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8316376762802199</v>
+        <v>-0.8316376762802188</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -12875,10 +12875,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.139454207077975</v>
+        <v>2.139454207077972</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.936239019996361</v>
+        <v>1.936239019996354</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -12886,10 +12886,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-1.068800770726157</v>
+        <v>-1.068800770726156</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8915833576788028</v>
+        <v>-0.8915833576788013</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -12897,10 +12897,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-1.308582113885527</v>
+        <v>-1.308582113885526</v>
       </c>
       <c r="B51" t="n">
-        <v>-3.147952070954827</v>
+        <v>3.147952070954839</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -12908,10 +12908,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.6173826174067482</v>
+        <v>-0.6173826174067479</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.5471174791240326</v>
+        <v>0.5471174791240286</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -12919,10 +12919,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.4234489673689434</v>
+        <v>-0.4234489673689437</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.653348375468134</v>
+        <v>1.653348375468133</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         <v>-2.596442903291056</v>
       </c>
       <c r="B54" t="n">
-        <v>1.256358596970063</v>
+        <v>-1.256358596970066</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -12941,10 +12941,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.296044272441186</v>
+        <v>-0.2960442724411856</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.05340488347498772</v>
+        <v>0.05340488347499168</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -12952,10 +12952,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.544299243030933</v>
+        <v>3.544299243030937</v>
       </c>
       <c r="B56" t="n">
-        <v>2.284697052637655</v>
+        <v>-2.284697052637652</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -12963,10 +12963,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-1.78233251146271</v>
+        <v>-1.782332511462709</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.375135533862745</v>
+        <v>1.375135533862744</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -12974,10 +12974,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.140275136835682</v>
+        <v>2.140275136835683</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5376093428630322</v>
+        <v>-0.5376093428630255</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -12985,10 +12985,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9254156925596577</v>
+        <v>0.9254156925596567</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.958821054687755</v>
+        <v>1.958821054687752</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -12996,10 +12996,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.123152600416846</v>
+        <v>2.123152600416844</v>
       </c>
       <c r="B60" t="n">
-        <v>1.788759417518888</v>
+        <v>-1.788759417518893</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -13010,7 +13010,7 @@
         <v>-1.321388900171816</v>
       </c>
       <c r="B61" t="n">
-        <v>2.120978332165379</v>
+        <v>-2.120978332165378</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -13018,10 +13018,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8877548356878361</v>
+        <v>0.8877548356878345</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.8781100744290057</v>
+        <v>0.8781100744289857</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -13029,10 +13029,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.4749834888538451</v>
+        <v>0.4749834888538453</v>
       </c>
       <c r="B63" t="n">
-        <v>-3.789153073398489</v>
+        <v>3.789153073398492</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -13040,10 +13040,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.915871663459827</v>
+        <v>1.915871663459829</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.416896019890613</v>
+        <v>0.4168960198906196</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -13054,7 +13054,7 @@
         <v>-1.886368231754965</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.425938732437366</v>
+        <v>1.425938732437364</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -13062,10 +13062,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.8649611462893845</v>
+        <v>-0.864961146289384</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1165549356898195</v>
+        <v>-0.1165549356898145</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -13073,10 +13073,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.066718295301134</v>
+        <v>2.066718295301133</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3682347243586744</v>
+        <v>-0.368234724358682</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -13084,10 +13084,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.4952589962139692</v>
+        <v>-0.4952589962139689</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.306961326792922</v>
+        <v>1.306961326792931</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -13098,7 +13098,7 @@
         <v>-2.483498425837159</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.706452006399441</v>
+        <v>1.706452006399446</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -13106,10 +13106,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.557041067689507</v>
+        <v>4.557041067689506</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.06706240716021228</v>
+        <v>0.06706240716020756</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -13120,7 +13120,7 @@
         <v>-1.522055451289838</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.672649140687942</v>
+        <v>0.6726491406879469</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -13128,10 +13128,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.210476490667924</v>
+        <v>1.210476490667922</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.4110826480299806</v>
+        <v>0.411082648029965</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -13139,10 +13139,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.0928235243884504</v>
+        <v>0.09282352438845086</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.1467557886172466</v>
+        <v>0.1467557886172487</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -13153,7 +13153,7 @@
         <v>-1.739983292975438</v>
       </c>
       <c r="B74" t="n">
-        <v>1.11046671535474</v>
+        <v>-1.110466715354741</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -13161,10 +13161,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.3236574150124581</v>
+        <v>-0.3236574150124569</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9581475501067327</v>
+        <v>-0.9581475501067264</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -13172,10 +13172,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-2.307815773135846</v>
+        <v>-2.307815773135847</v>
       </c>
       <c r="B76" t="n">
-        <v>1.405894746195539</v>
+        <v>-1.405894746195544</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -13183,10 +13183,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-1.193456425961961</v>
+        <v>-1.19345642596196</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.07289940105864495</v>
+        <v>0.07289940105864595</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -13194,10 +13194,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.7002312720928319</v>
+        <v>0.7002312720928324</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4623256595643743</v>
+        <v>-0.4623256595643713</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -13208,7 +13208,7 @@
         <v>-1.067649323247718</v>
       </c>
       <c r="B79" t="n">
-        <v>1.0566781677251</v>
+        <v>-1.056678167725105</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -13219,7 +13219,7 @@
         <v>-1.092129614301041</v>
       </c>
       <c r="B80" t="n">
-        <v>2.680859859828551</v>
+        <v>-2.680859859828547</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -13227,10 +13227,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.5781501130681719</v>
+        <v>-0.5781501130681711</v>
       </c>
       <c r="B81" t="n">
-        <v>-3.244959472438853</v>
+        <v>3.244959472438857</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -13238,10 +13238,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-2.05818165033632</v>
+        <v>-2.058181650336319</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.075371295818444</v>
+        <v>1.075371295818448</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -13252,7 +13252,7 @@
         <v>-1.873454044878749</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.1355794362520228</v>
+        <v>0.1355794362520256</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -13260,10 +13260,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-2.193680164109975</v>
+        <v>-2.193680164109976</v>
       </c>
       <c r="B84" t="n">
-        <v>-2.113728094051121</v>
+        <v>2.113728094051126</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -13271,10 +13271,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.4826404111464574</v>
+        <v>0.4826404111464586</v>
       </c>
       <c r="B85" t="n">
-        <v>2.629224100569618</v>
+        <v>-2.629224100569612</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -13282,10 +13282,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-1.023932601580462</v>
+        <v>-1.023932601580461</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.04587433689032985</v>
+        <v>0.04587433689033457</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -13293,10 +13293,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.2029143066380628</v>
+        <v>-0.2029143066380618</v>
       </c>
       <c r="B87" t="n">
-        <v>1.044605483305601</v>
+        <v>-1.044605483305594</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -13304,10 +13304,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.886444668134603</v>
+        <v>1.886444668134604</v>
       </c>
       <c r="B88" t="n">
-        <v>3.633130685875446</v>
+        <v>-3.633130685875437</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -13315,10 +13315,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.5899222086703855</v>
+        <v>-0.5899222086703865</v>
       </c>
       <c r="B89" t="n">
-        <v>1.804880312259064</v>
+        <v>-1.804880312259073</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -13326,10 +13326,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-2.5901419624581</v>
+        <v>-2.590141962458099</v>
       </c>
       <c r="B90" t="n">
-        <v>1.307063456677764</v>
+        <v>-1.307063456677766</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -13337,10 +13337,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.44893900205735</v>
+        <v>1.448939002057352</v>
       </c>
       <c r="B91" t="n">
-        <v>1.663569304948472</v>
+        <v>-1.663569304948465</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -13351,7 +13351,7 @@
         <v>-2.833085812250813</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7449798927625809</v>
+        <v>-0.7449798927625846</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -13359,10 +13359,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.01692950080637413</v>
+        <v>-0.01692950080637528</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.6598744648597465</v>
+        <v>0.6598744648597352</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -13370,10 +13370,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8109681274920425</v>
+        <v>0.8109681274920428</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.03158829074172585</v>
+        <v>0.0315882907417294</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -13381,10 +13381,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.5419628376024387</v>
+        <v>0.5419628376024401</v>
       </c>
       <c r="B95" t="n">
-        <v>2.300903320252705</v>
+        <v>-2.300903320252701</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -13392,10 +13392,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.5841712967057275</v>
+        <v>-0.584171296705727</v>
       </c>
       <c r="B96" t="n">
-        <v>1.167755641752988</v>
+        <v>-1.16775564175299</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -13403,10 +13403,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.2873990183783973</v>
+        <v>-0.2873990183783974</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.02494783284638143</v>
+        <v>0.0249478328463747</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -13414,10 +13414,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.5118311135747177</v>
+        <v>0.5118311135747184</v>
       </c>
       <c r="B98" t="n">
-        <v>0.07061028810382036</v>
+        <v>-0.07061028810382122</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -13425,10 +13425,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1.046951953723162</v>
+        <v>-1.046951953723161</v>
       </c>
       <c r="B99" t="n">
-        <v>1.947076300112227</v>
+        <v>-1.947076300112223</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -13436,10 +13436,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5.76973725737286</v>
+        <v>5.769737257372861</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9445088348449329</v>
+        <v>-0.9445088348449125</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -13447,10 +13447,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1.71047040481874</v>
+        <v>-1.710470404818739</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.10026959492691</v>
+        <v>1.10026959492691</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -13458,10 +13458,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.8348988923927736</v>
+        <v>0.8348988923927739</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5811920395524248</v>
+        <v>-0.5811920395524235</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -13469,10 +13469,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-1.104284171840346</v>
+        <v>-1.104284171840345</v>
       </c>
       <c r="B103" t="n">
-        <v>0.07178273096747281</v>
+        <v>-0.07178273096747124</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -13480,10 +13480,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.827793887039913</v>
+        <v>1.82779388703991</v>
       </c>
       <c r="B104" t="n">
-        <v>0.7059733057081589</v>
+        <v>-0.7059733057081788</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -13491,10 +13491,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-2.594304583218463</v>
+        <v>-2.594304583218464</v>
       </c>
       <c r="B105" t="n">
-        <v>1.247867195669675</v>
+        <v>-1.247867195669679</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -13502,10 +13502,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1.552246901444632</v>
+        <v>-1.552246901444631</v>
       </c>
       <c r="B106" t="n">
-        <v>0.09930075079917346</v>
+        <v>-0.09930075079917083</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -13516,7 +13516,7 @@
         <v>-1.662355632762601</v>
       </c>
       <c r="B107" t="n">
-        <v>-2.759885318613591</v>
+        <v>2.75988531861359</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -13524,10 +13524,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-0.5647214530239676</v>
+        <v>-0.5647214530239699</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.2167977249099013</v>
+        <v>0.2167977249098851</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -13535,10 +13535,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.068985028253699</v>
+        <v>1.068985028253701</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.2249796967244458</v>
+        <v>0.2249796967244516</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -13546,10 +13546,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-1.09962809909384</v>
+        <v>-1.099628099093841</v>
       </c>
       <c r="B110" t="n">
-        <v>1.403290800788128</v>
+        <v>-1.403290800788134</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -13557,10 +13557,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.3199515878909953</v>
+        <v>0.3199515878909951</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.7078501110495563</v>
+        <v>0.7078501110495534</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -13568,10 +13568,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.190642668845816</v>
+        <v>-1.190642668845817</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9761962609166568</v>
+        <v>-0.9761962609166633</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -13582,7 +13582,7 @@
         <v>-0.3278971140019704</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9890328367703211</v>
+        <v>-0.9890328367703307</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -13593,7 +13593,7 @@
         <v>-2.488881232863822</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.434787987377731</v>
+        <v>1.434787987377734</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -13601,10 +13601,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.736289914478305</v>
+        <v>1.736289914478304</v>
       </c>
       <c r="B115" t="n">
-        <v>3.225330197828271</v>
+        <v>-3.225330197828275</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -13612,10 +13612,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.526525732414829</v>
+        <v>1.52652573241483</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.9877581656257022</v>
+        <v>0.9877581656257032</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -13626,7 +13626,7 @@
         <v>1.666826268452811</v>
       </c>
       <c r="B117" t="n">
-        <v>-2.466167111756902</v>
+        <v>2.466167111756899</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -13634,10 +13634,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4.650515810702043</v>
+        <v>4.650515810702044</v>
       </c>
       <c r="B118" t="n">
-        <v>1.355303508961848</v>
+        <v>-1.355303508961836</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -13645,10 +13645,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.727420767322086</v>
+        <v>-1.727420767322085</v>
       </c>
       <c r="B119" t="n">
-        <v>1.163670888492313</v>
+        <v>-1.163670888492311</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -13656,10 +13656,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.7864102780835307</v>
+        <v>-0.7864102780835309</v>
       </c>
       <c r="B120" t="n">
-        <v>1.768378587747037</v>
+        <v>-1.768378587747038</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -13670,7 +13670,7 @@
         <v>-1.289895783095854</v>
       </c>
       <c r="B121" t="n">
-        <v>1.480898409198437</v>
+        <v>-1.480898409198441</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -13678,10 +13678,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.482772164158835</v>
+        <v>1.482772164158836</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.3507966937296149</v>
+        <v>0.3507966937296211</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -13689,10 +13689,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.80452223731207</v>
+        <v>2.804522237312073</v>
       </c>
       <c r="B123" t="n">
-        <v>0.2853021973352258</v>
+        <v>-0.2853021973352088</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -13700,10 +13700,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-2.125595261088524</v>
+        <v>-2.125595261088523</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.1802470010050256</v>
+        <v>0.1802470010050296</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -13714,7 +13714,7 @@
         <v>-1.302149989768774</v>
       </c>
       <c r="B125" t="n">
-        <v>0.2297647043681077</v>
+        <v>-0.2297647043681042</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -13722,10 +13722,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.996057987838075</v>
+        <v>1.99605798783807</v>
       </c>
       <c r="B126" t="n">
-        <v>-3.751122265744816</v>
+        <v>3.751122265744797</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -13733,10 +13733,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.8388457697001408</v>
+        <v>0.838845769700141</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.131842943874375</v>
+        <v>1.131842943874374</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -13747,7 +13747,7 @@
         <v>-1.107250373822074</v>
       </c>
       <c r="B128" t="n">
-        <v>-2.466235660791892</v>
+        <v>2.466235660791892</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -13758,7 +13758,7 @@
         <v>-1.08482853294434</v>
       </c>
       <c r="B129" t="n">
-        <v>-1.656041674454396</v>
+        <v>1.65604167445439</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
@@ -13766,10 +13766,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-0.08359987172597355</v>
+        <v>-0.08359987172597415</v>
       </c>
       <c r="B130" t="n">
-        <v>-2.101417885119497</v>
+        <v>2.101417885119494</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>

--- a/Results/pca_kmeans_results_indep_variables.xlsx
+++ b/Results/pca_kmeans_results_indep_variables.xlsx
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1215,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1579,7 +1579,7 @@
         <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1852,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2216,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2853,7 +2853,7 @@
         <v>6</v>
       </c>
       <c r="AC26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3035,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="AC28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="AC51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5674,7 +5674,7 @@
         <v>4</v>
       </c>
       <c r="AC57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -5856,7 +5856,7 @@
         <v>8</v>
       </c>
       <c r="AC59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="AC61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="AC63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="AC65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="AC66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="AC68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="AC69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -6948,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="AC71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="AC73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -7221,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="AC74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -7312,7 +7312,7 @@
         <v>7</v>
       </c>
       <c r="AC75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="AC76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="AC77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -7585,7 +7585,7 @@
         <v>3</v>
       </c>
       <c r="AC78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AC79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="AC80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AC81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AC82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="AC83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="AC84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="AC86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -8404,7 +8404,7 @@
         <v>4</v>
       </c>
       <c r="AC87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="AC89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="AC90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -8859,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="AC92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -8950,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="AC93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AC96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="AC97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -9405,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="AC98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -9496,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="AC99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -9678,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="AC101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -9860,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="AC103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="AC104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -10042,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="AC105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -10133,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="AC106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="AC107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="AC110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -10588,7 +10588,7 @@
         <v>2</v>
       </c>
       <c r="AC111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="AC112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="AC113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="AC114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -11316,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="AC119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="AC120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="AC121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="AC124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AC125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -11953,7 +11953,7 @@
         <v>1</v>
       </c>
       <c r="AC126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="AC127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="AC128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -12226,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="AC129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -12317,7 +12317,7 @@
         <v>1</v>
       </c>
       <c r="AC130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12358,186 +12358,186 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.5782191833171413</v>
+        <v>-0.3602869217260485</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1689152380479342</v>
+        <v>-0.4859403847492561</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.280387917399446</v>
+        <v>-0.8634781455391474</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.150922972978438</v>
+        <v>-0.8876287702214593</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.964229863113497</v>
+        <v>-1.290210097185685</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.32888812655259</v>
+        <v>-0.453434075270585</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9646632365373217</v>
+        <v>-0.2544099984426939</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8759818523367363</v>
+        <v>-0.1209808536404971</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.8200186649410357</v>
+        <v>-1.094959599097063</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.885873755865354</v>
+        <v>1.938847582550579</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.1655541164950444</v>
+        <v>0.6338330076623192</v>
       </c>
       <c r="B7" t="n">
-        <v>1.702992923957509</v>
+        <v>-0.3644564836032454</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3231027053772098</v>
+        <v>0.6396231215015796</v>
       </c>
       <c r="B8" t="n">
-        <v>2.130557430278383</v>
+        <v>0.8096275330199911</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.957880318239723</v>
+        <v>-1.552322987805404</v>
       </c>
       <c r="B9" t="n">
-        <v>1.178655027015324</v>
+        <v>0.11675332574895</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1283934407479863</v>
+        <v>0.9926874455327526</v>
       </c>
       <c r="B10" t="n">
-        <v>1.145757500380425</v>
+        <v>-0.7567521585691154</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.696902406985072</v>
+        <v>-0.2358866005983718</v>
       </c>
       <c r="B11" t="n">
-        <v>1.557808651734803</v>
+        <v>-0.9440165158616017</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.81824055070876</v>
+        <v>5.055200353761507</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.05262644638555077</v>
+        <v>1.677979153951419</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.7562357909405181</v>
+        <v>2.019699144103577</v>
       </c>
       <c r="B13" t="n">
-        <v>1.545448461308604</v>
+        <v>-3.818357528652309</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.45111760645312</v>
+        <v>-0.8695770429238262</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7874932873818907</v>
+        <v>0.3513344341565919</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.6568704557434525</v>
+        <v>-0.597477853290346</v>
       </c>
       <c r="B15" t="n">
-        <v>2.346414474232589</v>
+        <v>0.86257108945452</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.117696843872157</v>
+        <v>-0.6502933841352684</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.710196149925209</v>
+        <v>0.002784490140655719</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.896254032180177</v>
+        <v>0.150172942182495</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2864387163625253</v>
+        <v>-1.837003631041356</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3732541410123643</v>
+        <v>-1.142519320902133</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.386568506734653</v>
+        <v>2.692302278757103</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -12545,54 +12545,54 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2176797706157386</v>
+        <v>-0.9395241663941243</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1832150713309426</v>
+        <v>-0.1020932669124043</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.260690362528004</v>
+        <v>-0.06117443725816041</v>
       </c>
       <c r="B20" t="n">
-        <v>1.615786886273389</v>
+        <v>-1.102946504714419</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.055204235068495</v>
+        <v>-0.5549472348348429</v>
       </c>
       <c r="B21" t="n">
-        <v>1.076943766015065</v>
+        <v>1.389729048640656</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-2.058920100456057</v>
+        <v>-0.1568891783102741</v>
       </c>
       <c r="B22" t="n">
-        <v>1.114326827515261</v>
+        <v>-1.329067827999902</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.759281590411293</v>
+        <v>1.4494696445419</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8612547957397493</v>
+        <v>-0.3149910067896253</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -12600,109 +12600,109 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1712151654928295</v>
+        <v>1.513686609771589</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.3289492782308823</v>
+        <v>-1.258346534390315</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.586297162916761</v>
+        <v>4.589440112605915</v>
       </c>
       <c r="B25" t="n">
-        <v>2.638480100677725</v>
+        <v>0.8926827012112518</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.5918045200868803</v>
+        <v>-0.7672533910070136</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.545144596063911</v>
+        <v>-0.9833416810289664</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.103737108550725</v>
+        <v>-0.8765555959909759</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.03908960976071141</v>
+        <v>-0.5161632481309814</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.173231702372365</v>
+        <v>-0.2388709487368068</v>
       </c>
       <c r="B28" t="n">
-        <v>2.281206613710818</v>
+        <v>-0.8674736886926022</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.2457781795868137</v>
+        <v>-0.96836542333318</v>
       </c>
       <c r="B29" t="n">
-        <v>3.553988483354007</v>
+        <v>0.8653407735207255</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.5277144616279639</v>
+        <v>-1.380426760335778</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.969901564936142</v>
+        <v>0.3714482979154492</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2.335815634037403</v>
+        <v>-1.333655454085429</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.446372798699666</v>
+        <v>-0.4087224862337215</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.02111736366514621</v>
+        <v>-1.396196522988802</v>
       </c>
       <c r="B32" t="n">
-        <v>3.026961143597765</v>
+        <v>0.9425369673266455</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.6998209934226716</v>
+        <v>0.5860537935306355</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.5430325350908136</v>
+        <v>2.138460598123948</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -12710,21 +12710,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.4441931329920449</v>
+        <v>0.5625583683164357</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2781379690875696</v>
+        <v>-1.289265607621064</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.938380291221615</v>
+        <v>0.3307219568693708</v>
       </c>
       <c r="B35" t="n">
-        <v>-3.990417066921143</v>
+        <v>2.472563978481573</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -12732,21 +12732,21 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.3956633398955378</v>
+        <v>2.59814321489428</v>
       </c>
       <c r="B36" t="n">
-        <v>1.038645488988876</v>
+        <v>-2.139605425223352</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.343917864248562</v>
+        <v>1.263588588932257</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.001527631571805</v>
+        <v>3.54204222995785</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -12754,21 +12754,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.7434627745407375</v>
+        <v>-0.9202995662663785</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.973232098905231</v>
+        <v>0.2773437570956173</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.677239123716142</v>
+        <v>0.9959857126327699</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.412186567314998</v>
+        <v>0.884802366888454</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -12776,10 +12776,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.992115764383803</v>
+        <v>1.334361159627991</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8636925483803686</v>
+        <v>4.087185218284465</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -12787,87 +12787,87 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1.514523517766493</v>
+        <v>-1.112335132307991</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04274692354608622</v>
+        <v>0.2150813091440961</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.05252224339319799</v>
+        <v>-0.04514558537321126</v>
       </c>
       <c r="B42" t="n">
-        <v>2.587698482077691</v>
+        <v>-1.073927835634143</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1.013294046303618</v>
+        <v>0.05625469155842002</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.2972837154380362</v>
+        <v>0.73987282048616</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-2.484988828658895</v>
+        <v>-1.836910493361648</v>
       </c>
       <c r="B44" t="n">
-        <v>-3.184853787062053</v>
+        <v>0.6558149277794443</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1.111509734302202</v>
+        <v>-1.439698224402036</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.3701064619105094</v>
+        <v>1.173806373504373</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.213642213917811</v>
+        <v>-1.730318112659709</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.541196083839928</v>
+        <v>1.101021557960502</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.87493397454654</v>
+        <v>9.795166867693151</v>
       </c>
       <c r="B47" t="n">
-        <v>1.251357785045722</v>
+        <v>0.7485228159069266</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.6918467460214913</v>
+        <v>-1.188269085408609</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8316376762802188</v>
+        <v>1.524256763444332</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -12875,10 +12875,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.139454207077972</v>
+        <v>2.472262418601473</v>
       </c>
       <c r="B49" t="n">
-        <v>1.936239019996354</v>
+        <v>-1.498023279927062</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -12886,76 +12886,76 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-1.068800770726156</v>
+        <v>-0.9063343679098268</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.8915833576788013</v>
+        <v>-0.164084445946651</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-1.308582113885526</v>
+        <v>-0.8427826191434105</v>
       </c>
       <c r="B51" t="n">
-        <v>3.147952070954839</v>
+        <v>0.07579845914126072</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.6173826174067479</v>
+        <v>-0.3378686513030142</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5471174791240286</v>
+        <v>-0.2682567686193514</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.4234489673689437</v>
+        <v>-0.04849431125937068</v>
       </c>
       <c r="B53" t="n">
-        <v>1.653348375468133</v>
+        <v>-1.525693426993635</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-2.596442903291056</v>
+        <v>-1.010353081603349</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.256358596970066</v>
+        <v>-0.4606784380981542</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.2960442724411856</v>
+        <v>-0.555194768151737</v>
       </c>
       <c r="B55" t="n">
-        <v>0.05340488347499168</v>
+        <v>0.05197994545940355</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.544299243030937</v>
+        <v>1.690320540578795</v>
       </c>
       <c r="B56" t="n">
-        <v>-2.284697052637652</v>
+        <v>3.107847535006976</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -12963,21 +12963,21 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-1.782332511462709</v>
+        <v>-0.7501977329234644</v>
       </c>
       <c r="B57" t="n">
-        <v>1.375135533862744</v>
+        <v>-1.002552609180508</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.140275136835683</v>
+        <v>-0.06594791506858085</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.5376093428630255</v>
+        <v>-0.6610083137579214</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -12985,21 +12985,21 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9254156925596567</v>
+        <v>0.8702446663449109</v>
       </c>
       <c r="B59" t="n">
-        <v>1.958821054687752</v>
+        <v>-0.3269892573939511</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.123152600416844</v>
+        <v>1.995799667049214</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.788759417518893</v>
+        <v>1.492281575619643</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -13007,21 +13007,21 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1.321388900171816</v>
+        <v>-1.243601938748458</v>
       </c>
       <c r="B61" t="n">
-        <v>-2.120978332165378</v>
+        <v>0.32929970896005</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8877548356878345</v>
+        <v>2.058471411147179</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8781100744289857</v>
+        <v>-2.834931458892878</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -13029,21 +13029,21 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.4749834888538453</v>
+        <v>-0.2896694066211854</v>
       </c>
       <c r="B63" t="n">
-        <v>3.789153073398492</v>
+        <v>-0.5543163956602507</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.915871663459829</v>
+        <v>-0.3986321464494333</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4168960198906196</v>
+        <v>1.455249085843297</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -13051,32 +13051,32 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-1.886368231754965</v>
+        <v>-0.3444365232401462</v>
       </c>
       <c r="B65" t="n">
-        <v>1.425938732437364</v>
+        <v>-1.360909916105478</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.864961146289384</v>
+        <v>-1.190305748397489</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.1165549356898145</v>
+        <v>0.5519030240505788</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.066718295301133</v>
+        <v>2.218397156109672</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.368234724358682</v>
+        <v>-0.6708053929006426</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -13084,32 +13084,32 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.4952589962139689</v>
+        <v>-0.443199427893816</v>
       </c>
       <c r="B68" t="n">
-        <v>1.306961326792931</v>
+        <v>-0.04426261273659293</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-2.483498425837159</v>
+        <v>-1.403490509801368</v>
       </c>
       <c r="B69" t="n">
-        <v>1.706452006399446</v>
+        <v>-0.3385102363115361</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.557041067689506</v>
+        <v>0.04611273038184884</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06706240716020756</v>
+        <v>2.507279030774503</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -13117,21 +13117,21 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-1.522055451289838</v>
+        <v>-0.5011622927555734</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6726491406879469</v>
+        <v>-1.201274488109565</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.210476490667922</v>
+        <v>1.467985097556351</v>
       </c>
       <c r="B72" t="n">
-        <v>0.411082648029965</v>
+        <v>-0.4365262992265356</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -13139,142 +13139,142 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.09282352438845086</v>
+        <v>-1.009763947074284</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1467557886172487</v>
+        <v>0.2181542971397903</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.739983292975438</v>
+        <v>-0.3121110748523958</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.110466715354741</v>
+        <v>-1.062469212989045</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.3236574150124569</v>
+        <v>-0.6342915227898369</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.9581475501067264</v>
+        <v>0.5337100264921413</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-2.307815773135847</v>
+        <v>-1.506920088965825</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.405894746195544</v>
+        <v>0.0437285067749052</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-1.19345642596196</v>
+        <v>0.01559618368841636</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07289940105864595</v>
+        <v>-0.3955401205954587</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.7002312720928324</v>
+        <v>1.411619127712611</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.4623256595643713</v>
+        <v>-1.162528539106367</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-1.067649323247718</v>
+        <v>-0.3234657812769269</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.056678167725105</v>
+        <v>-1.436747304131382</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1.092129614301041</v>
+        <v>-1.349605184921333</v>
       </c>
       <c r="B80" t="n">
-        <v>-2.680859859828547</v>
+        <v>0.5629258140169372</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.5781501130681711</v>
+        <v>-0.8941212675545452</v>
       </c>
       <c r="B81" t="n">
-        <v>3.244959472438857</v>
+        <v>-0.1751180858864491</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-2.058181650336319</v>
+        <v>-1.070337303868062</v>
       </c>
       <c r="B82" t="n">
-        <v>1.075371295818448</v>
+        <v>-0.1231512840485766</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1.873454044878749</v>
+        <v>-0.1655617427033706</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1355794362520256</v>
+        <v>-0.2387172616514056</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-2.193680164109976</v>
+        <v>-1.739870332735276</v>
       </c>
       <c r="B84" t="n">
-        <v>2.113728094051126</v>
+        <v>0.08491123764337449</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.4826404111464586</v>
+        <v>-0.445781187124486</v>
       </c>
       <c r="B85" t="n">
-        <v>-2.629224100569612</v>
+        <v>1.983548316851267</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -13282,32 +13282,32 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-1.023932601580461</v>
+        <v>-0.9412703082295979</v>
       </c>
       <c r="B86" t="n">
-        <v>0.04587433689033457</v>
+        <v>0.3531811451215216</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.2029143066380618</v>
+        <v>-1.123044359689967</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.044605483305594</v>
+        <v>0.3330781360988393</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.886444668134604</v>
+        <v>-0.08346533434091206</v>
       </c>
       <c r="B88" t="n">
-        <v>-3.633130685875437</v>
+        <v>1.669902598963161</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -13315,32 +13315,32 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.5899222086703865</v>
+        <v>0.564587086475445</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.804880312259073</v>
+        <v>0.3845885015568846</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-2.590141962458099</v>
+        <v>-0.6270664868565555</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.307063456677766</v>
+        <v>-0.8501615440121647</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.448939002057352</v>
+        <v>-0.1498953196572009</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.663569304948465</v>
+        <v>2.005322623103974</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -13348,32 +13348,32 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-2.833085812250813</v>
+        <v>-0.8634781455391474</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.7449798927625846</v>
+        <v>-0.8876287702214593</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.01692950080637528</v>
+        <v>0.7229644237989953</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6598744648597352</v>
+        <v>-2.222957878786973</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8109681274920428</v>
+        <v>0.1407119622346779</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0315882907417294</v>
+        <v>-0.7733691526355059</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -13381,10 +13381,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.5419628376024401</v>
+        <v>-0.3325007745088029</v>
       </c>
       <c r="B95" t="n">
-        <v>-2.300903320252701</v>
+        <v>1.868624477892218</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -13392,54 +13392,54 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.584171296705727</v>
+        <v>-0.4049375382234397</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.16775564175299</v>
+        <v>-1.296987398917072</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.2873990183783974</v>
+        <v>0.1731012260855493</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0249478328463747</v>
+        <v>-1.941154249004442</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.5118311135747184</v>
+        <v>1.186752313807192</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.07061028810382122</v>
+        <v>-2.890529109824338</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1.046951953723161</v>
+        <v>-0.9202995662663785</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.947076300112223</v>
+        <v>0.2773437570956173</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5.769737257372861</v>
+        <v>-0.1414128936167457</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.9445088348449125</v>
+        <v>2.979783492406492</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -13447,21 +13447,21 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1.710470404818739</v>
+        <v>-1.236913906834715</v>
       </c>
       <c r="B101" t="n">
-        <v>1.10026959492691</v>
+        <v>-0.2308307601800564</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.8348988923927739</v>
+        <v>-0.0448778407553593</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.5811920395524235</v>
+        <v>-0.8335244706782624</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -13469,65 +13469,65 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-1.104284171840345</v>
+        <v>-0.9637449231661226</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.07178273096747124</v>
+        <v>0.3220553461324809</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.82779388703991</v>
+        <v>2.105044983200997</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.7059733057081788</v>
+        <v>1.61184461532797</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-2.594304583218464</v>
+        <v>-0.4361570593635454</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.247867195669679</v>
+        <v>-0.6429907299343888</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1.552246901444631</v>
+        <v>-1.497069255514599</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.09930075079917083</v>
+        <v>0.3110434109022975</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.662355632762601</v>
+        <v>-0.5236369076920983</v>
       </c>
       <c r="B107" t="n">
-        <v>2.75988531861359</v>
+        <v>-1.232400287098606</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-0.5647214530239699</v>
+        <v>2.583278731071792</v>
       </c>
       <c r="B108" t="n">
-        <v>0.2167977249098851</v>
+        <v>-0.1343381029750003</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -13535,10 +13535,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.068985028253701</v>
+        <v>0.8823993258853751</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2249796967244516</v>
+        <v>-1.41987151656326</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -13546,65 +13546,65 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-1.099628099093841</v>
+        <v>-0.1166704384111331</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.403290800788134</v>
+        <v>-0.734998990818896</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.3199515878909951</v>
+        <v>-0.03668593586831012</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7078501110495534</v>
+        <v>-1.286691752803424</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.190642668845817</v>
+        <v>-0.726219245013634</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.9761962609166633</v>
+        <v>-0.8644636231765225</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.3278971140019704</v>
+        <v>-0.1388464399719995</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.9890328367703307</v>
+        <v>-1.514920205997672</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-2.488881232863822</v>
+        <v>-1.123633494219032</v>
       </c>
       <c r="B114" t="n">
-        <v>1.434787987377734</v>
+        <v>-0.3457545991391053</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.736289914478304</v>
+        <v>0.8459398828088338</v>
       </c>
       <c r="B115" t="n">
-        <v>-3.225330197828275</v>
+        <v>2.660730893361674</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -13612,10 +13612,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.52652573241483</v>
+        <v>0.8191051515670503</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9877581656257032</v>
+        <v>0.2449007481162612</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -13623,10 +13623,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.666826268452811</v>
+        <v>-0.7368854845590981</v>
       </c>
       <c r="B117" t="n">
-        <v>2.466167111756899</v>
+        <v>-0.6565877479753519</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -13634,10 +13634,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4.650515810702044</v>
+        <v>0.8707343211315911</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.355303508961836</v>
+        <v>1.92344544457165</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -13645,43 +13645,43 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.727420767322085</v>
+        <v>-0.4170445269901587</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.163670888492311</v>
+        <v>-0.7871936569175486</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.7864102780835309</v>
+        <v>-1.107257776667186</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.768378587747038</v>
+        <v>0.9243344042279864</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.289895783095854</v>
+        <v>-1.133484327670258</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.480898409198441</v>
+        <v>-0.6130695032664977</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.482772164158836</v>
+        <v>0.05336757946866014</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3507966937296211</v>
+        <v>-0.5486695576096524</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -13689,10 +13689,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.804522237312073</v>
+        <v>0.7853474803054086</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.2853021973352088</v>
+        <v>2.119831809660322</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -13700,79 +13700,79 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-2.125595261088523</v>
+        <v>-1.506920088965825</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1802470010050296</v>
+        <v>0.0437285067749052</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-1.302149989768774</v>
+        <v>-0.6123496978688863</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.2297647043681042</v>
+        <v>-0.3005547268976269</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.99605798783807</v>
+        <v>4.931125783941389</v>
       </c>
       <c r="B126" t="n">
-        <v>3.751122265744797</v>
+        <v>-0.5895701962303994</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.838845769700141</v>
+        <v>0.5484307138578309</v>
       </c>
       <c r="B127" t="n">
-        <v>1.131842943874374</v>
+        <v>-1.160039689497657</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1.107250373822074</v>
+        <v>-0.997140165588985</v>
       </c>
       <c r="B128" t="n">
-        <v>2.466235660791892</v>
+        <v>-0.0180348079985613</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-1.08482853294434</v>
+        <v>-0.8634781455391474</v>
       </c>
       <c r="B129" t="n">
-        <v>1.65604167445439</v>
+        <v>-0.8876287702214593</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-0.08359987172597415</v>
+        <v>-0.578202173103836</v>
       </c>
       <c r="B130" t="n">
-        <v>2.101417885119494</v>
+        <v>-0.8445364059084457</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Results/pca_kmeans_results_indep_variables.xlsx
+++ b/Results/pca_kmeans_results_indep_variables.xlsx
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1215,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1579,7 +1579,7 @@
         <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1852,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2216,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="AC19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2580,7 +2580,7 @@
         <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -3035,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="AC28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3854,7 +3854,7 @@
         <v>28</v>
       </c>
       <c r="AC37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4946,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="AC49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5765,7 +5765,7 @@
         <v>14</v>
       </c>
       <c r="AC58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -5856,7 +5856,7 @@
         <v>8</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -6129,7 +6129,7 @@
         <v>4</v>
       </c>
       <c r="AC62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="AC63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -6311,7 +6311,7 @@
         <v>3</v>
       </c>
       <c r="AC64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AC67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -6857,7 +6857,7 @@
         <v>3</v>
       </c>
       <c r="AC70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -6948,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -7039,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="AC72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="AC73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AC79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AC81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AC82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="AC83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="AC84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="AC85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="AC86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -8495,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="AC88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="AC89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -8768,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="AC91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -8950,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="AC93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="AC95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AC96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="AC97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -9405,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="AC98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -9587,7 +9587,7 @@
         <v>68</v>
       </c>
       <c r="AC100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -9769,7 +9769,7 @@
         <v>3</v>
       </c>
       <c r="AC102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="AC104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="AC107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="AC108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="AC109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="AC110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -10588,7 +10588,7 @@
         <v>2</v>
       </c>
       <c r="AC111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="AC112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="AC113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="AC114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="AC115" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -11134,7 +11134,7 @@
         <v>3</v>
       </c>
       <c r="AC117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -11225,7 +11225,7 @@
         <v>2</v>
       </c>
       <c r="AC118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="AC120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="AC121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -11589,7 +11589,7 @@
         <v>2</v>
       </c>
       <c r="AC122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -11680,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="AC123" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -11953,7 +11953,7 @@
         <v>1</v>
       </c>
       <c r="AC126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="AC127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="AC128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -12226,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="AC129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -12317,7 +12317,7 @@
         <v>1</v>
       </c>
       <c r="AC130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12364,7 +12364,7 @@
         <v>0.1689152380479331</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -12419,7 +12419,7 @@
         <v>-1.702992923957503</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -12430,7 +12430,7 @@
         <v>-2.130557430278379</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -12441,7 +12441,7 @@
         <v>-1.178655027015325</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -12452,7 +12452,7 @@
         <v>-1.145757500380439</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -12463,7 +12463,7 @@
         <v>-1.557808651734798</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -12474,7 +12474,7 @@
         <v>0.05262644638555376</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -12485,7 +12485,7 @@
         <v>-1.545448461308606</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -12496,7 +12496,7 @@
         <v>-0.7874932873818871</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -12507,7 +12507,7 @@
         <v>-2.346414474232574</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -12540,7 +12540,7 @@
         <v>3.386568506734656</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -12551,7 +12551,7 @@
         <v>0.1832150713309457</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -12562,7 +12562,7 @@
         <v>-1.615786886273383</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -12573,7 +12573,7 @@
         <v>-1.076943766015056</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -12584,7 +12584,7 @@
         <v>-1.114326827515258</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -12595,7 +12595,7 @@
         <v>-0.861254795739739</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -12606,7 +12606,7 @@
         <v>0.3289492782308671</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -12617,7 +12617,7 @@
         <v>-2.63848010067776</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -12639,7 +12639,7 @@
         <v>0.03908960976070879</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -12650,7 +12650,7 @@
         <v>-2.281206613710819</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -12661,7 +12661,7 @@
         <v>-3.553988483354007</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -12672,7 +12672,7 @@
         <v>2.969901564936142</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -12694,7 +12694,7 @@
         <v>-3.026961143597755</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -12716,7 +12716,7 @@
         <v>-0.2781379690875747</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -12727,7 +12727,7 @@
         <v>3.990417066921151</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -12738,7 +12738,7 @@
         <v>-1.038645488988881</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -12749,7 +12749,7 @@
         <v>1.00152763157182</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -12771,7 +12771,7 @@
         <v>1.412186567314991</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -12782,7 +12782,7 @@
         <v>-0.863692548380353</v>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -12804,7 +12804,7 @@
         <v>-2.587698482077692</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -12815,7 +12815,7 @@
         <v>0.297283715438037</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -12848,7 +12848,7 @@
         <v>1.541196083839927</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -12859,7 +12859,7 @@
         <v>-1.251357785045747</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -12881,7 +12881,7 @@
         <v>-1.936239019996361</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -12892,7 +12892,7 @@
         <v>0.8915833576788028</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -12903,7 +12903,7 @@
         <v>-3.147952070954827</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -12914,7 +12914,7 @@
         <v>-0.5471174791240326</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -12925,7 +12925,7 @@
         <v>-1.653348375468134</v>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -12947,7 +12947,7 @@
         <v>-0.05340488347498772</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -12958,7 +12958,7 @@
         <v>2.284697052637655</v>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -12980,7 +12980,7 @@
         <v>0.5376093428630322</v>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -12991,7 +12991,7 @@
         <v>-1.958821054687755</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -13002,7 +13002,7 @@
         <v>1.788759417518888</v>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -13024,7 +13024,7 @@
         <v>-0.8781100744290057</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -13035,7 +13035,7 @@
         <v>-3.789153073398489</v>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -13046,7 +13046,7 @@
         <v>-0.416896019890613</v>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -13057,7 +13057,7 @@
         <v>-1.425938732437366</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -13068,7 +13068,7 @@
         <v>0.1165549356898195</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -13079,7 +13079,7 @@
         <v>0.3682347243586744</v>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -13090,7 +13090,7 @@
         <v>-1.306961326792922</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -13101,7 +13101,7 @@
         <v>-1.706452006399441</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -13112,7 +13112,7 @@
         <v>-0.06706240716021228</v>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -13123,7 +13123,7 @@
         <v>-0.672649140687942</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -13134,7 +13134,7 @@
         <v>-0.4110826480299806</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -13145,7 +13145,7 @@
         <v>-0.1467557886172466</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -13211,7 +13211,7 @@
         <v>1.0566781677251</v>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -13233,7 +13233,7 @@
         <v>-3.244959472438853</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -13244,7 +13244,7 @@
         <v>-1.075371295818444</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -13255,7 +13255,7 @@
         <v>-0.1355794362520228</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -13266,7 +13266,7 @@
         <v>-2.113728094051121</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -13277,7 +13277,7 @@
         <v>2.629224100569618</v>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -13288,7 +13288,7 @@
         <v>-0.04587433689032985</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -13310,7 +13310,7 @@
         <v>3.633130685875446</v>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -13321,7 +13321,7 @@
         <v>1.804880312259064</v>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -13343,7 +13343,7 @@
         <v>1.663569304948472</v>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -13365,7 +13365,7 @@
         <v>-0.6598744648597465</v>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -13387,7 +13387,7 @@
         <v>2.300903320252705</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -13398,7 +13398,7 @@
         <v>1.167755641752988</v>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -13409,7 +13409,7 @@
         <v>-0.02494783284638143</v>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -13420,7 +13420,7 @@
         <v>0.07061028810382036</v>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -13442,7 +13442,7 @@
         <v>0.9445088348449329</v>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -13464,7 +13464,7 @@
         <v>0.5811920395524248</v>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -13486,7 +13486,7 @@
         <v>0.7059733057081589</v>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -13519,7 +13519,7 @@
         <v>-2.759885318613591</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -13530,7 +13530,7 @@
         <v>-0.2167977249099013</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -13541,7 +13541,7 @@
         <v>-0.2249796967244458</v>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -13552,7 +13552,7 @@
         <v>1.403290800788128</v>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -13563,7 +13563,7 @@
         <v>-0.7078501110495563</v>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -13574,7 +13574,7 @@
         <v>0.9761962609166568</v>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -13585,7 +13585,7 @@
         <v>0.9890328367703211</v>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -13596,7 +13596,7 @@
         <v>-1.434787987377731</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -13607,7 +13607,7 @@
         <v>3.225330197828271</v>
       </c>
       <c r="C115" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -13629,7 +13629,7 @@
         <v>-2.466167111756902</v>
       </c>
       <c r="C117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -13640,7 +13640,7 @@
         <v>1.355303508961848</v>
       </c>
       <c r="C118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -13662,7 +13662,7 @@
         <v>1.768378587747037</v>
       </c>
       <c r="C120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -13673,7 +13673,7 @@
         <v>1.480898409198437</v>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -13684,7 +13684,7 @@
         <v>-0.3507966937296149</v>
       </c>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -13695,7 +13695,7 @@
         <v>0.2853021973352258</v>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -13728,7 +13728,7 @@
         <v>-3.751122265744816</v>
       </c>
       <c r="C126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -13739,7 +13739,7 @@
         <v>-1.131842943874375</v>
       </c>
       <c r="C127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -13750,7 +13750,7 @@
         <v>-2.466235660791892</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -13761,7 +13761,7 @@
         <v>-1.656041674454396</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -13772,7 +13772,7 @@
         <v>-2.101417885119497</v>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Results/pca_kmeans_results_indep_variables.xlsx
+++ b/Results/pca_kmeans_results_indep_variables.xlsx
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1215,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1579,7 +1579,7 @@
         <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1852,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2216,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2853,7 +2853,7 @@
         <v>6</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -3035,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -4309,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -5674,7 +5674,7 @@
         <v>4</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -5856,7 +5856,7 @@
         <v>8</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -6402,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -6675,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="AC68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="AC69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -6948,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="AC71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -7221,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="AC74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -7312,7 +7312,7 @@
         <v>7</v>
       </c>
       <c r="AC75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="AC76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="AC77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -7585,7 +7585,7 @@
         <v>3</v>
       </c>
       <c r="AC78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AC79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="AC80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="AC81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="AC82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="AC83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="AC84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="AC86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -8404,7 +8404,7 @@
         <v>4</v>
       </c>
       <c r="AC87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="AC89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="AC90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -8859,7 +8859,7 @@
         <v>0</v>
       </c>
       <c r="AC92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -8950,7 +8950,7 @@
         <v>1</v>
       </c>
       <c r="AC93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AC96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="AC97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -9405,7 +9405,7 @@
         <v>0</v>
       </c>
       <c r="AC98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -9496,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="AC99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -9678,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="AC101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -9860,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="AC103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="AC104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -10042,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="AC105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -10133,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="AC106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="AC107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="AC110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -10588,7 +10588,7 @@
         <v>2</v>
       </c>
       <c r="AC111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="AC112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="AC113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="AC114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -11316,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="AC119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="AC120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -11498,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="AC121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -11771,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="AC124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AC125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -11953,7 +11953,7 @@
         <v>1</v>
       </c>
       <c r="AC126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="AC127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="AC128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -12226,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="AC129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -12317,7 +12317,7 @@
         <v>1</v>
       </c>
       <c r="AC130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12358,186 +12358,186 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3602869217260485</v>
+        <v>-0.5782191833171413</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.4859403847492561</v>
+        <v>-0.1689152380479342</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.8634781455391474</v>
+        <v>-2.280387917399446</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.8876287702214593</v>
+        <v>-1.150922972978438</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.290210097185685</v>
+        <v>-1.964229863113497</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.453434075270585</v>
+        <v>-2.32888812655259</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.2544099984426939</v>
+        <v>-0.9646632365373217</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1209808536404971</v>
+        <v>0.8759818523367363</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.094959599097063</v>
+        <v>-0.8200186649410357</v>
       </c>
       <c r="B6" t="n">
-        <v>1.938847582550579</v>
+        <v>-2.885873755865354</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6338330076623192</v>
+        <v>-0.1655541164950444</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3644564836032454</v>
+        <v>1.702992923957509</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6396231215015796</v>
+        <v>0.3231027053772098</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8096275330199911</v>
+        <v>2.130557430278383</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.552322987805404</v>
+        <v>-0.957880318239723</v>
       </c>
       <c r="B9" t="n">
-        <v>0.11675332574895</v>
+        <v>1.178655027015324</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9926874455327526</v>
+        <v>-0.1283934407479863</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.7567521585691154</v>
+        <v>1.145757500380425</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2358866005983718</v>
+        <v>-1.696902406985072</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9440165158616017</v>
+        <v>1.557808651734803</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.055200353761507</v>
+        <v>10.81824055070876</v>
       </c>
       <c r="B12" t="n">
-        <v>1.677979153951419</v>
+        <v>-0.05262644638555077</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.019699144103577</v>
+        <v>-0.7562357909405181</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.818357528652309</v>
+        <v>1.545448461308604</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.8695770429238262</v>
+        <v>-1.45111760645312</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3513344341565919</v>
+        <v>0.7874932873818907</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.597477853290346</v>
+        <v>-0.6568704557434525</v>
       </c>
       <c r="B15" t="n">
-        <v>0.86257108945452</v>
+        <v>2.346414474232589</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.6502933841352684</v>
+        <v>-1.117696843872157</v>
       </c>
       <c r="B16" t="n">
-        <v>0.002784490140655719</v>
+        <v>-2.710196149925209</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.150172942182495</v>
+        <v>-1.896254032180177</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.837003631041356</v>
+        <v>0.2864387163625253</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.142519320902133</v>
+        <v>0.3732541410123643</v>
       </c>
       <c r="B18" t="n">
-        <v>2.692302278757103</v>
+        <v>-3.386568506734653</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -12545,54 +12545,54 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.9395241663941243</v>
+        <v>-0.2176797706157386</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1020932669124043</v>
+        <v>-0.1832150713309426</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.06117443725816041</v>
+        <v>-1.260690362528004</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.102946504714419</v>
+        <v>1.615786886273389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.5549472348348429</v>
+        <v>-1.055204235068495</v>
       </c>
       <c r="B21" t="n">
-        <v>1.389729048640656</v>
+        <v>1.076943766015065</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.1568891783102741</v>
+        <v>-2.058920100456057</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.329067827999902</v>
+        <v>1.114326827515261</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.4494696445419</v>
+        <v>4.759281590411293</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.3149910067896253</v>
+        <v>0.8612547957397493</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -12600,109 +12600,109 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.513686609771589</v>
+        <v>0.1712151654928295</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.258346534390315</v>
+        <v>-0.3289492782308823</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.589440112605915</v>
+        <v>4.586297162916761</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8926827012112518</v>
+        <v>2.638480100677725</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.7672533910070136</v>
+        <v>-0.5918045200868803</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.9833416810289664</v>
+        <v>-1.545144596063911</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.8765555959909759</v>
+        <v>-1.103737108550725</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.5161632481309814</v>
+        <v>-0.03908960976071141</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.2388709487368068</v>
+        <v>1.173231702372365</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.8674736886926022</v>
+        <v>2.281206613710818</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.96836542333318</v>
+        <v>0.2457781795868137</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8653407735207255</v>
+        <v>3.553988483354007</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-1.380426760335778</v>
+        <v>-0.5277144616279639</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3714482979154492</v>
+        <v>-2.969901564936142</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-1.333655454085429</v>
+        <v>-2.335815634037403</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.4087224862337215</v>
+        <v>-1.446372798699666</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-1.396196522988802</v>
+        <v>-0.02111736366514621</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9425369673266455</v>
+        <v>3.026961143597765</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.5860537935306355</v>
+        <v>0.6998209934226716</v>
       </c>
       <c r="B33" t="n">
-        <v>2.138460598123948</v>
+        <v>-0.5430325350908136</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -12710,21 +12710,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.5625583683164357</v>
+        <v>-0.4441931329920449</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.289265607621064</v>
+        <v>0.2781379690875696</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.3307219568693708</v>
+        <v>2.938380291221615</v>
       </c>
       <c r="B35" t="n">
-        <v>2.472563978481573</v>
+        <v>-3.990417066921143</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -12732,21 +12732,21 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.59814321489428</v>
+        <v>-0.3956633398955378</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.139605425223352</v>
+        <v>1.038645488988876</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.263588588932257</v>
+        <v>6.343917864248562</v>
       </c>
       <c r="B37" t="n">
-        <v>3.54204222995785</v>
+        <v>-1.001527631571805</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -12754,21 +12754,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.9202995662663785</v>
+        <v>-0.7434627745407375</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2773437570956173</v>
+        <v>-1.973232098905231</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9959857126327699</v>
+        <v>0.677239123716142</v>
       </c>
       <c r="B39" t="n">
-        <v>0.884802366888454</v>
+        <v>-1.412186567314998</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -12776,10 +12776,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.334361159627991</v>
+        <v>3.992115764383803</v>
       </c>
       <c r="B40" t="n">
-        <v>4.087185218284465</v>
+        <v>0.8636925483803686</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -12787,87 +12787,87 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1.112335132307991</v>
+        <v>-1.514523517766493</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2150813091440961</v>
+        <v>0.04274692354608622</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.04514558537321126</v>
+        <v>-0.05252224339319799</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.073927835634143</v>
+        <v>2.587698482077691</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.05625469155842002</v>
+        <v>-1.013294046303618</v>
       </c>
       <c r="B43" t="n">
-        <v>0.73987282048616</v>
+        <v>-0.2972837154380362</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-1.836910493361648</v>
+        <v>-2.484988828658895</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6558149277794443</v>
+        <v>-3.184853787062053</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1.439698224402036</v>
+        <v>-1.111509734302202</v>
       </c>
       <c r="B45" t="n">
-        <v>1.173806373504373</v>
+        <v>-0.3701064619105094</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.730318112659709</v>
+        <v>-1.213642213917811</v>
       </c>
       <c r="B46" t="n">
-        <v>1.101021557960502</v>
+        <v>-1.541196083839928</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.795166867693151</v>
+        <v>4.87493397454654</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7485228159069266</v>
+        <v>1.251357785045722</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-1.188269085408609</v>
+        <v>0.6918467460214913</v>
       </c>
       <c r="B48" t="n">
-        <v>1.524256763444332</v>
+        <v>-0.8316376762802188</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -12875,10 +12875,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.472262418601473</v>
+        <v>2.139454207077972</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.498023279927062</v>
+        <v>1.936239019996354</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -12886,76 +12886,76 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.9063343679098268</v>
+        <v>-1.068800770726156</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.164084445946651</v>
+        <v>-0.8915833576788013</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8427826191434105</v>
+        <v>-1.308582113885526</v>
       </c>
       <c r="B51" t="n">
-        <v>0.07579845914126072</v>
+        <v>3.147952070954839</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.3378686513030142</v>
+        <v>-0.6173826174067479</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.2682567686193514</v>
+        <v>0.5471174791240286</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.04849431125937068</v>
+        <v>-0.4234489673689437</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.525693426993635</v>
+        <v>1.653348375468133</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-1.010353081603349</v>
+        <v>-2.596442903291056</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.4606784380981542</v>
+        <v>-1.256358596970066</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.555194768151737</v>
+        <v>-0.2960442724411856</v>
       </c>
       <c r="B55" t="n">
-        <v>0.05197994545940355</v>
+        <v>0.05340488347499168</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.690320540578795</v>
+        <v>3.544299243030937</v>
       </c>
       <c r="B56" t="n">
-        <v>3.107847535006976</v>
+        <v>-2.284697052637652</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -12963,21 +12963,21 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.7501977329234644</v>
+        <v>-1.782332511462709</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.002552609180508</v>
+        <v>1.375135533862744</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.06594791506858085</v>
+        <v>2.140275136835683</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.6610083137579214</v>
+        <v>-0.5376093428630255</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -12985,21 +12985,21 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8702446663449109</v>
+        <v>0.9254156925596567</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.3269892573939511</v>
+        <v>1.958821054687752</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.995799667049214</v>
+        <v>2.123152600416844</v>
       </c>
       <c r="B60" t="n">
-        <v>1.492281575619643</v>
+        <v>-1.788759417518893</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -13007,21 +13007,21 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1.243601938748458</v>
+        <v>-1.321388900171816</v>
       </c>
       <c r="B61" t="n">
-        <v>0.32929970896005</v>
+        <v>-2.120978332165378</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.058471411147179</v>
+        <v>0.8877548356878345</v>
       </c>
       <c r="B62" t="n">
-        <v>-2.834931458892878</v>
+        <v>0.8781100744289857</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -13029,21 +13029,21 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.2896694066211854</v>
+        <v>0.4749834888538453</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.5543163956602507</v>
+        <v>3.789153073398492</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.3986321464494333</v>
+        <v>1.915871663459829</v>
       </c>
       <c r="B64" t="n">
-        <v>1.455249085843297</v>
+        <v>0.4168960198906196</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -13051,32 +13051,32 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.3444365232401462</v>
+        <v>-1.886368231754965</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.360909916105478</v>
+        <v>1.425938732437364</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.190305748397489</v>
+        <v>-0.864961146289384</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5519030240505788</v>
+        <v>-0.1165549356898145</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.218397156109672</v>
+        <v>2.066718295301133</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.6708053929006426</v>
+        <v>-0.368234724358682</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -13084,32 +13084,32 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.443199427893816</v>
+        <v>-0.4952589962139689</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.04426261273659293</v>
+        <v>1.306961326792931</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-1.403490509801368</v>
+        <v>-2.483498425837159</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.3385102363115361</v>
+        <v>1.706452006399446</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.04611273038184884</v>
+        <v>4.557041067689506</v>
       </c>
       <c r="B70" t="n">
-        <v>2.507279030774503</v>
+        <v>0.06706240716020756</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -13117,21 +13117,21 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-0.5011622927555734</v>
+        <v>-1.522055451289838</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.201274488109565</v>
+        <v>0.6726491406879469</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.467985097556351</v>
+        <v>1.210476490667922</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.4365262992265356</v>
+        <v>0.411082648029965</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -13139,142 +13139,142 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-1.009763947074284</v>
+        <v>0.09282352438845086</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2181542971397903</v>
+        <v>0.1467557886172487</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.3121110748523958</v>
+        <v>-1.739983292975438</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.062469212989045</v>
+        <v>-1.110466715354741</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.6342915227898369</v>
+        <v>-0.3236574150124569</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5337100264921413</v>
+        <v>-0.9581475501067264</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-1.506920088965825</v>
+        <v>-2.307815773135847</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0437285067749052</v>
+        <v>-1.405894746195544</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.01559618368841636</v>
+        <v>-1.19345642596196</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.3955401205954587</v>
+        <v>0.07289940105864595</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.411619127712611</v>
+        <v>0.7002312720928324</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.162528539106367</v>
+        <v>-0.4623256595643713</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-0.3234657812769269</v>
+        <v>-1.067649323247718</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.436747304131382</v>
+        <v>-1.056678167725105</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1.349605184921333</v>
+        <v>-1.092129614301041</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5629258140169372</v>
+        <v>-2.680859859828547</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.8941212675545452</v>
+        <v>-0.5781501130681711</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.1751180858864491</v>
+        <v>3.244959472438857</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1.070337303868062</v>
+        <v>-2.058181650336319</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.1231512840485766</v>
+        <v>1.075371295818448</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-0.1655617427033706</v>
+        <v>-1.873454044878749</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.2387172616514056</v>
+        <v>0.1355794362520256</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-1.739870332735276</v>
+        <v>-2.193680164109976</v>
       </c>
       <c r="B84" t="n">
-        <v>0.08491123764337449</v>
+        <v>2.113728094051126</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.445781187124486</v>
+        <v>0.4826404111464586</v>
       </c>
       <c r="B85" t="n">
-        <v>1.983548316851267</v>
+        <v>-2.629224100569612</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -13282,32 +13282,32 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.9412703082295979</v>
+        <v>-1.023932601580461</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3531811451215216</v>
+        <v>0.04587433689033457</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-1.123044359689967</v>
+        <v>-0.2029143066380618</v>
       </c>
       <c r="B87" t="n">
-        <v>0.3330781360988393</v>
+        <v>-1.044605483305594</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-0.08346533434091206</v>
+        <v>1.886444668134604</v>
       </c>
       <c r="B88" t="n">
-        <v>1.669902598963161</v>
+        <v>-3.633130685875437</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -13315,32 +13315,32 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.564587086475445</v>
+        <v>-0.5899222086703865</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3845885015568846</v>
+        <v>-1.804880312259073</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.6270664868565555</v>
+        <v>-2.590141962458099</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.8501615440121647</v>
+        <v>-1.307063456677766</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-0.1498953196572009</v>
+        <v>1.448939002057352</v>
       </c>
       <c r="B91" t="n">
-        <v>2.005322623103974</v>
+        <v>-1.663569304948465</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -13348,32 +13348,32 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-0.8634781455391474</v>
+        <v>-2.833085812250813</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.8876287702214593</v>
+        <v>-0.7449798927625846</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.7229644237989953</v>
+        <v>-0.01692950080637528</v>
       </c>
       <c r="B93" t="n">
-        <v>-2.222957878786973</v>
+        <v>0.6598744648597352</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.1407119622346779</v>
+        <v>0.8109681274920428</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.7733691526355059</v>
+        <v>0.0315882907417294</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -13381,10 +13381,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.3325007745088029</v>
+        <v>0.5419628376024401</v>
       </c>
       <c r="B95" t="n">
-        <v>1.868624477892218</v>
+        <v>-2.300903320252701</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -13392,54 +13392,54 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.4049375382234397</v>
+        <v>-0.584171296705727</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.296987398917072</v>
+        <v>-1.16775564175299</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.1731012260855493</v>
+        <v>-0.2873990183783974</v>
       </c>
       <c r="B97" t="n">
-        <v>-1.941154249004442</v>
+        <v>0.0249478328463747</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.186752313807192</v>
+        <v>0.5118311135747184</v>
       </c>
       <c r="B98" t="n">
-        <v>-2.890529109824338</v>
+        <v>-0.07061028810382122</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.9202995662663785</v>
+        <v>-1.046951953723161</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2773437570956173</v>
+        <v>-1.947076300112223</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-0.1414128936167457</v>
+        <v>5.769737257372861</v>
       </c>
       <c r="B100" t="n">
-        <v>2.979783492406492</v>
+        <v>-0.9445088348449125</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -13447,21 +13447,21 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1.236913906834715</v>
+        <v>-1.710470404818739</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2308307601800564</v>
+        <v>1.10026959492691</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-0.0448778407553593</v>
+        <v>0.8348988923927739</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.8335244706782624</v>
+        <v>-0.5811920395524235</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -13469,65 +13469,65 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.9637449231661226</v>
+        <v>-1.104284171840345</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3220553461324809</v>
+        <v>-0.07178273096747124</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.105044983200997</v>
+        <v>1.82779388703991</v>
       </c>
       <c r="B104" t="n">
-        <v>1.61184461532797</v>
+        <v>-0.7059733057081788</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.4361570593635454</v>
+        <v>-2.594304583218464</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.6429907299343888</v>
+        <v>-1.247867195669679</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1.497069255514599</v>
+        <v>-1.552246901444631</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3110434109022975</v>
+        <v>-0.09930075079917083</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.5236369076920983</v>
+        <v>-1.662355632762601</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.232400287098606</v>
+        <v>2.75988531861359</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.583278731071792</v>
+        <v>-0.5647214530239699</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.1343381029750003</v>
+        <v>0.2167977249098851</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -13535,10 +13535,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.8823993258853751</v>
+        <v>1.068985028253701</v>
       </c>
       <c r="B109" t="n">
-        <v>-1.41987151656326</v>
+        <v>0.2249796967244516</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -13546,65 +13546,65 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.1166704384111331</v>
+        <v>-1.099628099093841</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.734998990818896</v>
+        <v>-1.403290800788134</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-0.03668593586831012</v>
+        <v>0.3199515878909951</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.286691752803424</v>
+        <v>0.7078501110495534</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-0.726219245013634</v>
+        <v>-1.190642668845817</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.8644636231765225</v>
+        <v>-0.9761962609166633</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.1388464399719995</v>
+        <v>-0.3278971140019704</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.514920205997672</v>
+        <v>-0.9890328367703307</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1.123633494219032</v>
+        <v>-2.488881232863822</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.3457545991391053</v>
+        <v>1.434787987377734</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.8459398828088338</v>
+        <v>1.736289914478304</v>
       </c>
       <c r="B115" t="n">
-        <v>2.660730893361674</v>
+        <v>-3.225330197828275</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -13612,10 +13612,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.8191051515670503</v>
+        <v>1.52652573241483</v>
       </c>
       <c r="B116" t="n">
-        <v>0.2449007481162612</v>
+        <v>0.9877581656257032</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -13623,10 +13623,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-0.7368854845590981</v>
+        <v>1.666826268452811</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.6565877479753519</v>
+        <v>2.466167111756899</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -13634,10 +13634,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.8707343211315911</v>
+        <v>4.650515810702044</v>
       </c>
       <c r="B118" t="n">
-        <v>1.92344544457165</v>
+        <v>-1.355303508961836</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -13645,43 +13645,43 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-0.4170445269901587</v>
+        <v>-1.727420767322085</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.7871936569175486</v>
+        <v>-1.163670888492311</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1.107257776667186</v>
+        <v>-0.7864102780835309</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9243344042279864</v>
+        <v>-1.768378587747038</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.133484327670258</v>
+        <v>-1.289895783095854</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.6130695032664977</v>
+        <v>-1.480898409198441</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.05336757946866014</v>
+        <v>1.482772164158836</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.5486695576096524</v>
+        <v>0.3507966937296211</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -13689,10 +13689,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.7853474803054086</v>
+        <v>2.804522237312073</v>
       </c>
       <c r="B123" t="n">
-        <v>2.119831809660322</v>
+        <v>-0.2853021973352088</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -13700,79 +13700,79 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1.506920088965825</v>
+        <v>-2.125595261088523</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0437285067749052</v>
+        <v>0.1802470010050296</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.6123496978688863</v>
+        <v>-1.302149989768774</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.3005547268976269</v>
+        <v>-0.2297647043681042</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4.931125783941389</v>
+        <v>1.99605798783807</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.5895701962303994</v>
+        <v>3.751122265744797</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.5484307138578309</v>
+        <v>0.838845769700141</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.160039689497657</v>
+        <v>1.131842943874374</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-0.997140165588985</v>
+        <v>-1.107250373822074</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.0180348079985613</v>
+        <v>2.466235660791892</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-0.8634781455391474</v>
+        <v>-1.08482853294434</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.8876287702214593</v>
+        <v>1.65604167445439</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-0.578202173103836</v>
+        <v>-0.08359987172597415</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.8445364059084457</v>
+        <v>2.101417885119494</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Results/pca_kmeans_results_indep_variables.xlsx
+++ b/Results/pca_kmeans_results_indep_variables.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC130"/>
+  <dimension ref="A1:AD130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_RedConfltAgu</t>
+          <t>Indeg_RedConfltAgu</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,12 +457,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_PaiTiopaterC</t>
+          <t>Indeg_PaiTiopaterC</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_TiosMaternos</t>
+          <t>Indeg_TiosMaternos</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -472,17 +472,17 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_IntimAmigos_</t>
+          <t>Indeg_IntimAmigos_</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_RedeRisk_Cen</t>
+          <t>Indeg_RedeRisk_Cen</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_RedeConfianc</t>
+          <t>Indeg_RedeConfianc</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -497,12 +497,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_VendaParcela</t>
+          <t>Indeg_VendaParcela</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>OutDeg_EmprestParce</t>
+          <t>Indeg_EmprestParce</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -576,6 +576,11 @@
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Area_bolanha</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Cluster</t>
         </is>
@@ -597,22 +602,22 @@
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -621,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -669,6 +674,9 @@
         <v>0</v>
       </c>
       <c r="AC2" t="n">
+        <v>2.3644</v>
+      </c>
+      <c r="AD2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -760,6 +768,9 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
+        <v>0.5087</v>
+      </c>
+      <c r="AD3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -782,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -794,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -851,6 +862,9 @@
         <v>1</v>
       </c>
       <c r="AC4" t="n">
+        <v>1.464</v>
+      </c>
+      <c r="AD4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -873,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -894,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -942,6 +956,9 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
+        <v>1.5186</v>
+      </c>
+      <c r="AD5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -964,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -976,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -985,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1033,6 +1050,9 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1061,13 +1081,13 @@
         <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1079,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>3421.335739162395</v>
@@ -1124,6 +1144,9 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
+        <v>1.9217</v>
+      </c>
+      <c r="AD7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1143,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1152,13 +1175,13 @@
         <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1215,6 +1238,9 @@
         <v>4</v>
       </c>
       <c r="AC8" t="n">
+        <v>1.5891</v>
+      </c>
+      <c r="AD8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1243,13 +1269,13 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1258,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>-4573.530956363858</v>
@@ -1306,6 +1332,9 @@
         <v>1</v>
       </c>
       <c r="AC9" t="n">
+        <v>1.0301</v>
+      </c>
+      <c r="AD9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1334,10 +1363,10 @@
         <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1349,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1397,6 +1426,9 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
+        <v>2.8263</v>
+      </c>
+      <c r="AD10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,10 +1460,10 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1440,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>755.8109509259119</v>
@@ -1488,6 +1520,9 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
+        <v>1.2757</v>
+      </c>
+      <c r="AD11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1507,22 +1542,22 @@
         <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
         <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1531,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>-1425.897409543945</v>
@@ -1579,6 +1614,9 @@
         <v>103</v>
       </c>
       <c r="AC12" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AD12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,13 +1645,13 @@
         <v>17</v>
       </c>
       <c r="H13" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1625,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>673.1379451863069</v>
@@ -1670,6 +1708,9 @@
         <v>1</v>
       </c>
       <c r="AC13" t="n">
+        <v>0.3036</v>
+      </c>
+      <c r="AD13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1761,6 +1802,9 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
+        <v>0.3319</v>
+      </c>
+      <c r="AD14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1789,10 +1833,10 @@
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1804,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>-3428.359867177779</v>
@@ -1852,6 +1896,9 @@
         <v>4</v>
       </c>
       <c r="AC15" t="n">
+        <v>1.3354</v>
+      </c>
+      <c r="AD15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1871,7 +1918,7 @@
         <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1880,13 +1927,13 @@
         <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1943,6 +1990,9 @@
         <v>0</v>
       </c>
       <c r="AC16" t="n">
+        <v>0.1674</v>
+      </c>
+      <c r="AD16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,10 +2021,10 @@
         <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
@@ -1986,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2034,6 +2084,9 @@
         <v>0</v>
       </c>
       <c r="AC17" t="n">
+        <v>2.5096</v>
+      </c>
+      <c r="AD17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2056,13 +2109,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2077,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>5512.298238967895</v>
@@ -2125,7 +2178,10 @@
         <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>0.6513</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2153,14 +2209,14 @@
         <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
         <v>5</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -2168,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>2294.747480128243</v>
@@ -2216,6 +2272,9 @@
         <v>2</v>
       </c>
       <c r="AC19" t="n">
+        <v>2.4548</v>
+      </c>
+      <c r="AD19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2235,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2244,14 +2303,14 @@
         <v>10</v>
       </c>
       <c r="H20" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
         <v>4</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2</v>
-      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -2259,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>-4094.440202534243</v>
@@ -2307,6 +2366,9 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
+        <v>1.1252</v>
+      </c>
+      <c r="AD20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2329,19 +2391,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2350,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2398,6 +2460,9 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
+        <v>0.6284</v>
+      </c>
+      <c r="AD21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,13 +2491,13 @@
         <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2444,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>1991.683908521703</v>
@@ -2489,6 +2554,9 @@
         <v>0</v>
       </c>
       <c r="AC22" t="n">
+        <v>0.3811</v>
+      </c>
+      <c r="AD22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2508,22 +2576,22 @@
         <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>12</v>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2532,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>-1096.978104296265</v>
@@ -2580,6 +2648,9 @@
         <v>21</v>
       </c>
       <c r="AC23" t="n">
+        <v>5.1248</v>
+      </c>
+      <c r="AD23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2608,13 +2679,13 @@
         <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2623,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2671,6 +2742,9 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
+        <v>1.9903</v>
+      </c>
+      <c r="AD24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2681,7 +2755,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
@@ -2699,25 +2773,25 @@
         <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>7</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>-3613.40044917148</v>
@@ -2762,7 +2836,10 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>3.7815</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2790,13 +2867,13 @@
         <v>9</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2805,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2853,6 +2930,9 @@
         <v>6</v>
       </c>
       <c r="AC26" t="n">
+        <v>1.2076</v>
+      </c>
+      <c r="AD26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2881,13 +2961,13 @@
         <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2944,6 +3024,9 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
+        <v>1.524</v>
+      </c>
+      <c r="AD27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2972,13 +3055,13 @@
         <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2987,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -3035,6 +3118,9 @@
         <v>2</v>
       </c>
       <c r="AC28" t="n">
+        <v>3.4868</v>
+      </c>
+      <c r="AD28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,19 +3140,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -3078,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -3126,6 +3212,9 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
+        <v>1.8694</v>
+      </c>
+      <c r="AD29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3145,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3157,10 +3246,10 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3169,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3217,6 +3306,9 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
+        <v>1.3784</v>
+      </c>
+      <c r="AD30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3236,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3245,7 +3337,7 @@
         <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3260,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3308,6 +3400,9 @@
         <v>0</v>
       </c>
       <c r="AC31" t="n">
+        <v>0.6872</v>
+      </c>
+      <c r="AD31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3327,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3336,13 +3431,13 @@
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3351,10 +3446,10 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
         <v>4831.628297965053</v>
@@ -3399,6 +3494,9 @@
         <v>0</v>
       </c>
       <c r="AC32" t="n">
+        <v>1.8387</v>
+      </c>
+      <c r="AD32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3418,7 +3516,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3433,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3490,7 +3588,10 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>2.5262</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -3518,13 +3619,13 @@
         <v>9</v>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3533,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
         <v>-4247.982126218358</v>
@@ -3581,6 +3682,9 @@
         <v>0</v>
       </c>
       <c r="AC34" t="n">
+        <v>2.2764</v>
+      </c>
+      <c r="AD34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3600,10 +3704,10 @@
         <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
         <v>6</v>
@@ -3612,10 +3716,10 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3627,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
         <v>-4717.848961164514</v>
@@ -3672,7 +3776,10 @@
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>2.2589</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -3700,13 +3807,13 @@
         <v>12</v>
       </c>
       <c r="H36" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3718,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>-666.0359701098937</v>
@@ -3763,6 +3870,9 @@
         <v>0</v>
       </c>
       <c r="AC36" t="n">
+        <v>0.5221</v>
+      </c>
+      <c r="AD36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,22 +3892,22 @@
         <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3806,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3854,6 +3964,9 @@
         <v>28</v>
       </c>
       <c r="AC37" t="n">
+        <v>1.8369</v>
+      </c>
+      <c r="AD37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3873,7 +3986,7 @@
         <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3882,7 +3995,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3897,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3945,6 +4058,9 @@
         <v>0</v>
       </c>
       <c r="AC38" t="n">
+        <v>0.9724</v>
+      </c>
+      <c r="AD38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,22 +4080,22 @@
         <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -4036,7 +4152,10 @@
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>2.4621</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -4055,22 +4174,22 @@
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -4082,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>-3008.807002864713</v>
@@ -4127,6 +4246,9 @@
         <v>0</v>
       </c>
       <c r="AC40" t="n">
+        <v>2.3328</v>
+      </c>
+      <c r="AD40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4146,7 +4268,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -4155,13 +4277,13 @@
         <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -4170,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -4218,6 +4340,9 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
+        <v>0.5224</v>
+      </c>
+      <c r="AD41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4237,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -4246,10 +4371,10 @@
         <v>10</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -4261,10 +4386,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O42" t="n">
         <v>-2703.524467725282</v>
@@ -4309,6 +4434,9 @@
         <v>0</v>
       </c>
       <c r="AC42" t="n">
+        <v>3.509</v>
+      </c>
+      <c r="AD42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4328,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -4343,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -4352,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -4400,6 +4528,9 @@
         <v>0</v>
       </c>
       <c r="AC43" t="n">
+        <v>0.6512</v>
+      </c>
+      <c r="AD43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4434,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4491,6 +4622,9 @@
         <v>0</v>
       </c>
       <c r="AC44" t="n">
+        <v>0.7598</v>
+      </c>
+      <c r="AD44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4510,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4519,13 +4653,13 @@
         <v>3</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4534,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -4582,6 +4716,9 @@
         <v>0</v>
       </c>
       <c r="AC45" t="n">
+        <v>0.2861</v>
+      </c>
+      <c r="AD45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,19 +4753,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>4</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>-777.851766291146</v>
@@ -4673,6 +4810,9 @@
         <v>0</v>
       </c>
       <c r="AC46" t="n">
+        <v>2.1229</v>
+      </c>
+      <c r="AD46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4695,19 +4835,19 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>15</v>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -4764,7 +4904,10 @@
         <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>3.4554</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -4783,22 +4926,22 @@
         <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -4807,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
@@ -4855,7 +4998,10 @@
         <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1.1062</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -4874,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -4883,13 +5029,13 @@
         <v>13</v>
       </c>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -4898,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O49" t="n">
         <v>-2301.55854501821</v>
@@ -4946,7 +5092,10 @@
         <v>1</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>4.7778</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -4965,22 +5114,22 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G50" t="n">
         <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -4989,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
         <v>3581.875310069548</v>
@@ -5037,6 +5186,9 @@
         <v>0</v>
       </c>
       <c r="AC50" t="n">
+        <v>0.9329</v>
+      </c>
+      <c r="AD50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5056,22 +5208,22 @@
         <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -5080,10 +5232,10 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
         <v>-710.1645089357625</v>
@@ -5128,6 +5280,9 @@
         <v>1</v>
       </c>
       <c r="AC51" t="n">
+        <v>3.3012</v>
+      </c>
+      <c r="AD51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5147,7 +5302,7 @@
         <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -5156,13 +5311,13 @@
         <v>8</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -5171,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -5219,6 +5374,9 @@
         <v>0</v>
       </c>
       <c r="AC52" t="n">
+        <v>2.283700000000001</v>
+      </c>
+      <c r="AD52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5241,19 +5399,19 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>7</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -5262,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N53" t="n">
         <v>1</v>
@@ -5310,6 +5468,9 @@
         <v>0</v>
       </c>
       <c r="AC53" t="n">
+        <v>5.2338</v>
+      </c>
+      <c r="AD53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5338,13 +5499,13 @@
         <v>5</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -5353,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -5401,6 +5562,9 @@
         <v>0</v>
       </c>
       <c r="AC54" t="n">
+        <v>1.5525</v>
+      </c>
+      <c r="AD54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5420,22 +5584,22 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
         <v>9</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -5492,6 +5656,9 @@
         <v>0</v>
       </c>
       <c r="AC55" t="n">
+        <v>2.4902</v>
+      </c>
+      <c r="AD55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5514,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>5</v>
@@ -5523,10 +5690,10 @@
         <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -5535,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -5583,7 +5750,10 @@
         <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>4.2059</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -5611,13 +5781,13 @@
         <v>5</v>
       </c>
       <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" t="n">
         <v>4</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -5626,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -5674,6 +5844,9 @@
         <v>4</v>
       </c>
       <c r="AC57" t="n">
+        <v>1.9377</v>
+      </c>
+      <c r="AD57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5696,19 +5869,19 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -5717,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -5765,7 +5938,10 @@
         <v>14</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>0.5374</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -5784,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -5793,13 +5969,13 @@
         <v>8</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -5808,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -5856,6 +6032,9 @@
         <v>8</v>
       </c>
       <c r="AC59" t="n">
+        <v>1.6598</v>
+      </c>
+      <c r="AD59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5878,19 +6057,19 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>8</v>
       </c>
       <c r="H60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -5899,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -5947,7 +6126,10 @@
         <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>0.8472999999999999</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -5966,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -5975,7 +6157,7 @@
         <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -6038,6 +6220,9 @@
         <v>0</v>
       </c>
       <c r="AC61" t="n">
+        <v>0.3172</v>
+      </c>
+      <c r="AD61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6060,19 +6245,19 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>13</v>
       </c>
       <c r="H62" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
@@ -6084,7 +6269,7 @@
         <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
         <v>-2510.66655598036</v>
@@ -6129,7 +6314,10 @@
         <v>4</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>0.4545</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -6148,22 +6336,22 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I63" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -6172,10 +6360,10 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
         <v>353.9049083111498</v>
@@ -6220,6 +6408,9 @@
         <v>0</v>
       </c>
       <c r="AC63" t="n">
+        <v>8.419599999999999</v>
+      </c>
+      <c r="AD63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6239,22 +6430,22 @@
         <v>4</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>5</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -6263,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -6311,6 +6502,9 @@
         <v>3</v>
       </c>
       <c r="AC64" t="n">
+        <v>7.4756</v>
+      </c>
+      <c r="AD64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6339,13 +6533,13 @@
         <v>6</v>
       </c>
       <c r="H65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -6357,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
         <v>3598.90596840282</v>
@@ -6402,6 +6596,9 @@
         <v>1</v>
       </c>
       <c r="AC65" t="n">
+        <v>0.6905</v>
+      </c>
+      <c r="AD65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6421,7 +6618,7 @@
         <v>4</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -6430,13 +6627,13 @@
         <v>2</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -6445,10 +6642,10 @@
         <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>-3415.985818657333</v>
@@ -6493,6 +6690,9 @@
         <v>0</v>
       </c>
       <c r="AC66" t="n">
+        <v>1.5548</v>
+      </c>
+      <c r="AD66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6512,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -6521,13 +6721,13 @@
         <v>9</v>
       </c>
       <c r="H67" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -6536,10 +6736,10 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
         <v>-2118.343386755904</v>
@@ -6584,7 +6784,10 @@
         <v>1</v>
       </c>
       <c r="AC67" t="n">
-        <v>0</v>
+        <v>8.5739</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -6603,7 +6806,7 @@
         <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -6612,13 +6815,13 @@
         <v>5</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -6627,10 +6830,10 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
         <v>-2314.125986451113</v>
@@ -6675,6 +6878,9 @@
         <v>0</v>
       </c>
       <c r="AC68" t="n">
+        <v>1.9267</v>
+      </c>
+      <c r="AD68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6697,19 +6903,19 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -6718,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -6766,6 +6972,9 @@
         <v>0</v>
       </c>
       <c r="AC69" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="AD69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6788,19 +6997,19 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
@@ -6809,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -6857,6 +7066,9 @@
         <v>3</v>
       </c>
       <c r="AC70" t="n">
+        <v>3.7309</v>
+      </c>
+      <c r="AD70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6885,13 +7097,13 @@
         <v>6</v>
       </c>
       <c r="H71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -6900,10 +7112,10 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
         <v>-1884.45992303993</v>
@@ -6948,6 +7160,9 @@
         <v>0</v>
       </c>
       <c r="AC71" t="n">
+        <v>1.1487</v>
+      </c>
+      <c r="AD71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6967,7 +7182,7 @@
         <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -6976,13 +7191,13 @@
         <v>8</v>
       </c>
       <c r="H72" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -6991,10 +7206,10 @@
         <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
         <v>83.23921453688038</v>
@@ -7039,7 +7254,10 @@
         <v>1</v>
       </c>
       <c r="AC72" t="n">
-        <v>0</v>
+        <v>2.8954</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -7061,19 +7279,19 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>5</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -7082,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -7130,6 +7348,9 @@
         <v>0</v>
       </c>
       <c r="AC73" t="n">
+        <v>0.6253</v>
+      </c>
+      <c r="AD73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7158,13 +7379,13 @@
         <v>6</v>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -7173,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -7221,6 +7442,9 @@
         <v>0</v>
       </c>
       <c r="AC74" t="n">
+        <v>1.5344</v>
+      </c>
+      <c r="AD74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7240,22 +7464,22 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>6</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -7312,6 +7536,9 @@
         <v>7</v>
       </c>
       <c r="AC75" t="n">
+        <v>0.8397</v>
+      </c>
+      <c r="AD75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7346,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -7355,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -7403,6 +7630,9 @@
         <v>0</v>
       </c>
       <c r="AC76" t="n">
+        <v>0.5036</v>
+      </c>
+      <c r="AD76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7422,16 +7652,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>7</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -7494,6 +7724,9 @@
         <v>0</v>
       </c>
       <c r="AC77" t="n">
+        <v>1.1417</v>
+      </c>
+      <c r="AD77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7513,22 +7746,22 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>13</v>
       </c>
       <c r="H78" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -7585,6 +7818,9 @@
         <v>3</v>
       </c>
       <c r="AC78" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AD78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7607,19 +7843,19 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
         <v>6</v>
       </c>
       <c r="H79" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -7631,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
         <v>-4724.849474482951</v>
@@ -7676,6 +7912,9 @@
         <v>0</v>
       </c>
       <c r="AC79" t="n">
+        <v>1.9176</v>
+      </c>
+      <c r="AD79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7698,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -7710,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -7719,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -7767,6 +8006,9 @@
         <v>0</v>
       </c>
       <c r="AC80" t="n">
+        <v>0.6207</v>
+      </c>
+      <c r="AD80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7786,7 +8028,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -7795,10 +8037,10 @@
         <v>5</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J81" t="n">
         <v>2</v>
@@ -7810,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" t="n">
         <v>28.04829287347764</v>
@@ -7858,6 +8100,9 @@
         <v>0</v>
       </c>
       <c r="AC81" t="n">
+        <v>5.5523</v>
+      </c>
+      <c r="AD81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7904,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
         <v>966.1731925122874</v>
@@ -7949,6 +8194,9 @@
         <v>0</v>
       </c>
       <c r="AC82" t="n">
+        <v>0.1771</v>
+      </c>
+      <c r="AD82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7971,19 +8219,19 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -7992,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -8040,6 +8288,9 @@
         <v>0</v>
       </c>
       <c r="AC83" t="n">
+        <v>0.2673</v>
+      </c>
+      <c r="AD83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8059,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -8071,10 +8322,10 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -8131,6 +8382,9 @@
         <v>0</v>
       </c>
       <c r="AC84" t="n">
+        <v>0.4726</v>
+      </c>
+      <c r="AD84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8153,19 +8407,19 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -8222,7 +8476,10 @@
         <v>0</v>
       </c>
       <c r="AC85" t="n">
-        <v>0</v>
+        <v>0.9944</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -8241,7 +8498,7 @@
         <v>4</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -8265,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -8313,6 +8570,9 @@
         <v>0</v>
       </c>
       <c r="AC86" t="n">
+        <v>1.6564</v>
+      </c>
+      <c r="AD86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8335,19 +8595,19 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -8404,6 +8664,9 @@
         <v>4</v>
       </c>
       <c r="AC87" t="n">
+        <v>0.4227</v>
+      </c>
+      <c r="AD87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8426,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
         <v>2</v>
@@ -8495,7 +8758,10 @@
         <v>1</v>
       </c>
       <c r="AC88" t="n">
-        <v>0</v>
+        <v>0.9641</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -8514,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -8526,10 +8792,10 @@
         <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -8538,10 +8804,10 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O89" t="n">
         <v>-1316.813456973687</v>
@@ -8586,6 +8852,9 @@
         <v>0</v>
       </c>
       <c r="AC89" t="n">
+        <v>6.4688</v>
+      </c>
+      <c r="AD89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8614,13 +8883,13 @@
         <v>7</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -8632,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="n">
         <v>9234.52042309555</v>
@@ -8677,6 +8946,9 @@
         <v>0</v>
       </c>
       <c r="AC90" t="n">
+        <v>3.6463</v>
+      </c>
+      <c r="AD90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8696,16 +8968,16 @@
         <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>5</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -8768,7 +9040,10 @@
         <v>1</v>
       </c>
       <c r="AC91" t="n">
-        <v>0</v>
+        <v>1.5633</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -8796,13 +9071,13 @@
         <v>4</v>
       </c>
       <c r="H92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -8811,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -8859,6 +9134,9 @@
         <v>0</v>
       </c>
       <c r="AC92" t="n">
+        <v>0.7046</v>
+      </c>
+      <c r="AD92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8887,13 +9165,13 @@
         <v>12</v>
       </c>
       <c r="H93" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -8902,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -8950,6 +9228,9 @@
         <v>1</v>
       </c>
       <c r="AC93" t="n">
+        <v>1.0734</v>
+      </c>
+      <c r="AD93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8969,7 +9250,7 @@
         <v>4</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -8984,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -8993,10 +9274,10 @@
         <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
         <v>-3689.831652043985</v>
@@ -9041,7 +9322,10 @@
         <v>0</v>
       </c>
       <c r="AC94" t="n">
-        <v>0</v>
+        <v>2.3679</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -9063,19 +9347,19 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -9084,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -9132,7 +9416,10 @@
         <v>0</v>
       </c>
       <c r="AC95" t="n">
-        <v>0</v>
+        <v>1.3449</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -9160,13 +9447,13 @@
         <v>11</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -9175,10 +9462,10 @@
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O96" t="n">
         <v>1408.3573639813</v>
@@ -9223,6 +9510,9 @@
         <v>0</v>
       </c>
       <c r="AC96" t="n">
+        <v>1.965</v>
+      </c>
+      <c r="AD96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9251,13 +9541,13 @@
         <v>9</v>
       </c>
       <c r="H97" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -9266,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -9314,6 +9604,9 @@
         <v>0</v>
       </c>
       <c r="AC97" t="n">
+        <v>1.7133</v>
+      </c>
+      <c r="AD97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9333,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -9342,13 +9635,13 @@
         <v>12</v>
       </c>
       <c r="H98" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -9357,10 +9650,10 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
         <v>-1849.128522602885</v>
@@ -9405,6 +9698,9 @@
         <v>0</v>
       </c>
       <c r="AC98" t="n">
+        <v>2.0071</v>
+      </c>
+      <c r="AD98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9424,7 +9720,7 @@
         <v>4</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -9433,13 +9729,13 @@
         <v>3</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -9496,6 +9792,9 @@
         <v>0</v>
       </c>
       <c r="AC99" t="n">
+        <v>0.8624000000000001</v>
+      </c>
+      <c r="AD99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9515,10 +9814,10 @@
         <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -9527,10 +9826,10 @@
         <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -9542,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
         <v>-3369.335036501906</v>
@@ -9587,6 +9886,9 @@
         <v>68</v>
       </c>
       <c r="AC100" t="n">
+        <v>4.0749</v>
+      </c>
+      <c r="AD100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9615,13 +9917,13 @@
         <v>3</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -9678,6 +9980,9 @@
         <v>1</v>
       </c>
       <c r="AC101" t="n">
+        <v>1.3852</v>
+      </c>
+      <c r="AD101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9700,19 +10005,19 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G102" t="n">
         <v>10</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J102" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -9769,7 +10074,10 @@
         <v>3</v>
       </c>
       <c r="AC102" t="n">
-        <v>0</v>
+        <v>3.6246</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -9788,7 +10096,7 @@
         <v>4</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -9812,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -9860,6 +10168,9 @@
         <v>0</v>
       </c>
       <c r="AC103" t="n">
+        <v>1.2264</v>
+      </c>
+      <c r="AD103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9879,22 +10190,22 @@
         <v>3</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K104" t="n">
         <v>1</v>
@@ -9951,7 +10262,10 @@
         <v>0</v>
       </c>
       <c r="AC104" t="n">
-        <v>0</v>
+        <v>0.7392</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -9973,19 +10287,19 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>5</v>
       </c>
       <c r="H105" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -10042,6 +10356,9 @@
         <v>0</v>
       </c>
       <c r="AC105" t="n">
+        <v>0.3693</v>
+      </c>
+      <c r="AD105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10070,7 +10387,7 @@
         <v>3</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -10085,10 +10402,10 @@
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O106" t="n">
         <v>122.2923219649961</v>
@@ -10133,6 +10450,9 @@
         <v>1</v>
       </c>
       <c r="AC106" t="n">
+        <v>0.9873</v>
+      </c>
+      <c r="AD106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10155,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
         <v>7</v>
@@ -10167,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -10176,7 +10496,7 @@
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
@@ -10224,6 +10544,9 @@
         <v>0</v>
       </c>
       <c r="AC107" t="n">
+        <v>1.7154</v>
+      </c>
+      <c r="AD107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10234,7 +10557,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>2</v>
@@ -10252,13 +10575,13 @@
         <v>5</v>
       </c>
       <c r="H108" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -10267,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
@@ -10315,6 +10638,9 @@
         <v>0</v>
       </c>
       <c r="AC108" t="n">
+        <v>0.6916</v>
+      </c>
+      <c r="AD108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10334,7 +10660,7 @@
         <v>4</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -10343,10 +10669,10 @@
         <v>9</v>
       </c>
       <c r="H109" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
         <v>4</v>
@@ -10361,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
         <v>1408.571633415937</v>
@@ -10406,7 +10732,10 @@
         <v>0</v>
       </c>
       <c r="AC109" t="n">
-        <v>0</v>
+        <v>2.6717</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -10434,13 +10763,13 @@
         <v>6</v>
       </c>
       <c r="H110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -10449,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
@@ -10497,6 +10826,9 @@
         <v>0</v>
       </c>
       <c r="AC110" t="n">
+        <v>2.9517</v>
+      </c>
+      <c r="AD110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10516,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -10525,13 +10857,13 @@
         <v>10</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I111" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -10540,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
@@ -10588,6 +10920,9 @@
         <v>2</v>
       </c>
       <c r="AC111" t="n">
+        <v>2.9117</v>
+      </c>
+      <c r="AD111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10607,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -10616,10 +10951,10 @@
         <v>3</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -10631,10 +10966,10 @@
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O112" t="n">
         <v>-2876.129702282298</v>
@@ -10679,6 +11014,9 @@
         <v>0</v>
       </c>
       <c r="AC112" t="n">
+        <v>1.9289</v>
+      </c>
+      <c r="AD112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10701,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G113" t="n">
         <v>8</v>
@@ -10710,10 +11048,10 @@
         <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -10722,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
@@ -10770,6 +11108,9 @@
         <v>0</v>
       </c>
       <c r="AC113" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="AD113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10804,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -10861,6 +11202,9 @@
         <v>0</v>
       </c>
       <c r="AC114" t="n">
+        <v>2.2872</v>
+      </c>
+      <c r="AD114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10883,19 +11227,19 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -10952,7 +11296,10 @@
         <v>0</v>
       </c>
       <c r="AC115" t="n">
-        <v>0</v>
+        <v>0.877</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -10971,19 +11318,19 @@
         <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>11</v>
       </c>
       <c r="H116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
         <v>2</v>
@@ -10995,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
         <v>1</v>
@@ -11043,7 +11390,10 @@
         <v>0</v>
       </c>
       <c r="AC116" t="n">
-        <v>0</v>
+        <v>3.2677</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -11071,13 +11421,13 @@
         <v>7</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J117" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -11086,10 +11436,10 @@
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117" t="n">
         <v>-1364.465650481999</v>
@@ -11134,6 +11484,9 @@
         <v>3</v>
       </c>
       <c r="AC117" t="n">
+        <v>6.4956</v>
+      </c>
+      <c r="AD117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11156,19 +11509,19 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
         <v>8</v>
       </c>
       <c r="H118" t="n">
+        <v>7</v>
+      </c>
+      <c r="I118" t="n">
         <v>6</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
       <c r="J118" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -11177,7 +11530,7 @@
         <v>1</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N118" t="n">
         <v>0</v>
@@ -11225,6 +11578,9 @@
         <v>2</v>
       </c>
       <c r="AC118" t="n">
+        <v>4.165</v>
+      </c>
+      <c r="AD118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11253,13 +11609,13 @@
         <v>7</v>
       </c>
       <c r="H119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -11316,6 +11672,9 @@
         <v>0</v>
       </c>
       <c r="AC119" t="n">
+        <v>0.8397</v>
+      </c>
+      <c r="AD119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11335,22 +11694,22 @@
         <v>3</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -11359,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120" t="n">
         <v>0</v>
@@ -11407,6 +11766,9 @@
         <v>0</v>
       </c>
       <c r="AC120" t="n">
+        <v>0.9997</v>
+      </c>
+      <c r="AD120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11426,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -11435,13 +11797,13 @@
         <v>3</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -11453,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O121" t="n">
         <v>1984.848979293467</v>
@@ -11498,6 +11860,9 @@
         <v>0</v>
       </c>
       <c r="AC121" t="n">
+        <v>1.5541</v>
+      </c>
+      <c r="AD121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11517,7 +11882,7 @@
         <v>4</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -11526,14 +11891,14 @@
         <v>8</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J122" t="n">
         <v>6</v>
       </c>
-      <c r="J122" t="n">
-        <v>3</v>
-      </c>
       <c r="K122" t="n">
         <v>0</v>
       </c>
@@ -11541,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122" t="n">
         <v>0</v>
@@ -11589,7 +11954,10 @@
         <v>2</v>
       </c>
       <c r="AC122" t="n">
-        <v>0</v>
+        <v>2.2281</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -11608,19 +11976,19 @@
         <v>8</v>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>9</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I123" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J123" t="n">
         <v>2</v>
@@ -11632,10 +12000,10 @@
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O123" t="n">
         <v>-992.0580709999588</v>
@@ -11680,7 +12048,10 @@
         <v>0</v>
       </c>
       <c r="AC123" t="n">
-        <v>0</v>
+        <v>2.0428</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -11702,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -11711,10 +12082,10 @@
         <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -11723,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
@@ -11771,6 +12142,9 @@
         <v>0</v>
       </c>
       <c r="AC124" t="n">
+        <v>0.2366</v>
+      </c>
+      <c r="AD124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11793,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>4</v>
@@ -11802,10 +12176,10 @@
         <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
@@ -11814,7 +12188,7 @@
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
@@ -11862,6 +12236,9 @@
         <v>0</v>
       </c>
       <c r="AC125" t="n">
+        <v>1.6048</v>
+      </c>
+      <c r="AD125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11890,13 +12267,13 @@
         <v>9</v>
       </c>
       <c r="H126" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I126" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -11953,7 +12330,10 @@
         <v>1</v>
       </c>
       <c r="AC126" t="n">
-        <v>0</v>
+        <v>4.7238</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -11972,7 +12352,7 @@
         <v>4</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -11981,13 +12361,13 @@
         <v>12</v>
       </c>
       <c r="H127" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -11996,10 +12376,10 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O127" t="n">
         <v>-2366.792765438533</v>
@@ -12044,6 +12424,9 @@
         <v>0</v>
       </c>
       <c r="AC127" t="n">
+        <v>5.3823</v>
+      </c>
+      <c r="AD127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12066,7 +12449,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -12075,10 +12458,10 @@
         <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
@@ -12087,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
@@ -12135,6 +12518,9 @@
         <v>0</v>
       </c>
       <c r="AC128" t="n">
+        <v>2.9833</v>
+      </c>
+      <c r="AD128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12163,13 +12549,13 @@
         <v>4</v>
       </c>
       <c r="H129" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -12178,10 +12564,10 @@
         <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O129" t="n">
         <v>-3026.500603721091</v>
@@ -12226,6 +12612,9 @@
         <v>0</v>
       </c>
       <c r="AC129" t="n">
+        <v>1.3262</v>
+      </c>
+      <c r="AD129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12254,13 +12643,13 @@
         <v>9</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
@@ -12269,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130" t="n">
         <v>0</v>
@@ -12317,6 +12706,9 @@
         <v>1</v>
       </c>
       <c r="AC130" t="n">
+        <v>2.035</v>
+      </c>
+      <c r="AD130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12358,10 +12750,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.5782191833171413</v>
+        <v>0.1908606993457533</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1689152380479342</v>
+        <v>0.3659055858351669</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -12369,10 +12761,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.280387917399446</v>
+        <v>-2.506779769609188</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.150922972978438</v>
+        <v>-0.7905462464450561</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -12380,10 +12772,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.964229863113497</v>
+        <v>-2.109111222850486</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.32888812655259</v>
+        <v>-1.568190988314041</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -12391,10 +12783,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9646632365373217</v>
+        <v>-1.63277343750946</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8759818523367363</v>
+        <v>1.390017038793623</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -12402,10 +12794,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.8200186649410357</v>
+        <v>-2.329311851987832</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.885873755865354</v>
+        <v>-1.748738768047562</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -12413,10 +12805,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.1655541164950444</v>
+        <v>0.329028747826906</v>
       </c>
       <c r="B7" t="n">
-        <v>1.702992923957509</v>
+        <v>0.544161595638408</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -12424,10 +12816,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3231027053772098</v>
+        <v>-0.3604428218889268</v>
       </c>
       <c r="B8" t="n">
-        <v>2.130557430278383</v>
+        <v>0.3908795238398311</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -12435,10 +12827,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.957880318239723</v>
+        <v>-1.037532536298508</v>
       </c>
       <c r="B9" t="n">
-        <v>1.178655027015324</v>
+        <v>0.865823023965128</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -12446,10 +12838,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1283934407479863</v>
+        <v>0.08260631015877268</v>
       </c>
       <c r="B10" t="n">
-        <v>1.145757500380425</v>
+        <v>0.7088152109747015</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -12457,10 +12849,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.696902406985072</v>
+        <v>-1.057163357013976</v>
       </c>
       <c r="B11" t="n">
-        <v>1.557808651734803</v>
+        <v>1.911947740614982</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -12468,10 +12860,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.81824055070876</v>
+        <v>12.47764307187859</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.05262644638555077</v>
+        <v>-2.776218632777439</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -12479,10 +12871,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.7562357909405181</v>
+        <v>-1.131498424484845</v>
       </c>
       <c r="B13" t="n">
-        <v>1.545448461308604</v>
+        <v>1.797537805379153</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -12490,10 +12882,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.45111760645312</v>
+        <v>-2.09017653887567</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7874932873818907</v>
+        <v>0.9316346405445973</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -12501,10 +12893,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.6568704557434525</v>
+        <v>-1.057216666496261</v>
       </c>
       <c r="B15" t="n">
-        <v>2.346414474232589</v>
+        <v>2.171983992821431</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -12512,10 +12904,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.117696843872157</v>
+        <v>-2.061214512349164</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.710196149925209</v>
+        <v>-2.462143951442354</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -12523,10 +12915,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.896254032180177</v>
+        <v>-1.628451864236427</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2864387163625253</v>
+        <v>0.951667269328079</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -12534,21 +12926,21 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3732541410123643</v>
+        <v>-0.914600899290083</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.386568506734653</v>
+        <v>-2.975222295580461</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2176797706157386</v>
+        <v>0.4718217605578544</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1832150713309426</v>
+        <v>-0.3685207173682214</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -12556,10 +12948,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.260690362528004</v>
+        <v>-0.2472280004629992</v>
       </c>
       <c r="B20" t="n">
-        <v>1.615786886273389</v>
+        <v>2.164245661047814</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -12567,10 +12959,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.055204235068495</v>
+        <v>-2.130735056915647</v>
       </c>
       <c r="B21" t="n">
-        <v>1.076943766015065</v>
+        <v>1.765982256593765</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -12578,10 +12970,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-2.058920100456057</v>
+        <v>-2.387751508834486</v>
       </c>
       <c r="B22" t="n">
-        <v>1.114326827515261</v>
+        <v>1.245228709853797</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -12589,10 +12981,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.759281590411293</v>
+        <v>6.608726365600337</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8612547957397493</v>
+        <v>0.8300532564925948</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -12600,10 +12992,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.1712151654928295</v>
+        <v>0.649044540185131</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.3289492782308823</v>
+        <v>-0.7074489843233434</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -12611,21 +13003,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.586297162916761</v>
+        <v>4.688937789512043</v>
       </c>
       <c r="B25" t="n">
-        <v>2.638480100677725</v>
+        <v>-2.102523920711777</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.5918045200868803</v>
+        <v>0.1144278141115574</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.545144596063911</v>
+        <v>-0.5715076371002107</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -12633,10 +13025,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.103737108550725</v>
+        <v>-1.784862795123283</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.03908960976071141</v>
+        <v>0.195106393839703</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -12644,10 +13036,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.173231702372365</v>
+        <v>2.234819454982814</v>
       </c>
       <c r="B28" t="n">
-        <v>2.281206613710818</v>
+        <v>2.172479241989205</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -12655,10 +13047,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.2457781795868137</v>
+        <v>-0.4175011288637289</v>
       </c>
       <c r="B29" t="n">
-        <v>3.553988483354007</v>
+        <v>2.435524174928006</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -12666,10 +13058,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.5277144616279639</v>
+        <v>-1.632410369703638</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.969901564936142</v>
+        <v>-2.469837030652126</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -12677,10 +13069,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2.335815634037403</v>
+        <v>-2.221240060268694</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.446372798699666</v>
+        <v>-0.904754668452463</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -12688,10 +13080,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.02111736366514621</v>
+        <v>-0.7224532536782841</v>
       </c>
       <c r="B32" t="n">
-        <v>3.026961143597765</v>
+        <v>1.442321323849333</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -12699,21 +13091,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.6998209934226716</v>
+        <v>0.0333693026978177</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.5430325350908136</v>
+        <v>-0.9836784760613234</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.4441931329920449</v>
+        <v>0.1910929839804708</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2781379690875696</v>
+        <v>0.331553921156577</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -12721,21 +13113,21 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.938380291221615</v>
+        <v>1.329067387001519</v>
       </c>
       <c r="B35" t="n">
-        <v>-3.990417066921143</v>
+        <v>-2.683065786623112</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.3956633398955378</v>
+        <v>-1.012090235894872</v>
       </c>
       <c r="B36" t="n">
-        <v>1.038645488988876</v>
+        <v>0.5154182087667674</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -12743,10 +13135,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.343917864248562</v>
+        <v>5.995890643833552</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.001527631571805</v>
+        <v>-1.548998917467121</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -12754,10 +13146,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-0.7434627745407375</v>
+        <v>-1.315539935879158</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.973232098905231</v>
+        <v>-1.869288785243372</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -12765,21 +13157,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.677239123716142</v>
+        <v>-0.0869309624686074</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.412186567314998</v>
+        <v>-1.196263275901467</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.992115764383803</v>
+        <v>3.183806333593142</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8636925483803686</v>
+        <v>0.2004769012878021</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -12787,10 +13179,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1.514523517766493</v>
+        <v>-1.586076500520347</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04274692354608622</v>
+        <v>0.2886082171988077</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -12798,10 +13190,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.05252224339319799</v>
+        <v>1.200706348435041</v>
       </c>
       <c r="B42" t="n">
-        <v>2.587698482077691</v>
+        <v>2.75818225634889</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -12809,10 +13201,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1.013294046303618</v>
+        <v>-1.802074992134751</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.2972837154380362</v>
+        <v>-0.4437100505745481</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -12820,10 +13212,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-2.484988828658895</v>
+        <v>-2.887664760982934</v>
       </c>
       <c r="B44" t="n">
-        <v>-3.184853787062053</v>
+        <v>-2.444498369489319</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -12831,10 +13223,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1.111509734302202</v>
+        <v>-1.685160576675183</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.3701064619105094</v>
+        <v>-0.7399866228604961</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -12842,10 +13234,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.213642213917811</v>
+        <v>-1.11716027544879</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.541196083839928</v>
+        <v>-0.9487334942088388</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -12853,43 +13245,43 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.87493397454654</v>
+        <v>4.407739995986302</v>
       </c>
       <c r="B47" t="n">
-        <v>1.251357785045722</v>
+        <v>-1.682929803215824</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.6918467460214913</v>
+        <v>-0.7684952609651861</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8316376762802188</v>
+        <v>-1.693335315850024</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.139454207077972</v>
+        <v>4.143858989705802</v>
       </c>
       <c r="B49" t="n">
-        <v>1.936239019996354</v>
+        <v>1.675532929199232</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-1.068800770726156</v>
+        <v>-0.2943588561802618</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.8915833576788013</v>
+        <v>-1.017039485195257</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -12897,10 +13289,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-1.308582113885526</v>
+        <v>-0.5294781019766479</v>
       </c>
       <c r="B51" t="n">
-        <v>3.147952070954839</v>
+        <v>3.360813235040287</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -12908,10 +13300,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.6173826174067479</v>
+        <v>-0.3332873643640449</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5471174791240286</v>
+        <v>0.7434705184399839</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -12919,10 +13311,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.4234489673689437</v>
+        <v>1.13153683830464</v>
       </c>
       <c r="B53" t="n">
-        <v>1.653348375468133</v>
+        <v>2.097439081880499</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -12930,10 +13322,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-2.596442903291056</v>
+        <v>-2.399483822074072</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.256358596970066</v>
+        <v>-0.5043344259712111</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -12941,10 +13333,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.2960442724411856</v>
+        <v>0.7447173396012134</v>
       </c>
       <c r="B55" t="n">
-        <v>0.05340488347499168</v>
+        <v>0.3609246313069229</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -12952,21 +13344,21 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.544299243030937</v>
+        <v>2.291757756112488</v>
       </c>
       <c r="B56" t="n">
-        <v>-2.284697052637652</v>
+        <v>-3.25726573625893</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-1.782332511462709</v>
+        <v>-0.461322652302722</v>
       </c>
       <c r="B57" t="n">
-        <v>1.375135533862744</v>
+        <v>1.970513802830618</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -12974,21 +13366,21 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.140275136835683</v>
+        <v>1.159852091341629</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.5376093428630255</v>
+        <v>-0.8618149612736209</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9254156925596567</v>
+        <v>1.334647531276215</v>
       </c>
       <c r="B59" t="n">
-        <v>1.958821054687752</v>
+        <v>1.024319717957682</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -12996,21 +13388,21 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.123152600416844</v>
+        <v>0.3869903492700579</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.788759417518893</v>
+        <v>-1.945350755166499</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1.321388900171816</v>
+        <v>-1.89215193706035</v>
       </c>
       <c r="B61" t="n">
-        <v>-2.120978332165378</v>
+        <v>-2.206256713219717</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -13018,21 +13410,21 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8877548356878345</v>
+        <v>0.2380538673395332</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8781100744289857</v>
+        <v>-1.020343662235996</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.4749834888538453</v>
+        <v>2.74880351607835</v>
       </c>
       <c r="B63" t="n">
-        <v>3.789153073398492</v>
+        <v>3.763301185086333</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -13040,10 +13432,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.915871663459829</v>
+        <v>3.035327770961622</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4168960198906196</v>
+        <v>1.08190406379586</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -13051,10 +13443,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-1.886368231754965</v>
+        <v>-1.138858329056959</v>
       </c>
       <c r="B65" t="n">
-        <v>1.425938732437364</v>
+        <v>1.636242419224794</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -13062,10 +13454,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.864961146289384</v>
+        <v>-1.415086061162294</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.1165549356898145</v>
+        <v>-0.1442986453418756</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -13073,21 +13465,21 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.066718295301133</v>
+        <v>2.293801736659635</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.368234724358682</v>
+        <v>-0.2088753024797561</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.4952589962139689</v>
+        <v>0.03566969785418036</v>
       </c>
       <c r="B68" t="n">
-        <v>1.306961326792931</v>
+        <v>1.457525558295474</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -13095,10 +13487,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-2.483498425837159</v>
+        <v>-2.429576829525194</v>
       </c>
       <c r="B69" t="n">
-        <v>1.706452006399446</v>
+        <v>1.852377633967898</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -13106,10 +13498,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.557041067689506</v>
+        <v>3.635148089816315</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06706240716020756</v>
+        <v>-1.340662592709435</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -13117,10 +13509,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-1.522055451289838</v>
+        <v>-1.6570394527389</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6726491406879469</v>
+        <v>0.9978509147070938</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -13128,21 +13520,21 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.210476490667922</v>
+        <v>1.272848675378569</v>
       </c>
       <c r="B72" t="n">
-        <v>0.411082648029965</v>
+        <v>-0.8819087936857196</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.09282352438845086</v>
+        <v>0.08438113882208172</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1467557886172487</v>
+        <v>0.7785170505721495</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -13150,10 +13542,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.739983292975438</v>
+        <v>-1.311354761114238</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.110466715354741</v>
+        <v>0.2364333181464449</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -13161,10 +13553,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.3236574150124569</v>
+        <v>-0.3658478985991387</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.9581475501067264</v>
+        <v>-0.1176530112872348</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -13172,10 +13564,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-2.307815773135847</v>
+        <v>-2.916157530737297</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.405894746195544</v>
+        <v>-0.9967225098543362</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -13183,10 +13575,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-1.19345642596196</v>
+        <v>-1.547391344746699</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07289940105864595</v>
+        <v>0.6245603591757498</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -13194,10 +13586,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.7002312720928324</v>
+        <v>0.5660294296085677</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.4623256595643713</v>
+        <v>0.8863989292720917</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -13205,10 +13597,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-1.067649323247718</v>
+        <v>-1.356545728586015</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.056678167725105</v>
+        <v>-1.512939123304003</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -13216,10 +13608,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1.092129614301041</v>
+        <v>-1.695474277321827</v>
       </c>
       <c r="B80" t="n">
-        <v>-2.680859859828547</v>
+        <v>-3.058300346814725</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -13227,10 +13619,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.5781501130681711</v>
+        <v>1.469556951095382</v>
       </c>
       <c r="B81" t="n">
-        <v>3.244959472438857</v>
+        <v>4.319434324261444</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -13238,10 +13630,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-2.058181650336319</v>
+        <v>-1.986129006964492</v>
       </c>
       <c r="B82" t="n">
-        <v>1.075371295818448</v>
+        <v>1.129825969879194</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -13249,10 +13641,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1.873454044878749</v>
+        <v>-2.558156435419672</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1355794362520256</v>
+        <v>0.9379853121319103</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -13260,10 +13652,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-2.193680164109976</v>
+        <v>-2.263139661115464</v>
       </c>
       <c r="B84" t="n">
-        <v>2.113728094051126</v>
+        <v>2.148533529536254</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -13271,21 +13663,21 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.4826404111464586</v>
+        <v>-1.043040404593247</v>
       </c>
       <c r="B85" t="n">
-        <v>-2.629224100569612</v>
+        <v>-1.900608195739257</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-1.023932601580461</v>
+        <v>-0.8796427738132406</v>
       </c>
       <c r="B86" t="n">
-        <v>0.04587433689033457</v>
+        <v>0.3372446984041282</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -13293,10 +13685,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.2029143066380618</v>
+        <v>-0.4087632617641577</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.044605483305594</v>
+        <v>-1.390263065411235</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -13304,21 +13696,21 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.886444668134604</v>
+        <v>1.127455662164863</v>
       </c>
       <c r="B88" t="n">
-        <v>-3.633130685875437</v>
+        <v>-4.560459062696539</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.5899222086703865</v>
+        <v>0.04644892019302703</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.804880312259073</v>
+        <v>-1.327733084963999</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -13326,10 +13718,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-2.590141962458099</v>
+        <v>-1.74794289615966</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.307063456677766</v>
+        <v>-0.2657177092071387</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -13337,21 +13729,21 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.448939002057352</v>
+        <v>0.4990286795429164</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.663569304948465</v>
+        <v>-1.271310259054607</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-2.833085812250813</v>
+        <v>-2.917260634837531</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.7449798927625846</v>
+        <v>-0.1095021215164401</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -13359,10 +13751,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.01692950080637528</v>
+        <v>0.08141293849578279</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6598744648597352</v>
+        <v>0.394410675695581</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -13370,32 +13762,32 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8109681274920428</v>
+        <v>0.8805516131236513</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0315882907417294</v>
+        <v>0.136944674676399</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.5419628376024401</v>
+        <v>-0.7334243625859205</v>
       </c>
       <c r="B95" t="n">
-        <v>-2.300903320252701</v>
+        <v>-1.726047509431437</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.584171296705727</v>
+        <v>1.069441133869951</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.16775564175299</v>
+        <v>0.2516230830862783</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -13403,10 +13795,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.2873990183783974</v>
+        <v>-0.798747818947909</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0249478328463747</v>
+        <v>0.1263114601622364</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -13414,10 +13806,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.5118311135747184</v>
+        <v>-0.08150783585485763</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.07061028810382122</v>
+        <v>-1.284784912125463</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -13425,10 +13817,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1.046951953723161</v>
+        <v>-1.92289177901552</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.947076300112223</v>
+        <v>-1.573070557505811</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -13436,10 +13828,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5.769737257372861</v>
+        <v>5.290791312201956</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.9445088348449125</v>
+        <v>-1.711465774008023</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -13447,10 +13839,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1.710470404818739</v>
+        <v>-1.428241730912815</v>
       </c>
       <c r="B101" t="n">
-        <v>1.10026959492691</v>
+        <v>1.361247893603367</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -13458,21 +13850,21 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.8348988923927739</v>
+        <v>1.513484407144321</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.5811920395524235</v>
+        <v>0.04457213825701318</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-1.104284171840345</v>
+        <v>-1.078445733167781</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.07178273096747124</v>
+        <v>0.1763090580888664</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -13480,21 +13872,21 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.82779388703991</v>
+        <v>0.4487185084503947</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.7059733057081788</v>
+        <v>-3.919510575168032</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-2.594304583218464</v>
+        <v>-3.155843263999777</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.247867195669679</v>
+        <v>-0.5891231491766633</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -13502,10 +13894,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1.552246901444631</v>
+        <v>-1.304378651047383</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.09930075079917083</v>
+        <v>0.3394631364902684</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -13513,10 +13905,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.662355632762601</v>
+        <v>-0.6403957757164425</v>
       </c>
       <c r="B107" t="n">
-        <v>2.75988531861359</v>
+        <v>2.737901515893578</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -13524,10 +13916,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-0.5647214530239699</v>
+        <v>-1.830306886065874</v>
       </c>
       <c r="B108" t="n">
-        <v>0.2167977249098851</v>
+        <v>-0.7290910704689397</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -13535,21 +13927,21 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.068985028253701</v>
+        <v>0.5901150976289989</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2249796967244516</v>
+        <v>-0.246155432951138</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-1.099628099093841</v>
+        <v>-0.1512767432784745</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.403290800788134</v>
+        <v>-0.3904483307098449</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -13557,10 +13949,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.3199515878909951</v>
+        <v>1.197295185634523</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7078501110495534</v>
+        <v>0.762371509388532</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -13568,10 +13960,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.190642668845817</v>
+        <v>-1.640984013432091</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.9761962609166633</v>
+        <v>-1.650786714201955</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -13579,10 +13971,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.3278971140019704</v>
+        <v>0.1976896867367085</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.9890328367703307</v>
+        <v>-0.7532067656397204</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -13590,10 +13982,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-2.488881232863822</v>
+        <v>-2.045817434636775</v>
       </c>
       <c r="B114" t="n">
-        <v>1.434787987377734</v>
+        <v>1.89761436352334</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -13601,32 +13993,32 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.736289914478304</v>
+        <v>-0.3670950134901925</v>
       </c>
       <c r="B115" t="n">
-        <v>-3.225330197828275</v>
+        <v>-3.746812957255043</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.52652573241483</v>
+        <v>0.9749047065782218</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9877581656257032</v>
+        <v>0.7460678661152439</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.666826268452811</v>
+        <v>4.969642377792539</v>
       </c>
       <c r="B117" t="n">
-        <v>2.466167111756899</v>
+        <v>4.277301388595113</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -13634,10 +14026,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4.650515810702044</v>
+        <v>4.915626471655069</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.355303508961836</v>
+        <v>-0.9972038185045212</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -13645,10 +14037,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.727420767322085</v>
+        <v>-1.496526768991235</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.163670888492311</v>
+        <v>-0.5978613879685155</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -13656,10 +14048,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.7864102780835309</v>
+        <v>-1.67113065304803</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.768378587747038</v>
+        <v>-1.424074886646442</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -13667,10 +14059,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.289895783095854</v>
+        <v>-1.704984710369793</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.480898409198441</v>
+        <v>-1.365209443495617</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -13678,32 +14070,32 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.482772164158836</v>
+        <v>2.059394677941363</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3507966937296211</v>
+        <v>0.3066817259183697</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.804522237312073</v>
+        <v>2.258952586113489</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.2853021973352088</v>
+        <v>0.1756508110823449</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-2.125595261088523</v>
+        <v>-1.938552187668615</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1802470010050296</v>
+        <v>0.7543079912792529</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -13711,10 +14103,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-1.302149989768774</v>
+        <v>-1.774863042096091</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.2297647043681042</v>
+        <v>0.4900979116404423</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -13722,21 +14114,21 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.99605798783807</v>
+        <v>3.695215571960443</v>
       </c>
       <c r="B126" t="n">
-        <v>3.751122265744797</v>
+        <v>2.155829390476018</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.838845769700141</v>
+        <v>2.853178430338791</v>
       </c>
       <c r="B127" t="n">
-        <v>1.131842943874374</v>
+        <v>2.64264057432548</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -13744,10 +14136,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1.107250373822074</v>
+        <v>-0.7314957491660677</v>
       </c>
       <c r="B128" t="n">
-        <v>2.466235660791892</v>
+        <v>2.861773077889153</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -13755,10 +14147,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-1.08482853294434</v>
+        <v>-0.9405387664711492</v>
       </c>
       <c r="B129" t="n">
-        <v>1.65604167445439</v>
+        <v>1.416963463830395</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
@@ -13766,10 +14158,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-0.08359987172597415</v>
+        <v>1.274669233407429</v>
       </c>
       <c r="B130" t="n">
-        <v>2.101417885119494</v>
+        <v>2.431568743137722</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>

--- a/Results/pca_kmeans_results_indep_variables.xlsx
+++ b/Results/pca_kmeans_results_indep_variables.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_RedConfltAgu</t>
+          <t>OutDeg_RedConfltAgu</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,12 +457,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_PaiTiopaterC</t>
+          <t>OutDeg_PaiTiopaterC</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_TiosMaternos</t>
+          <t>OutDeg_TiosMaternos</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -472,17 +472,17 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_IntimAmigos_</t>
+          <t>OutDeg_IntimAmigos_</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_RedeRisk_Cen</t>
+          <t>OutDeg_RedeRisk_Cen</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_RedeConfianc</t>
+          <t>OutDeg_RedeConfianc</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -497,12 +497,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_VendaParcela</t>
+          <t>OutDeg_VendaParcela</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Indeg_EmprestParce</t>
+          <t>OutDeg_EmprestParce</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -602,22 +602,22 @@
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>2.3644</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -705,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -887,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1081,13 +1081,13 @@
         <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
         <v>3421.335739162395</v>
@@ -1147,7 +1147,7 @@
         <v>1.9217</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>-4573.530956363858</v>
@@ -1363,10 +1363,10 @@
         <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>2.8263</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1460,10 +1460,10 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
         <v>755.8109509259119</v>
@@ -1542,34 +1542,34 @@
         <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>4</v>
       </c>
-      <c r="J12" t="n">
-        <v>18</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>-1425.897409543945</v>
@@ -1645,14 +1645,14 @@
         <v>17</v>
       </c>
       <c r="H13" t="n">
+        <v>13</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>673.1379451863069</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1833,10 +1833,10 @@
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1848,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>-3428.359867177779</v>
@@ -1918,7 +1918,7 @@
         <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1927,13 +1927,13 @@
         <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -2021,10 +2021,10 @@
         <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2109,13 +2109,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2130,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>5512.298238967895</v>
@@ -2181,7 +2181,7 @@
         <v>0.6513</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2209,13 +2209,13 @@
         <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>2294.747480128243</v>
@@ -2275,7 +2275,7 @@
         <v>2.4548</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2294,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2303,13 +2303,13 @@
         <v>10</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2318,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
         <v>-4094.440202534243</v>
@@ -2391,19 +2391,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2491,13 +2491,13 @@
         <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>1991.683908521703</v>
@@ -2576,22 +2576,22 @@
         <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>12</v>
       </c>
       <c r="H23" t="n">
+        <v>7</v>
+      </c>
+      <c r="I23" t="n">
         <v>6</v>
       </c>
-      <c r="I23" t="n">
-        <v>5</v>
-      </c>
       <c r="J23" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>-1096.978104296265</v>
@@ -2679,13 +2679,13 @@
         <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>1.9903</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
         <v>4</v>
@@ -2773,13 +2773,13 @@
         <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -2788,10 +2788,10 @@
         <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>-3613.40044917148</v>
@@ -2839,7 +2839,7 @@
         <v>3.7815</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2867,13 +2867,13 @@
         <v>9</v>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -3055,13 +3055,13 @@
         <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -3121,7 +3121,7 @@
         <v>3.4868</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3140,19 +3140,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -3164,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>1.8694</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3234,23 +3234,23 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
         <v>4</v>
       </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3337,7 +3337,7 @@
         <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3431,13 +3431,13 @@
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3446,10 +3446,10 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>4831.628297965053</v>
@@ -3497,7 +3497,7 @@
         <v>1.8387</v>
       </c>
       <c r="AD32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3516,7 +3516,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>2.5262</v>
       </c>
       <c r="AD33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3619,13 +3619,13 @@
         <v>9</v>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3634,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>-4247.982126218358</v>
@@ -3685,7 +3685,7 @@
         <v>2.2764</v>
       </c>
       <c r="AD34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3704,10 +3704,10 @@
         <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
         <v>6</v>
@@ -3716,10 +3716,10 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>-4717.848961164514</v>
@@ -3779,7 +3779,7 @@
         <v>2.2589</v>
       </c>
       <c r="AD35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3807,13 +3807,13 @@
         <v>12</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
         <v>-666.0359701098937</v>
@@ -3892,23 +3892,23 @@
         <v>8</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
       </c>
       <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
         <v>4</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>12</v>
-      </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -4080,22 +4080,22 @@
         <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>2.4621</v>
       </c>
       <c r="AD39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4174,22 +4174,22 @@
         <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
         <v>4</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
         <v>-3008.807002864713</v>
@@ -4268,7 +4268,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -4277,13 +4277,13 @@
         <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -4371,10 +4371,10 @@
         <v>10</v>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -4386,10 +4386,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>-2703.524467725282</v>
@@ -4437,7 +4437,7 @@
         <v>3.509</v>
       </c>
       <c r="AD42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4456,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4644,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4653,13 +4653,13 @@
         <v>3</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>-777.851766291146</v>
@@ -4835,19 +4835,19 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
         <v>15</v>
       </c>
       <c r="H47" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -4907,7 +4907,7 @@
         <v>3.4554</v>
       </c>
       <c r="AD47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4926,22 +4926,22 @@
         <v>4</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
@@ -5001,7 +5001,7 @@
         <v>1.1062</v>
       </c>
       <c r="AD48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -5029,13 +5029,13 @@
         <v>13</v>
       </c>
       <c r="H49" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -5044,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
         <v>-2301.55854501821</v>
@@ -5095,7 +5095,7 @@
         <v>4.7778</v>
       </c>
       <c r="AD49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -5114,22 +5114,22 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -5138,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
         <v>3581.875310069548</v>
@@ -5208,22 +5208,22 @@
         <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
         <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -5232,10 +5232,10 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
         <v>-710.1645089357625</v>
@@ -5302,7 +5302,7 @@
         <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -5311,13 +5311,13 @@
         <v>8</v>
       </c>
       <c r="H52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -5399,19 +5399,19 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>7</v>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
         <v>1</v>
@@ -5471,7 +5471,7 @@
         <v>5.2338</v>
       </c>
       <c r="AD53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -5499,13 +5499,13 @@
         <v>5</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -5584,22 +5584,22 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>9</v>
       </c>
       <c r="H55" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -5659,7 +5659,7 @@
         <v>2.4902</v>
       </c>
       <c r="AD55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5681,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
         <v>5</v>
@@ -5690,10 +5690,10 @@
         <v>3</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>4.2059</v>
       </c>
       <c r="AD56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5781,13 +5781,13 @@
         <v>5</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -5869,19 +5869,19 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -5941,7 +5941,7 @@
         <v>0.5374</v>
       </c>
       <c r="AD58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -5960,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -5969,13 +5969,13 @@
         <v>8</v>
       </c>
       <c r="H59" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -6035,7 +6035,7 @@
         <v>1.6598</v>
       </c>
       <c r="AD59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -6057,20 +6057,20 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
         <v>8</v>
       </c>
       <c r="H60" t="n">
+        <v>5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>4</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2</v>
-      </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0.8472999999999999</v>
       </c>
       <c r="AD60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -6157,7 +6157,7 @@
         <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -6245,19 +6245,19 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>13</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
@@ -6269,7 +6269,7 @@
         <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
         <v>-2510.66655598036</v>
@@ -6336,22 +6336,22 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
       </c>
       <c r="H63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -6360,10 +6360,10 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
         <v>353.9049083111498</v>
@@ -6411,7 +6411,7 @@
         <v>8.419599999999999</v>
       </c>
       <c r="AD63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -6430,22 +6430,22 @@
         <v>4</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
         <v>5</v>
       </c>
       <c r="H64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -6533,13 +6533,13 @@
         <v>6</v>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
         <v>3598.90596840282</v>
@@ -6618,7 +6618,7 @@
         <v>4</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -6627,13 +6627,13 @@
         <v>2</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -6642,10 +6642,10 @@
         <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
         <v>-3415.985818657333</v>
@@ -6712,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -6721,13 +6721,13 @@
         <v>9</v>
       </c>
       <c r="H67" t="n">
+        <v>7</v>
+      </c>
+      <c r="I67" t="n">
         <v>4</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
@@ -6736,10 +6736,10 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
         <v>-2118.343386755904</v>
@@ -6787,7 +6787,7 @@
         <v>8.5739</v>
       </c>
       <c r="AD67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -6806,7 +6806,7 @@
         <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -6815,13 +6815,13 @@
         <v>5</v>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -6830,10 +6830,10 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
         <v>-2314.125986451113</v>
@@ -6903,19 +6903,19 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -6997,19 +6997,19 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
@@ -7018,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -7097,13 +7097,13 @@
         <v>6</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -7112,10 +7112,10 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
         <v>-1884.45992303993</v>
@@ -7182,7 +7182,7 @@
         <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -7191,13 +7191,13 @@
         <v>8</v>
       </c>
       <c r="H72" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -7206,10 +7206,10 @@
         <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
         <v>83.23921453688038</v>
@@ -7257,7 +7257,7 @@
         <v>2.8954</v>
       </c>
       <c r="AD72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -7279,19 +7279,19 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
         <v>5</v>
       </c>
       <c r="H73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -7351,7 +7351,7 @@
         <v>0.6253</v>
       </c>
       <c r="AD73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -7379,13 +7379,13 @@
         <v>6</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -7394,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -7464,22 +7464,22 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
         <v>6</v>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -7652,16 +7652,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
         <v>7</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -7746,22 +7746,22 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
         <v>13</v>
       </c>
       <c r="H78" t="n">
+        <v>9</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
         <v>4</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>5</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -7843,19 +7843,19 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>6</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
         <v>-4724.849474482951</v>
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -7958,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -8037,11 +8037,11 @@
         <v>5</v>
       </c>
       <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
         <v>4</v>
       </c>
-      <c r="I81" t="n">
-        <v>9</v>
-      </c>
       <c r="J81" t="n">
         <v>2</v>
       </c>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
         <v>28.04829287347764</v>
@@ -8103,7 +8103,7 @@
         <v>5.5523</v>
       </c>
       <c r="AD81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
         <v>966.1731925122874</v>
@@ -8219,19 +8219,19 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -8322,10 +8322,10 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -8407,19 +8407,19 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0.9944</v>
       </c>
       <c r="AD85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -8498,7 +8498,7 @@
         <v>4</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -8522,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -8595,19 +8595,19 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
       </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88" t="n">
         <v>2</v>
@@ -8761,7 +8761,7 @@
         <v>0.9641</v>
       </c>
       <c r="AD88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -8780,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -8792,10 +8792,10 @@
         <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -8804,10 +8804,10 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
         <v>-1316.813456973687</v>
@@ -8855,7 +8855,7 @@
         <v>6.4688</v>
       </c>
       <c r="AD89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -8883,13 +8883,13 @@
         <v>7</v>
       </c>
       <c r="H90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
         <v>9234.52042309555</v>
@@ -8968,16 +8968,16 @@
         <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
         <v>5</v>
       </c>
       <c r="H91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -9043,7 +9043,7 @@
         <v>1.5633</v>
       </c>
       <c r="AD91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -9071,13 +9071,13 @@
         <v>4</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -9165,13 +9165,13 @@
         <v>12</v>
       </c>
       <c r="H93" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -9231,7 +9231,7 @@
         <v>1.0734</v>
       </c>
       <c r="AD93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -9250,7 +9250,7 @@
         <v>4</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -9265,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -9274,10 +9274,10 @@
         <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94" t="n">
         <v>-3689.831652043985</v>
@@ -9325,7 +9325,7 @@
         <v>2.3679</v>
       </c>
       <c r="AD94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -9347,19 +9347,19 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
         <v>4</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>1.3449</v>
       </c>
       <c r="AD95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -9447,13 +9447,13 @@
         <v>11</v>
       </c>
       <c r="H96" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -9462,10 +9462,10 @@
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
         <v>1408.3573639813</v>
@@ -9513,7 +9513,7 @@
         <v>1.965</v>
       </c>
       <c r="AD96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -9541,13 +9541,13 @@
         <v>9</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -9607,7 +9607,7 @@
         <v>1.7133</v>
       </c>
       <c r="AD97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -9626,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>12</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -9650,10 +9650,10 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98" t="n">
         <v>-1849.128522602885</v>
@@ -9701,7 +9701,7 @@
         <v>2.0071</v>
       </c>
       <c r="AD98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -9720,7 +9720,7 @@
         <v>4</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>3</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -9826,10 +9826,10 @@
         <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -9841,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O100" t="n">
         <v>-3369.335036501906</v>
@@ -9917,13 +9917,13 @@
         <v>3</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -10005,19 +10005,19 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>10</v>
       </c>
       <c r="H102" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -10077,7 +10077,7 @@
         <v>3.6246</v>
       </c>
       <c r="AD102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -10096,7 +10096,7 @@
         <v>4</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -10190,22 +10190,22 @@
         <v>3</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
         <v>1</v>
@@ -10265,7 +10265,7 @@
         <v>0.7392</v>
       </c>
       <c r="AD104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -10287,19 +10287,19 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
         <v>5</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -10387,7 +10387,7 @@
         <v>3</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -10402,10 +10402,10 @@
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106" t="n">
         <v>122.2923219649961</v>
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
@@ -10496,7 +10496,7 @@
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" t="n">
         <v>2</v>
@@ -10575,13 +10575,13 @@
         <v>5</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
@@ -10660,7 +10660,7 @@
         <v>4</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -10669,10 +10669,10 @@
         <v>9</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J109" t="n">
         <v>4</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109" t="n">
         <v>1408.571633415937</v>
@@ -10735,7 +10735,7 @@
         <v>2.6717</v>
       </c>
       <c r="AD109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -10763,13 +10763,13 @@
         <v>6</v>
       </c>
       <c r="H110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I110" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -10778,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
@@ -10848,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -10857,13 +10857,13 @@
         <v>10</v>
       </c>
       <c r="H111" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -10872,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>2.9117</v>
       </c>
       <c r="AD111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -10942,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -10951,10 +10951,10 @@
         <v>3</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -10966,10 +10966,10 @@
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O112" t="n">
         <v>-2876.129702282298</v>
@@ -11039,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
         <v>8</v>
@@ -11048,10 +11048,10 @@
         <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
@@ -11111,7 +11111,7 @@
         <v>3.859</v>
       </c>
       <c r="AD113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -11227,19 +11227,19 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0.877</v>
       </c>
       <c r="AD115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -11318,19 +11318,19 @@
         <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
         <v>11</v>
       </c>
       <c r="H116" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J116" t="n">
         <v>2</v>
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N116" t="n">
         <v>1</v>
@@ -11393,7 +11393,7 @@
         <v>3.2677</v>
       </c>
       <c r="AD116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -11421,13 +11421,13 @@
         <v>7</v>
       </c>
       <c r="H117" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J117" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -11436,10 +11436,10 @@
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O117" t="n">
         <v>-1364.465650481999</v>
@@ -11509,19 +11509,19 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G118" t="n">
         <v>8</v>
       </c>
       <c r="H118" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I118" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
@@ -11530,7 +11530,7 @@
         <v>1</v>
       </c>
       <c r="M118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N118" t="n">
         <v>0</v>
@@ -11609,13 +11609,13 @@
         <v>7</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -11694,22 +11694,22 @@
         <v>3</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K120" t="n">
         <v>0</v>
@@ -11718,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N120" t="n">
         <v>0</v>
@@ -11788,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -11797,13 +11797,13 @@
         <v>3</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
@@ -11815,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121" t="n">
         <v>1984.848979293467</v>
@@ -11882,7 +11882,7 @@
         <v>4</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -11891,13 +11891,13 @@
         <v>8</v>
       </c>
       <c r="H122" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J122" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K122" t="n">
         <v>0</v>
@@ -11906,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122" t="n">
         <v>0</v>
@@ -11957,7 +11957,7 @@
         <v>2.2281</v>
       </c>
       <c r="AD122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -11976,19 +11976,19 @@
         <v>8</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G123" t="n">
         <v>9</v>
       </c>
       <c r="H123" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I123" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J123" t="n">
         <v>2</v>
@@ -12000,10 +12000,10 @@
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O123" t="n">
         <v>-992.0580709999588</v>
@@ -12051,7 +12051,7 @@
         <v>2.0428</v>
       </c>
       <c r="AD123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -12073,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -12082,10 +12082,10 @@
         <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -12094,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
@@ -12167,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
         <v>4</v>
@@ -12176,10 +12176,10 @@
         <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K125" t="n">
         <v>0</v>
@@ -12188,7 +12188,7 @@
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
@@ -12267,13 +12267,13 @@
         <v>9</v>
       </c>
       <c r="H126" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J126" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -12333,7 +12333,7 @@
         <v>4.7238</v>
       </c>
       <c r="AD126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -12352,7 +12352,7 @@
         <v>4</v>
       </c>
       <c r="E127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -12361,13 +12361,13 @@
         <v>12</v>
       </c>
       <c r="H127" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I127" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -12376,10 +12376,10 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O127" t="n">
         <v>-2366.792765438533</v>
@@ -12427,7 +12427,7 @@
         <v>5.3823</v>
       </c>
       <c r="AD127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -12449,7 +12449,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -12458,10 +12458,10 @@
         <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
@@ -12470,7 +12470,7 @@
         <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
@@ -12549,13 +12549,13 @@
         <v>4</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -12564,10 +12564,10 @@
         <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O129" t="n">
         <v>-3026.500603721091</v>
@@ -12643,13 +12643,13 @@
         <v>9</v>
       </c>
       <c r="H130" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
@@ -12658,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N130" t="n">
         <v>0</v>
@@ -12709,7 +12709,7 @@
         <v>2.035</v>
       </c>
       <c r="AD130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12750,21 +12750,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1908606993457533</v>
+        <v>-0.4436695310114359</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3659055858351669</v>
+        <v>0.1115462080338427</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.506779769609188</v>
+        <v>-2.552964617669051</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.7905462464450561</v>
+        <v>-1.045534693985104</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -12772,10 +12772,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.109111222850486</v>
+        <v>-2.137824669210363</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.568190988314041</v>
+        <v>-1.99664345166649</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -12783,10 +12783,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.63277343750946</v>
+        <v>-0.9860919806196127</v>
       </c>
       <c r="B5" t="n">
-        <v>1.390017038793623</v>
+        <v>0.8154087520961352</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -12794,10 +12794,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.329311851987832</v>
+        <v>-1.354149252325586</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.748738768047562</v>
+        <v>-3.029918353867211</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -12805,21 +12805,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.329028747826906</v>
+        <v>-0.01871081950579793</v>
       </c>
       <c r="B7" t="n">
-        <v>0.544161595638408</v>
+        <v>1.73735231096227</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3604428218889268</v>
+        <v>0.3024945993928642</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3908795238398311</v>
+        <v>1.684262429425356</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -12827,10 +12827,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.037532536298508</v>
+        <v>-1.01582841785208</v>
       </c>
       <c r="B9" t="n">
-        <v>0.865823023965128</v>
+        <v>1.058606596292903</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -12838,21 +12838,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.08260631015877268</v>
+        <v>0.1206927290052698</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7088152109747015</v>
+        <v>1.294917397747076</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.057163357013976</v>
+        <v>-1.670376176558605</v>
       </c>
       <c r="B11" t="n">
-        <v>1.911947740614982</v>
+        <v>1.599003850624382</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -12860,10 +12860,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12.47764307187859</v>
+        <v>10.69655022274685</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.776218632777439</v>
+        <v>-1.340196350251486</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -12871,10 +12871,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.131498424484845</v>
+        <v>-0.896632156156692</v>
       </c>
       <c r="B13" t="n">
-        <v>1.797537805379153</v>
+        <v>1.469143624081172</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -12882,10 +12882,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.09017653887567</v>
+        <v>-1.697231987273505</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9316346405445973</v>
+        <v>0.5536935519056374</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -12893,10 +12893,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.057216666496261</v>
+        <v>-0.6773727710280706</v>
       </c>
       <c r="B15" t="n">
-        <v>2.171983992821431</v>
+        <v>2.012120056510237</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -12904,10 +12904,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-2.061214512349164</v>
+        <v>-1.57554827917964</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.462143951442354</v>
+        <v>-2.681646254197237</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -12915,10 +12915,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.628451864236427</v>
+        <v>-1.705416694977372</v>
       </c>
       <c r="B17" t="n">
-        <v>0.951667269328079</v>
+        <v>0.6783469844724855</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -12926,32 +12926,32 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.914600899290083</v>
+        <v>-0.09299245911103758</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.975222295580461</v>
+        <v>-3.440155253511618</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4718217605578544</v>
+        <v>-0.01996705151146459</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.3685207173682214</v>
+        <v>0.1857580530716798</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.2472280004629992</v>
+        <v>-1.270781582059707</v>
       </c>
       <c r="B20" t="n">
-        <v>2.164245661047814</v>
+        <v>1.579220413870475</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -12959,10 +12959,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-2.130735056915647</v>
+        <v>-1.314792755853022</v>
       </c>
       <c r="B21" t="n">
-        <v>1.765982256593765</v>
+        <v>0.6669515884368941</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -12970,10 +12970,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-2.387751508834486</v>
+        <v>-2.207606782065845</v>
       </c>
       <c r="B22" t="n">
-        <v>1.245228709853797</v>
+        <v>1.085621341685411</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -12981,10 +12981,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6.608726365600337</v>
+        <v>5.21456250558791</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8300532564925948</v>
+        <v>0.7435197812038423</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -12992,32 +12992,32 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.649044540185131</v>
+        <v>0.2513160335250574</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.7074489843233434</v>
+        <v>-0.0721988016089818</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.688937789512043</v>
+        <v>4.797280388479692</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.102523920711777</v>
+        <v>1.92103387260601</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1144278141115574</v>
+        <v>-0.7700252832115745</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.5715076371002107</v>
+        <v>-1.409580177986034</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -13025,10 +13025,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.784862795123283</v>
+        <v>-1.109270420521981</v>
       </c>
       <c r="B27" t="n">
-        <v>0.195106393839703</v>
+        <v>0.1323190400759676</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -13036,32 +13036,32 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.234819454982814</v>
+        <v>1.636057591201551</v>
       </c>
       <c r="B28" t="n">
-        <v>2.172479241989205</v>
+        <v>2.403854075522301</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.4175011288637289</v>
+        <v>0.421246669161672</v>
       </c>
       <c r="B29" t="n">
-        <v>2.435524174928006</v>
+        <v>3.177376084704047</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-1.632410369703638</v>
+        <v>-0.7665990857756096</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.469837030652126</v>
+        <v>-2.723950799237439</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -13069,10 +13069,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2.221240060268694</v>
+        <v>-2.579224602012471</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.904754668452463</v>
+        <v>-1.26371192335765</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -13080,54 +13080,54 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.7224532536782841</v>
+        <v>0.1572960878836377</v>
       </c>
       <c r="B32" t="n">
-        <v>1.442321323849333</v>
+        <v>2.770577355464537</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.0333693026978177</v>
+        <v>0.6169349816087968</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.9836784760613234</v>
+        <v>-0.7813374276328177</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.1910929839804708</v>
+        <v>-0.2439223626169187</v>
       </c>
       <c r="B34" t="n">
-        <v>0.331553921156577</v>
+        <v>0.6352731275087548</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.329067387001519</v>
+        <v>2.560202867701206</v>
       </c>
       <c r="B35" t="n">
-        <v>-2.683065786623112</v>
+        <v>-4.185737432985749</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-1.012090235894872</v>
+        <v>-0.6087118241686555</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5154182087667674</v>
+        <v>0.7888051841586438</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -13135,10 +13135,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.995890643833552</v>
+        <v>5.919649866997798</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.548998917467121</v>
+        <v>-2.024348725643005</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -13146,10 +13146,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-1.315539935879158</v>
+        <v>-1.066735600796957</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.869288785243372</v>
+        <v>-1.995309383887442</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -13157,21 +13157,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.0869309624686074</v>
+        <v>0.7051405853126164</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.196263275901467</v>
+        <v>-1.198874865536816</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.183806333593142</v>
+        <v>3.887775258064225</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2004769012878021</v>
+        <v>0.1331664269660513</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -13179,10 +13179,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1.586076500520347</v>
+        <v>-1.749209030421414</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2886082171988077</v>
+        <v>-0.06191101618877425</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -13190,21 +13190,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.200706348435041</v>
+        <v>0.4026346773616776</v>
       </c>
       <c r="B42" t="n">
-        <v>2.75818225634889</v>
+        <v>2.720570808930268</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1.802074992134751</v>
+        <v>-1.300878321896533</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.4437100505745481</v>
+        <v>-0.4749853039719752</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -13212,10 +13212,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-2.887664760982934</v>
+        <v>-2.824682996042519</v>
       </c>
       <c r="B44" t="n">
-        <v>-2.444498369489319</v>
+        <v>-2.891557646916793</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -13223,10 +13223,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1.685160576675183</v>
+        <v>-1.394031702875836</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.7399866228604961</v>
+        <v>-0.5235705857766223</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -13234,10 +13234,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.11716027544879</v>
+        <v>-1.260477832655408</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.9487334942088388</v>
+        <v>-1.294113329450839</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -13245,43 +13245,43 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.407739995986302</v>
+        <v>4.915907773101075</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.682929803215824</v>
+        <v>0.5929145203232659</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.7684952609651861</v>
+        <v>0.3789244084711413</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.693335315850024</v>
+        <v>-1.209426325632283</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.143858989705802</v>
+        <v>2.782264062084168</v>
       </c>
       <c r="B49" t="n">
-        <v>1.675532929199232</v>
+        <v>2.243960794999061</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.2943588561802618</v>
+        <v>-1.251673453176385</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.017039485195257</v>
+        <v>-0.8040011401766642</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -13289,10 +13289,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.5294781019766479</v>
+        <v>-0.8818112990797699</v>
       </c>
       <c r="B51" t="n">
-        <v>3.360813235040287</v>
+        <v>3.208940380482289</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -13300,10 +13300,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.3332873643640449</v>
+        <v>-0.4756742584929809</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7434705184399839</v>
+        <v>0.7118764194349128</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -13311,21 +13311,21 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.13153683830464</v>
+        <v>0.3345748468978907</v>
       </c>
       <c r="B53" t="n">
-        <v>2.097439081880499</v>
+        <v>2.277777401543908</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-2.399483822074072</v>
+        <v>-2.652555873519609</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.5043344259712111</v>
+        <v>-0.8859816667388367</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -13333,32 +13333,32 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.7447173396012134</v>
+        <v>-0.192527894929501</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3609246313069229</v>
+        <v>0.1787147947875864</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.291757756112488</v>
+        <v>3.506953169612379</v>
       </c>
       <c r="B56" t="n">
-        <v>-3.25726573625893</v>
+        <v>-2.60563984332449</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.461322652302722</v>
+        <v>-1.662056484451635</v>
       </c>
       <c r="B57" t="n">
-        <v>1.970513802830618</v>
+        <v>1.462239808563268</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -13366,43 +13366,43 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.159852091341629</v>
+        <v>1.81018327739288</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.8618149612736209</v>
+        <v>-0.889266580292185</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.334647531276215</v>
+        <v>0.9725976041407328</v>
       </c>
       <c r="B59" t="n">
-        <v>1.024319717957682</v>
+        <v>1.682435547614781</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.3869903492700579</v>
+        <v>1.671010552092243</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.945350755166499</v>
+        <v>-2.214531949910944</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1.89215193706035</v>
+        <v>-1.707436264154747</v>
       </c>
       <c r="B61" t="n">
-        <v>-2.206256713219717</v>
+        <v>-2.105208885629584</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -13410,10 +13410,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.2380538673395332</v>
+        <v>0.5942234757707581</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.020343662235996</v>
+        <v>0.4199671259448592</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -13421,21 +13421,21 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.74880351607835</v>
+        <v>1.996883747166792</v>
       </c>
       <c r="B63" t="n">
-        <v>3.763301185086333</v>
+        <v>4.811918430150056</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.035327770961622</v>
+        <v>2.742995302925682</v>
       </c>
       <c r="B64" t="n">
-        <v>1.08190406379586</v>
+        <v>0.7684460905819926</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -13443,10 +13443,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-1.138858329056959</v>
+        <v>-1.862994459384498</v>
       </c>
       <c r="B65" t="n">
-        <v>1.636242419224794</v>
+        <v>1.605197371296973</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -13454,10 +13454,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.415086061162294</v>
+        <v>-1.042334239510765</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.1442986453418756</v>
+        <v>-0.3372457794989561</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -13465,21 +13465,21 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.293801736659635</v>
+        <v>3.134964416302678</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.2088753024797561</v>
+        <v>0.486625756965706</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.03566969785418036</v>
+        <v>-0.4095709510028334</v>
       </c>
       <c r="B68" t="n">
-        <v>1.457525558295474</v>
+        <v>1.262848971950735</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -13487,10 +13487,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-2.429576829525194</v>
+        <v>-2.584693388549489</v>
       </c>
       <c r="B69" t="n">
-        <v>1.852377633967898</v>
+        <v>1.557187284962438</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -13498,10 +13498,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.635148089816315</v>
+        <v>4.532461324510936</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.340662592709435</v>
+        <v>-0.6566164362361192</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -13509,10 +13509,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-1.6570394527389</v>
+        <v>-1.585758052067027</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9978509147070938</v>
+        <v>0.7136195208113619</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -13520,32 +13520,32 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.272848675378569</v>
+        <v>1.290554929727522</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.8819087936857196</v>
+        <v>0.2536295504095654</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.08438113882208172</v>
+        <v>-0.09784541330489152</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7785170505721495</v>
+        <v>0.01611125318227001</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.311354761114238</v>
+        <v>-1.784046720266522</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2364333181464449</v>
+        <v>-0.7616777627877224</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -13553,10 +13553,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.3658478985991387</v>
+        <v>-0.6103086817521326</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.1176530112872348</v>
+        <v>-1.125137454531624</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -13564,10 +13564,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-2.916157530737297</v>
+        <v>-2.585273717095164</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.9967225098543362</v>
+        <v>-1.250530998112649</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -13575,10 +13575,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-1.547391344746699</v>
+        <v>-1.327046552206724</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6245603591757498</v>
+        <v>0.03695697642148252</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -13586,10 +13586,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.5660294296085677</v>
+        <v>0.6403773761308845</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8863989292720917</v>
+        <v>-0.5261907041761146</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -13597,10 +13597,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-1.356545728586015</v>
+        <v>-1.056149547632088</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.512939123304003</v>
+        <v>-0.7055481094275635</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -13608,10 +13608,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1.695474277321827</v>
+        <v>-1.539817423180145</v>
       </c>
       <c r="B80" t="n">
-        <v>-3.058300346814725</v>
+        <v>-2.750973164035568</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -13619,21 +13619,21 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.469556951095382</v>
+        <v>0.2955535013037613</v>
       </c>
       <c r="B81" t="n">
-        <v>4.319434324261444</v>
+        <v>3.696591102969549</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1.986129006964492</v>
+        <v>-2.235091807418053</v>
       </c>
       <c r="B82" t="n">
-        <v>1.129825969879194</v>
+        <v>0.997566944304999</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -13641,10 +13641,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-2.558156435419672</v>
+        <v>-2.131606446165465</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9379853121319103</v>
+        <v>0.06365689156576559</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -13652,10 +13652,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-2.263139661115464</v>
+        <v>-2.279927908591692</v>
       </c>
       <c r="B84" t="n">
-        <v>2.148533529536254</v>
+        <v>1.927632944583169</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -13663,21 +13663,21 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-1.043040404593247</v>
+        <v>0.09239188612317235</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.900608195739257</v>
+        <v>-2.733381368897144</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-0.8796427738132406</v>
+        <v>-1.028246374851562</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3372446984041282</v>
+        <v>0.1484392403897427</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -13685,10 +13685,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.4087632617641577</v>
+        <v>-0.6164852438834324</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.390263065411235</v>
+        <v>-1.361303317138381</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -13696,32 +13696,32 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.127455662164863</v>
+        <v>1.384173284777692</v>
       </c>
       <c r="B88" t="n">
-        <v>-4.560459062696539</v>
+        <v>-3.848665223830233</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.04644892019302703</v>
+        <v>0.07570811454566889</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.327733084963999</v>
+        <v>-0.9394091232605882</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-1.74794289615966</v>
+        <v>-2.311410313132682</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.2657177092071387</v>
+        <v>-0.6589606435722177</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -13729,21 +13729,21 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.4990286795429164</v>
+        <v>1.16146377481289</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.271310259054607</v>
+        <v>-1.931289530962189</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-2.917260634837531</v>
+        <v>-2.974129231527315</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1095021215164401</v>
+        <v>-0.4588457374940185</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -13751,76 +13751,76 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.08141293849578279</v>
+        <v>-0.05817570871379336</v>
       </c>
       <c r="B93" t="n">
-        <v>0.394410675695581</v>
+        <v>0.6836661876793959</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8805516131236513</v>
+        <v>0.7771874283316036</v>
       </c>
       <c r="B94" t="n">
-        <v>0.136944674676399</v>
+        <v>-0.1372183388609771</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.7334243625859205</v>
+        <v>0.230157248156758</v>
       </c>
       <c r="B95" t="n">
-        <v>-1.726047509431437</v>
+        <v>-2.389767104051115</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.069441133869951</v>
+        <v>-0.554144771258417</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2516230830862783</v>
+        <v>-0.7926766505874552</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.798747818947909</v>
+        <v>-0.2895445015645448</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1263114601622364</v>
+        <v>0.1471266171979496</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.08150783585485763</v>
+        <v>0.5502743779786605</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.284784912125463</v>
+        <v>0.05895590915424552</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1.92289177901552</v>
+        <v>-1.384974463000237</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.573070557505811</v>
+        <v>-1.969397246270018</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -13828,10 +13828,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5.290791312201956</v>
+        <v>5.737750860153931</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.711465774008023</v>
+        <v>-1.58563208660183</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -13839,10 +13839,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1.428241730912815</v>
+        <v>-1.698224828229418</v>
       </c>
       <c r="B101" t="n">
-        <v>1.361247893603367</v>
+        <v>1.097804054068323</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -13850,21 +13850,21 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.513484407144321</v>
+        <v>1.081758036355956</v>
       </c>
       <c r="B102" t="n">
-        <v>0.04457213825701318</v>
+        <v>-0.2870625234975593</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-1.078445733167781</v>
+        <v>-1.244779001917016</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1763090580888664</v>
+        <v>-0.1460021356220074</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -13872,21 +13872,21 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.4487185084503947</v>
+        <v>1.358792839587146</v>
       </c>
       <c r="B104" t="n">
-        <v>-3.919510575168032</v>
+        <v>-1.406182130289185</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-3.155843263999777</v>
+        <v>-2.860392662768683</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.5891231491766633</v>
+        <v>-1.058509669405181</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -13894,10 +13894,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1.304378651047383</v>
+        <v>-1.69288770545951</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3394631364902684</v>
+        <v>-0.07057436576862511</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -13905,10 +13905,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-0.6403957757164425</v>
+        <v>-1.496904210456654</v>
       </c>
       <c r="B107" t="n">
-        <v>2.737901515893578</v>
+        <v>2.719749151267672</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -13916,10 +13916,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1.830306886065874</v>
+        <v>-0.8131259895840204</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.7290910704689397</v>
+        <v>0.007800383117449807</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -13927,21 +13927,21 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.5901150976289989</v>
+        <v>1.211698180634044</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.246155432951138</v>
+        <v>0.3393553722385698</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.1512767432784745</v>
+        <v>-0.911672939908546</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.3904483307098449</v>
+        <v>-0.8500334364105337</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -13949,21 +13949,21 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.197295185634523</v>
+        <v>0.6035403132255486</v>
       </c>
       <c r="B111" t="n">
-        <v>0.762371509388532</v>
+        <v>0.9650940118867425</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.640984013432091</v>
+        <v>-1.094359183352737</v>
       </c>
       <c r="B112" t="n">
-        <v>-1.650786714201955</v>
+        <v>-0.4923828318042652</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -13971,21 +13971,21 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1976896867367085</v>
+        <v>0.1052538674363643</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.7532067656397204</v>
+        <v>-0.2354866269366008</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-2.045817434636775</v>
+        <v>-2.330616990842951</v>
       </c>
       <c r="B114" t="n">
-        <v>1.89761436352334</v>
+        <v>1.545845519576921</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -13993,32 +13993,32 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-0.3670950134901925</v>
+        <v>1.16652214563941</v>
       </c>
       <c r="B115" t="n">
-        <v>-3.746812957255043</v>
+        <v>-3.657339961527228</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.9749047065782218</v>
+        <v>1.741059297212006</v>
       </c>
       <c r="B116" t="n">
-        <v>0.7460678661152439</v>
+        <v>0.8963344617235847</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>4.969642377792539</v>
+        <v>2.630749428152832</v>
       </c>
       <c r="B117" t="n">
-        <v>4.277301388595113</v>
+        <v>2.952788391330244</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -14026,10 +14026,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4.915626471655069</v>
+        <v>4.622001231226675</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.9972038185045212</v>
+        <v>-1.872846123766907</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -14037,10 +14037,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.496526768991235</v>
+        <v>-1.963635750501128</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.5978613879685155</v>
+        <v>-1.077726019538773</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -14048,10 +14048,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1.67113065304803</v>
+        <v>-1.025087754493988</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.424074886646442</v>
+        <v>-1.681170891682591</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -14059,10 +14059,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.704984710369793</v>
+        <v>-1.328585057613255</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.365209443495617</v>
+        <v>-1.07705379379718</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -14070,32 +14070,32 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2.059394677941363</v>
+        <v>1.557291259435504</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3066817259183697</v>
+        <v>0.3309230481149619</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.258952586113489</v>
+        <v>2.665507709490603</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1756508110823449</v>
+        <v>-0.6775766142060414</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1.938552187668615</v>
+        <v>-2.371667129169497</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7543079912792529</v>
+        <v>0.08799460718020742</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -14103,10 +14103,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-1.774863042096091</v>
+        <v>-1.313591384368912</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4900979116404423</v>
+        <v>-0.04704111732695351</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -14114,32 +14114,32 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.695215571960443</v>
+        <v>2.722441545448401</v>
       </c>
       <c r="B126" t="n">
-        <v>2.155829390476018</v>
+        <v>3.87098318391917</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2.853178430338791</v>
+        <v>1.479759012499296</v>
       </c>
       <c r="B127" t="n">
-        <v>2.64264057432548</v>
+        <v>1.520956615709819</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-0.7314957491660677</v>
+        <v>-0.7435717925376555</v>
       </c>
       <c r="B128" t="n">
-        <v>2.861773077889153</v>
+        <v>2.570172866280672</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -14147,10 +14147,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-0.9405387664711492</v>
+        <v>-1.036371033689125</v>
       </c>
       <c r="B129" t="n">
-        <v>1.416963463830395</v>
+        <v>1.634890009721127</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
@@ -14158,13 +14158,13 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.274669233407429</v>
+        <v>0.1647652328354683</v>
       </c>
       <c r="B130" t="n">
-        <v>2.431568743137722</v>
+        <v>2.192648760514019</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Results/pca_kmeans_results_indep_variables.xlsx
+++ b/Results/pca_kmeans_results_indep_variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cluster_Asignations" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="PCA_Results" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cluster_Asignations" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PCA_Results" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1108,7 +1108,7 @@
         <v>6829.59651477506</v>
       </c>
       <c r="Q7" t="n">
-        <v>1196.167220949687</v>
+        <v>1196.16722094969</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -12750,10 +12750,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.4436695310114359</v>
+        <v>-0.4436695310114349</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1115462080338427</v>
+        <v>0.1115462080338439</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.552964617669051</v>
+        <v>-2.552964617669048</v>
       </c>
       <c r="B3" t="n">
         <v>-1.045534693985104</v>
@@ -12772,10 +12772,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.137824669210363</v>
+        <v>-2.137824669210361</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.99664345166649</v>
+        <v>-1.996643451666487</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -12783,10 +12783,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.9860919806196127</v>
+        <v>-0.9860919806196128</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8154087520961352</v>
+        <v>0.8154087520961329</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -12794,7 +12794,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.354149252325586</v>
+        <v>-1.354149252325584</v>
       </c>
       <c r="B6" t="n">
         <v>-3.029918353867211</v>
@@ -12805,10 +12805,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.01871081950579793</v>
+        <v>-0.01871081950579765</v>
       </c>
       <c r="B7" t="n">
-        <v>1.73735231096227</v>
+        <v>1.737352310962268</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -12816,10 +12816,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3024945993928642</v>
+        <v>0.3024945993928644</v>
       </c>
       <c r="B8" t="n">
-        <v>1.684262429425356</v>
+        <v>1.684262429425355</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -12827,7 +12827,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.01582841785208</v>
+        <v>-1.015828417852081</v>
       </c>
       <c r="B9" t="n">
         <v>1.058606596292903</v>
@@ -12838,10 +12838,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1206927290052698</v>
+        <v>0.1206927290052696</v>
       </c>
       <c r="B10" t="n">
-        <v>1.294917397747076</v>
+        <v>1.294917397747083</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -12849,10 +12849,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.670376176558605</v>
+        <v>-1.670376176558603</v>
       </c>
       <c r="B11" t="n">
-        <v>1.599003850624382</v>
+        <v>1.599003850624377</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -12860,10 +12860,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.69655022274685</v>
+        <v>10.69655022274683</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.340196350251486</v>
+        <v>-1.340196350251493</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -12871,10 +12871,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.896632156156692</v>
+        <v>-0.8966321561566912</v>
       </c>
       <c r="B13" t="n">
-        <v>1.469143624081172</v>
+        <v>1.469143624081167</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -12882,10 +12882,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.697231987273505</v>
+        <v>-1.697231987273503</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5536935519056374</v>
+        <v>0.5536935519056333</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -12893,10 +12893,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.6773727710280706</v>
+        <v>-0.6773727710280691</v>
       </c>
       <c r="B15" t="n">
-        <v>2.012120056510237</v>
+        <v>2.012120056510225</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -12904,10 +12904,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.57554827917964</v>
+        <v>-1.575548279179639</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.681646254197237</v>
+        <v>-2.681646254197236</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -12915,10 +12915,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.705416694977372</v>
+        <v>-1.70541669497737</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6783469844724855</v>
+        <v>0.6783469844724851</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -12926,10 +12926,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.09299245911103758</v>
+        <v>-0.09299245911103714</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.440155253511618</v>
+        <v>-3.440155253511615</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -12937,10 +12937,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.01996705151146459</v>
+        <v>-0.01996705151146363</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1857580530716798</v>
+        <v>0.1857580530716799</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -12948,10 +12948,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.270781582059707</v>
+        <v>-1.270781582059705</v>
       </c>
       <c r="B20" t="n">
-        <v>1.579220413870475</v>
+        <v>1.579220413870473</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -12959,10 +12959,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.314792755853022</v>
+        <v>-1.31479275585302</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6669515884368941</v>
+        <v>0.6669515884368862</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -12970,10 +12970,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-2.207606782065845</v>
+        <v>-2.207606782065844</v>
       </c>
       <c r="B22" t="n">
-        <v>1.085621341685411</v>
+        <v>1.085621341685406</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -12981,10 +12981,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.21456250558791</v>
+        <v>5.214562505587906</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7435197812038423</v>
+        <v>0.7435197812038321</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -12992,10 +12992,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.2513160335250574</v>
+        <v>0.2513160335250564</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.0721988016089818</v>
+        <v>-0.07219880160897175</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -13003,10 +13003,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.797280388479692</v>
+        <v>4.797280388479694</v>
       </c>
       <c r="B25" t="n">
-        <v>1.92103387260601</v>
+        <v>1.921033872606034</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -13014,10 +13014,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.7700252832115745</v>
+        <v>-0.7700252832115755</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.409580177986034</v>
+        <v>-1.409580177986032</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -13025,10 +13025,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1.109270420521981</v>
+        <v>-1.109270420521979</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1323190400759676</v>
+        <v>0.1323190400759705</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -13036,10 +13036,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.636057591201551</v>
+        <v>1.636057591201548</v>
       </c>
       <c r="B28" t="n">
-        <v>2.403854075522301</v>
+        <v>2.403854075522302</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -13047,10 +13047,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.421246669161672</v>
+        <v>0.4212466691616703</v>
       </c>
       <c r="B29" t="n">
-        <v>3.177376084704047</v>
+        <v>3.17737608470405</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -13058,10 +13058,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.7665990857756096</v>
+        <v>-0.7665990857756094</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.723950799237439</v>
+        <v>-2.723950799237434</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -13069,10 +13069,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-2.579224602012471</v>
+        <v>-2.579224602012469</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.26371192335765</v>
+        <v>-1.263711923357648</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -13080,10 +13080,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.1572960878836377</v>
+        <v>0.1572960878836372</v>
       </c>
       <c r="B32" t="n">
-        <v>2.770577355464537</v>
+        <v>2.770577355464536</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -13091,10 +13091,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.6169349816087968</v>
+        <v>0.6169349816087976</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.7813374276328177</v>
+        <v>-0.7813374276328197</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -13105,7 +13105,7 @@
         <v>-0.2439223626169187</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6352731275087548</v>
+        <v>0.6352731275087573</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -13113,10 +13113,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.560202867701206</v>
+        <v>2.560202867701207</v>
       </c>
       <c r="B35" t="n">
-        <v>-4.185737432985749</v>
+        <v>-4.185737432985746</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -13124,10 +13124,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.6087118241686555</v>
+        <v>-0.6087118241686548</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7888051841586438</v>
+        <v>0.7888051841586409</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -13135,10 +13135,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.919649866997798</v>
+        <v>5.919649866997794</v>
       </c>
       <c r="B37" t="n">
-        <v>-2.024348725643005</v>
+        <v>-2.024348725643013</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -13146,10 +13146,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-1.066735600796957</v>
+        <v>-1.066735600796955</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.995309383887442</v>
+        <v>-1.995309383887443</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -13157,10 +13157,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.7051405853126164</v>
+        <v>0.7051405853126166</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.198874865536816</v>
+        <v>-1.198874865536808</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -13171,7 +13171,7 @@
         <v>3.887775258064225</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1331664269660513</v>
+        <v>0.1331664269660437</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -13179,10 +13179,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1.749209030421414</v>
+        <v>-1.749209030421412</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.06191101618877425</v>
+        <v>-0.06191101618877518</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -13190,10 +13190,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.4026346773616776</v>
+        <v>0.4026346773616771</v>
       </c>
       <c r="B42" t="n">
-        <v>2.720570808930268</v>
+        <v>2.720570808930264</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -13201,10 +13201,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-1.300878321896533</v>
+        <v>-1.30087832189653</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.4749853039719752</v>
+        <v>-0.474985303971974</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -13212,10 +13212,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-2.824682996042519</v>
+        <v>-2.824682996042517</v>
       </c>
       <c r="B44" t="n">
-        <v>-2.891557646916793</v>
+        <v>-2.891557646916791</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -13223,10 +13223,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-1.394031702875836</v>
+        <v>-1.394031702875834</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.5235705857766223</v>
+        <v>-0.5235705857766245</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -13234,10 +13234,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.260477832655408</v>
+        <v>-1.260477832655406</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.294113329450839</v>
+        <v>-1.294113329450834</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -13245,10 +13245,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.915907773101075</v>
+        <v>4.915907773101077</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5929145203232659</v>
+        <v>0.5929145203232716</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -13256,10 +13256,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.3789244084711413</v>
+        <v>0.3789244084711403</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.209426325632283</v>
+        <v>-1.209426325632277</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -13267,10 +13267,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.782264062084168</v>
+        <v>2.782264062084167</v>
       </c>
       <c r="B49" t="n">
-        <v>2.243960794999061</v>
+        <v>2.243960794999062</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -13278,10 +13278,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-1.251673453176385</v>
+        <v>-1.251673453176383</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.8040011401766642</v>
+        <v>-0.8040011401766651</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -13289,10 +13289,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8818112990797699</v>
+        <v>-0.881811299079768</v>
       </c>
       <c r="B51" t="n">
-        <v>3.208940380482289</v>
+        <v>3.208940380482278</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -13300,10 +13300,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.4756742584929809</v>
+        <v>-0.4756742584929814</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7118764194349128</v>
+        <v>0.7118764194349158</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -13311,10 +13311,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.3345748468978907</v>
+        <v>0.3345748468978901</v>
       </c>
       <c r="B53" t="n">
-        <v>2.277777401543908</v>
+        <v>2.277777401543907</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -13322,10 +13322,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-2.652555873519609</v>
+        <v>-2.652555873519606</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.8859816667388367</v>
+        <v>-0.8859816667388342</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -13333,10 +13333,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.192527894929501</v>
+        <v>-0.1925278949295004</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1787147947875864</v>
+        <v>0.1787147947875847</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -13344,10 +13344,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.506953169612379</v>
+        <v>3.506953169612375</v>
       </c>
       <c r="B56" t="n">
-        <v>-2.60563984332449</v>
+        <v>-2.605639843324489</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -13355,10 +13355,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-1.662056484451635</v>
+        <v>-1.662056484451634</v>
       </c>
       <c r="B57" t="n">
-        <v>1.462239808563268</v>
+        <v>1.462239808563264</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -13366,10 +13366,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.81018327739288</v>
+        <v>1.810183277392875</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.889266580292185</v>
+        <v>-0.8892665802921894</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -13377,10 +13377,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9725976041407328</v>
+        <v>0.9725976041407313</v>
       </c>
       <c r="B59" t="n">
-        <v>1.682435547614781</v>
+        <v>1.682435547614779</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -13388,10 +13388,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.671010552092243</v>
+        <v>1.671010552092244</v>
       </c>
       <c r="B60" t="n">
-        <v>-2.214531949910944</v>
+        <v>-2.214531949910938</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -13399,10 +13399,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-1.707436264154747</v>
+        <v>-1.707436264154746</v>
       </c>
       <c r="B61" t="n">
-        <v>-2.105208885629584</v>
+        <v>-2.105208885629583</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -13410,10 +13410,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.5942234757707581</v>
+        <v>0.5942234757707486</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4199671259448592</v>
+        <v>0.41996712594487</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -13421,7 +13421,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.996883747166792</v>
+        <v>1.99688374716679</v>
       </c>
       <c r="B63" t="n">
         <v>4.811918430150056</v>
@@ -13432,10 +13432,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.742995302925682</v>
+        <v>2.742995302925678</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7684460905819926</v>
+        <v>0.7684460905819877</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -13443,10 +13443,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-1.862994459384498</v>
+        <v>-1.862994459384496</v>
       </c>
       <c r="B65" t="n">
-        <v>1.605197371296973</v>
+        <v>1.605197371296971</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -13454,10 +13454,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-1.042334239510765</v>
+        <v>-1.042334239510764</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.3372457794989561</v>
+        <v>-0.3372457794989562</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -13465,10 +13465,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3.134964416302678</v>
+        <v>3.134964416302676</v>
       </c>
       <c r="B67" t="n">
-        <v>0.486625756965706</v>
+        <v>0.4866257569657118</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -13476,10 +13476,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-0.4095709510028334</v>
+        <v>-0.4095709510028326</v>
       </c>
       <c r="B68" t="n">
-        <v>1.262848971950735</v>
+        <v>1.262848971950729</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -13487,10 +13487,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-2.584693388549489</v>
+        <v>-2.584693388549486</v>
       </c>
       <c r="B69" t="n">
-        <v>1.557187284962438</v>
+        <v>1.557187284962432</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -13498,10 +13498,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.532461324510936</v>
+        <v>4.532461324510922</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.6566164362361192</v>
+        <v>-0.6566164362361105</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -13509,10 +13509,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-1.585758052067027</v>
+        <v>-1.585758052067026</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7136195208113619</v>
+        <v>0.7136195208113582</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -13520,10 +13520,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.290554929727522</v>
+        <v>1.29055492972752</v>
       </c>
       <c r="B72" t="n">
-        <v>0.2536295504095654</v>
+        <v>0.2536295504095757</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -13531,10 +13531,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.09784541330489152</v>
+        <v>-0.09784541330489233</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01611125318227001</v>
+        <v>0.01611125318226974</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -13542,10 +13542,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1.784046720266522</v>
+        <v>-1.78404672026652</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.7616777627877224</v>
+        <v>-0.7616777627877223</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -13553,10 +13553,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-0.6103086817521326</v>
+        <v>-0.6103086817521334</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.125137454531624</v>
+        <v>-1.125137454531628</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -13564,10 +13564,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-2.585273717095164</v>
+        <v>-2.585273717095161</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.250530998112649</v>
+        <v>-1.250530998112642</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -13575,10 +13575,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-1.327046552206724</v>
+        <v>-1.327046552206723</v>
       </c>
       <c r="B77" t="n">
-        <v>0.03695697642148252</v>
+        <v>0.03695697642147866</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -13586,10 +13586,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.6403773761308845</v>
+        <v>0.6403773761308836</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.5261907041761146</v>
+        <v>-0.5261907041761207</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -13597,10 +13597,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-1.056149547632088</v>
+        <v>-1.056149547632089</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.7055481094275635</v>
+        <v>-0.7055481094275593</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -13608,10 +13608,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1.539817423180145</v>
+        <v>-1.539817423180144</v>
       </c>
       <c r="B80" t="n">
-        <v>-2.750973164035568</v>
+        <v>-2.750973164035569</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -13619,10 +13619,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.2955535013037613</v>
+        <v>0.2955535013037608</v>
       </c>
       <c r="B81" t="n">
-        <v>3.696591102969549</v>
+        <v>3.696591102969545</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -13630,10 +13630,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-2.235091807418053</v>
+        <v>-2.235091807418051</v>
       </c>
       <c r="B82" t="n">
-        <v>0.997566944304999</v>
+        <v>0.9975669443049966</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -13641,10 +13641,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-2.131606446165465</v>
+        <v>-2.131606446165463</v>
       </c>
       <c r="B83" t="n">
-        <v>0.06365689156576559</v>
+        <v>0.06365689156576093</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -13652,10 +13652,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-2.279927908591692</v>
+        <v>-2.27992790859169</v>
       </c>
       <c r="B84" t="n">
-        <v>1.927632944583169</v>
+        <v>1.927632944583164</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -13663,10 +13663,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.09239188612317235</v>
+        <v>0.09239188612317326</v>
       </c>
       <c r="B85" t="n">
-        <v>-2.733381368897144</v>
+        <v>-2.733381368897143</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -13674,10 +13674,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-1.028246374851562</v>
+        <v>-1.02824637485156</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1484392403897427</v>
+        <v>0.1484392403897388</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -13685,10 +13685,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.6164852438834324</v>
+        <v>-0.616485243883432</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.361303317138381</v>
+        <v>-1.361303317138384</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -13699,7 +13699,7 @@
         <v>1.384173284777692</v>
       </c>
       <c r="B88" t="n">
-        <v>-3.848665223830233</v>
+        <v>-3.848665223830235</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -13707,10 +13707,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.07570811454566889</v>
+        <v>0.07570811454566993</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.9394091232605882</v>
+        <v>-0.9394091232605806</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -13718,10 +13718,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-2.311410313132682</v>
+        <v>-2.31141031313268</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.6589606435722177</v>
+        <v>-0.6589606435722167</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -13729,10 +13729,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.16146377481289</v>
+        <v>1.161463774812888</v>
       </c>
       <c r="B91" t="n">
-        <v>-1.931289530962189</v>
+        <v>-1.93128953096219</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -13740,10 +13740,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-2.974129231527315</v>
+        <v>-2.974129231527311</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.4588457374940185</v>
+        <v>-0.4588457374940176</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -13751,10 +13751,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.05817570871379336</v>
+        <v>-0.05817570871379459</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6836661876793959</v>
+        <v>0.6836661876794</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -13762,10 +13762,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.7771874283316036</v>
+        <v>0.777187428331602</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.1372183388609771</v>
+        <v>-0.1372183388609774</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -13773,10 +13773,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.230157248156758</v>
+        <v>0.2301572481567581</v>
       </c>
       <c r="B95" t="n">
-        <v>-2.389767104051115</v>
+        <v>-2.389767104051113</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -13784,10 +13784,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.554144771258417</v>
+        <v>-0.5541447712584169</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.7926766505874552</v>
+        <v>-0.7926766505874514</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -13795,10 +13795,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.2895445015645448</v>
+        <v>-0.2895445015645449</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1471266171979496</v>
+        <v>0.1471266171979513</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -13806,10 +13806,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.5502743779786605</v>
+        <v>0.5502743779786586</v>
       </c>
       <c r="B98" t="n">
-        <v>0.05895590915424552</v>
+        <v>0.05895590915424261</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -13817,10 +13817,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1.384974463000237</v>
+        <v>-1.384974463000235</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.969397246270018</v>
+        <v>-1.96939724627002</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -13828,10 +13828,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5.737750860153931</v>
+        <v>5.737750860153929</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.58563208660183</v>
+        <v>-1.585632086601841</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
@@ -13839,10 +13839,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1.698224828229418</v>
+        <v>-1.698224828229419</v>
       </c>
       <c r="B101" t="n">
-        <v>1.097804054068323</v>
+        <v>1.097804054068321</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -13853,7 +13853,7 @@
         <v>1.081758036355956</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.2870625234975593</v>
+        <v>-0.2870625234975587</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -13861,10 +13861,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-1.244779001917016</v>
+        <v>-1.244779001917015</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.1460021356220074</v>
+        <v>-0.1460021356220088</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -13872,10 +13872,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.358792839587146</v>
+        <v>1.358792839587145</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.406182130289185</v>
+        <v>-1.406182130289169</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -13883,10 +13883,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-2.860392662768683</v>
+        <v>-2.860392662768681</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.058509669405181</v>
+        <v>-1.05850966940518</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -13894,10 +13894,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1.69288770545951</v>
+        <v>-1.692887705459509</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.07057436576862511</v>
+        <v>-0.07057436576862394</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -13905,10 +13905,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.496904210456654</v>
+        <v>-1.496904210456652</v>
       </c>
       <c r="B107" t="n">
-        <v>2.719749151267672</v>
+        <v>2.719749151267668</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -13916,10 +13916,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-0.8131259895840204</v>
+        <v>-0.8131259895840187</v>
       </c>
       <c r="B108" t="n">
-        <v>0.007800383117449807</v>
+        <v>0.007800383117457701</v>
       </c>
       <c r="C108" t="n">
         <v>1</v>
@@ -13927,10 +13927,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.211698180634044</v>
+        <v>1.211698180634043</v>
       </c>
       <c r="B109" t="n">
-        <v>0.3393553722385698</v>
+        <v>0.3393553722385644</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -13938,10 +13938,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.911672939908546</v>
+        <v>-0.9116729399085446</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.8500334364105337</v>
+        <v>-0.8500334364105293</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -13949,10 +13949,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.6035403132255486</v>
+        <v>0.6035403132255472</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9650940118867425</v>
+        <v>0.9650940118867445</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -13960,10 +13960,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-1.094359183352737</v>
+        <v>-1.094359183352736</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.4923828318042652</v>
+        <v>-0.4923828318042596</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -13971,10 +13971,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1052538674363643</v>
+        <v>0.1052538674363626</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.2354866269366008</v>
+        <v>-0.2354866269365917</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -13982,10 +13982,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-2.330616990842951</v>
+        <v>-2.330616990842949</v>
       </c>
       <c r="B114" t="n">
-        <v>1.545845519576921</v>
+        <v>1.545845519576917</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -13993,10 +13993,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.16652214563941</v>
+        <v>1.166522145639411</v>
       </c>
       <c r="B115" t="n">
-        <v>-3.657339961527228</v>
+        <v>-3.657339961527217</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -14004,10 +14004,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.741059297212006</v>
+        <v>1.741059297212003</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8963344617235847</v>
+        <v>0.896334461723583</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -14015,10 +14015,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.630749428152832</v>
+        <v>2.630749428152829</v>
       </c>
       <c r="B117" t="n">
-        <v>2.952788391330244</v>
+        <v>2.952788391330243</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -14026,10 +14026,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4.622001231226675</v>
+        <v>4.622001231226671</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.872846123766907</v>
+        <v>-1.872846123766912</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -14037,10 +14037,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.963635750501128</v>
+        <v>-1.963635750501125</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.077726019538773</v>
+        <v>-1.077726019538776</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -14051,7 +14051,7 @@
         <v>-1.025087754493988</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.681170891682591</v>
+        <v>-1.681170891682586</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -14059,10 +14059,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-1.328585057613255</v>
+        <v>-1.328585057613253</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.07705379379718</v>
+        <v>-1.077053793797174</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -14073,7 +14073,7 @@
         <v>1.557291259435504</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3309230481149619</v>
+        <v>0.3309230481149568</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -14081,10 +14081,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2.665507709490603</v>
+        <v>2.665507709490601</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.6775766142060414</v>
+        <v>-0.6775766142060485</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -14092,10 +14092,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-2.371667129169497</v>
+        <v>-2.371667129169493</v>
       </c>
       <c r="B124" t="n">
-        <v>0.08799460718020742</v>
+        <v>0.08799460718020337</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -14103,10 +14103,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-1.313591384368912</v>
+        <v>-1.313591384368911</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.04704111732695351</v>
+        <v>-0.04704111732695472</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -14114,10 +14114,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2.722441545448401</v>
+        <v>2.722441545448402</v>
       </c>
       <c r="B126" t="n">
-        <v>3.87098318391917</v>
+        <v>3.870983183919174</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -14125,10 +14125,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.479759012499296</v>
+        <v>1.479759012499294</v>
       </c>
       <c r="B127" t="n">
-        <v>1.520956615709819</v>
+        <v>1.520956615709818</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -14139,7 +14139,7 @@
         <v>-0.7435717925376555</v>
       </c>
       <c r="B128" t="n">
-        <v>2.570172866280672</v>
+        <v>2.570172866280669</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -14158,10 +14158,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.1647652328354683</v>
+        <v>0.1647652328354676</v>
       </c>
       <c r="B130" t="n">
-        <v>2.192648760514019</v>
+        <v>2.192648760514022</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
